--- a/data/system/address/v1.xlsx
+++ b/data/system/address/v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022C18AB-DAF8-E04A-9680-164844258F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1461638-5142-7448-AFC1-2FD68DCA3895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2620" windowWidth="20940" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4730,12 +4730,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/system/address/v1.xlsx
+++ b/data/system/address/v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1461638-5142-7448-AFC1-2FD68DCA3895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696BC5E7-210D-ED43-82FD-2F82BBC7A09D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2620" windowWidth="20940" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="1460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1459">
   <si>
     <t>seq</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>100000</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>00002</t>
@@ -4731,7 +4728,7 @@
   <dimension ref="A1:E373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4770,6299 +4767,6299 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+      <c r="E2" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D141" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D144" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D145" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D151" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D162" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D163" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>685</v>
-      </c>
       <c r="C169" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D171" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D173" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D175" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D176" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D185" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D188" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D189" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D190" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D191" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D194" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D196" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D197" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D205" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D206" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D207" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D208" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>840</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D209" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D210" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D211" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>856</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D213" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D215" s="1" t="s">
+      <c r="E215" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D218" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D220" s="1" t="s">
+      <c r="E220" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D221" s="1" t="s">
+      <c r="E221" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D223" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D224" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D225" s="1" t="s">
+      <c r="E225" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D226" s="1" t="s">
+      <c r="E226" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="C227" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D228" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D228" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D229" s="1" t="s">
+      <c r="E229" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D230" s="1" t="s">
+      <c r="E230" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D231" s="1" t="s">
+      <c r="E231" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="C232" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="D232" s="1" t="s">
+      <c r="E232" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="E233" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="C234" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="D234" s="1" t="s">
+      <c r="E234" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="D235" s="1" t="s">
+      <c r="E235" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="D236" s="1" t="s">
+      <c r="E236" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>941</v>
       </c>
       <c r="E237" s="1"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="E238" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C239" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="E239" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="C240" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="E240" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="C241" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D241" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="C241" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D241" s="1" t="s">
+      <c r="E241" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="C242" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D242" s="1" t="s">
+      <c r="E242" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="C243" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D243" s="1" t="s">
+      <c r="E243" s="1" t="s">
         <v>976</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="C244" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="C244" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D245" s="1" t="s">
+      <c r="E245" s="1" t="s">
         <v>984</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="C246" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D246" s="1" t="s">
+      <c r="E246" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C247" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D247" s="1" t="s">
+      <c r="E247" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="C248" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D248" s="1" t="s">
+      <c r="E248" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D249" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D249" s="1" t="s">
+      <c r="E249" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="C250" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D250" s="1" t="s">
+      <c r="E250" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C251" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D251" s="1" t="s">
+      <c r="E251" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="C252" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D252" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D252" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="C253" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C254" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="C254" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="C255" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D255" s="1" t="s">
+      <c r="E255" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="C256" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D256" s="1" t="s">
+      <c r="E256" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="C257" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C258" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D258" s="1" t="s">
+      <c r="E258" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C259" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C259" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D259" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C260" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="C260" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D260" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="C261" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="D261" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="E261" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="C262" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="C262" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D262" s="1" t="s">
+      <c r="E262" s="1" t="s">
         <v>1053</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="C263" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C263" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D263" s="1" t="s">
+      <c r="E263" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="C264" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="C264" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="C265" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D265" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="C265" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D265" s="1" t="s">
+      <c r="E265" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="C266" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D266" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="C266" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D266" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="C267" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D267" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="C268" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="C268" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>1077</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="C269" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D269" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="E270" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="C271" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D271" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="C272" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D273" s="1" t="s">
+      <c r="E273" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="C274" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D274" s="1" t="s">
+      <c r="E274" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="C275" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D275" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D275" s="1" t="s">
+      <c r="E275" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="C276" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="C276" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D276" s="1" t="s">
+      <c r="E276" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="C277" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D277" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="C277" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D277" s="1" t="s">
+      <c r="E277" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="C278" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="C278" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D279" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="C279" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D279" s="1" t="s">
+      <c r="E279" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D280" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="C280" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D280" s="1" t="s">
+      <c r="E280" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="C281" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D281" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="C281" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D281" s="1" t="s">
+      <c r="E281" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D282" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="C282" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D282" s="1" t="s">
+      <c r="E282" s="1" t="s">
         <v>1134</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="C283" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D283" s="1" t="s">
+      <c r="E283" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="C284" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D284" s="1" t="s">
+      <c r="E284" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D285" s="1" t="s">
+      <c r="E285" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="C286" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="E286" s="1" t="s">
         <v>1151</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="C287" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D287" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="C287" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D287" s="1" t="s">
+      <c r="E287" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="C288" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D288" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="C288" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D288" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="C289" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="C289" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D289" s="1" t="s">
+      <c r="E289" s="1" t="s">
         <v>1163</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="C290" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D290" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="C290" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D290" s="1" t="s">
+      <c r="E290" s="1" t="s">
         <v>1167</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="C291" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D291" s="1" t="s">
         <v>1170</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>1171</v>
       </c>
       <c r="E291" s="1"/>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="C292" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D292" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="C292" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D292" s="1" t="s">
+      <c r="E292" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="C293" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="E293" s="1" t="s">
         <v>1179</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="C294" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D294" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="C294" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D294" s="1" t="s">
+      <c r="E294" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="C295" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D295" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="C295" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D295" s="1" t="s">
+      <c r="E295" s="1" t="s">
         <v>1187</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="C296" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D296" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="C296" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D296" s="1" t="s">
+      <c r="E296" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="C297" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D297" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="C297" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D297" s="1" t="s">
+      <c r="E297" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="C298" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D298" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="C298" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D298" s="1" t="s">
+      <c r="E298" s="1" t="s">
         <v>1199</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="C299" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D299" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="C299" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D299" s="1" t="s">
+      <c r="E299" s="1" t="s">
         <v>1203</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="C300" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D300" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="C300" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D300" s="1" t="s">
+      <c r="E300" s="1" t="s">
         <v>1207</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="C301" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D301" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="C301" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D301" s="1" t="s">
+      <c r="E301" s="1" t="s">
         <v>1211</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="C302" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D302" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="C302" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D302" s="1" t="s">
+      <c r="E302" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="C303" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="E303" s="1" t="s">
         <v>1220</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="C304" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D304" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="C304" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D304" s="1" t="s">
+      <c r="E304" s="1" t="s">
         <v>1224</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="C305" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D305" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="C305" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D305" s="1" t="s">
+      <c r="E305" s="1" t="s">
         <v>1228</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="C306" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D306" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="C306" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D306" s="1" t="s">
+      <c r="E306" s="1" t="s">
         <v>1232</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="C307" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D307" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="C307" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D307" s="1" t="s">
+      <c r="E307" s="1" t="s">
         <v>1236</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="C308" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D308" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="C308" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D308" s="1" t="s">
+      <c r="E308" s="1" t="s">
         <v>1240</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="C309" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D309" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="C309" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D309" s="1" t="s">
+      <c r="E309" s="1" t="s">
         <v>1244</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="C310" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D310" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="C310" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D310" s="1" t="s">
+      <c r="E310" s="1" t="s">
         <v>1248</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="C311" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="C311" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D311" s="1" t="s">
+      <c r="E311" s="1" t="s">
         <v>1252</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="C312" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D312" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="C312" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D312" s="1" t="s">
+      <c r="E312" s="1" t="s">
         <v>1256</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="C313" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D313" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="C313" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D313" s="1" t="s">
+      <c r="E313" s="1" t="s">
         <v>1260</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="C314" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D314" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="C314" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D314" s="1" t="s">
+      <c r="E314" s="1" t="s">
         <v>1264</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="C315" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="C315" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D315" s="1" t="s">
+      <c r="E315" s="1" t="s">
         <v>1268</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="C316" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D316" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="C316" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D316" s="1" t="s">
+      <c r="E316" s="1" t="s">
         <v>1272</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="C317" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="D317" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="D317" s="1" t="s">
+      <c r="E317" s="1" t="s">
         <v>1277</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="C318" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D318" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="C318" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D318" s="1" t="s">
+      <c r="E318" s="1" t="s">
         <v>1281</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="C319" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="C319" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D319" s="1" t="s">
+      <c r="E319" s="1" t="s">
         <v>1285</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="C320" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="C320" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D320" s="1" t="s">
+      <c r="E320" s="1" t="s">
         <v>1289</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="C321" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D321" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="C321" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D321" s="1" t="s">
+      <c r="E321" s="1" t="s">
         <v>1293</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="C322" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E322" s="1" t="s">
         <v>1296</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="C323" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D323" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="C323" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D323" s="1" t="s">
+      <c r="E323" s="1" t="s">
         <v>1300</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="C324" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="C324" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D324" s="1" t="s">
+      <c r="E324" s="1" t="s">
         <v>1304</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="C325" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="D325" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="E325" s="1" t="s">
         <v>1309</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="C326" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D326" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="C326" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D326" s="1" t="s">
+      <c r="E326" s="1" t="s">
         <v>1313</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="C327" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="C327" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D327" s="1" t="s">
+      <c r="E327" s="1" t="s">
         <v>1317</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="C328" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D328" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="C328" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D328" s="1" t="s">
+      <c r="E328" s="1" t="s">
         <v>1321</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="C329" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D329" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="C329" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D329" s="1" t="s">
+      <c r="E329" s="1" t="s">
         <v>1325</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="C330" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="D330" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="E330" s="1" t="s">
         <v>1330</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="C331" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D331" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="C331" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D331" s="1" t="s">
+      <c r="E331" s="1" t="s">
         <v>1334</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="C332" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D332" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="C332" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D332" s="1" t="s">
+      <c r="E332" s="1" t="s">
         <v>1338</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="C333" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D333" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="C333" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D333" s="1" t="s">
+      <c r="E333" s="1" t="s">
         <v>1342</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="C334" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D334" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="C334" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D334" s="1" t="s">
+      <c r="E334" s="1" t="s">
         <v>1346</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="C335" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D335" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="C335" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D335" s="1" t="s">
+      <c r="E335" s="1" t="s">
         <v>1350</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="C336" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D336" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="C336" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D336" s="1" t="s">
+      <c r="E336" s="1" t="s">
         <v>1354</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="C337" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D337" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="C337" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D337" s="1" t="s">
+      <c r="E337" s="1" t="s">
         <v>1358</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="C338" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D338" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="C338" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D338" s="1" t="s">
+      <c r="E338" s="1" t="s">
         <v>1362</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C339" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D339" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="C339" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D339" s="1" t="s">
+      <c r="E339" s="1" t="s">
         <v>1366</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="C340" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D340" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="C340" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D340" s="1" t="s">
+      <c r="E340" s="1" t="s">
         <v>1370</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="C341" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D341" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="C341" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D341" s="1" t="s">
+      <c r="E341" s="1" t="s">
         <v>1374</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="C342" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D342" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="C342" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D342" s="1" t="s">
+      <c r="E342" s="1" t="s">
         <v>1378</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="C343" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D343" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="C343" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D343" s="1" t="s">
+      <c r="E343" s="1" t="s">
         <v>1382</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C344" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D344" s="1" t="s">
         <v>1329</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>1330</v>
       </c>
       <c r="E344" s="1"/>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="C345" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="D345" s="1" t="s">
-        <v>1388</v>
-      </c>
       <c r="E345" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="B346" s="1" t="s">
-        <v>1390</v>
-      </c>
       <c r="C346" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="D346" s="1" t="s">
-        <v>1388</v>
-      </c>
       <c r="E346" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="B347" s="1" t="s">
-        <v>1392</v>
-      </c>
       <c r="C347" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D347" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="D347" s="1" t="s">
-        <v>1388</v>
-      </c>
       <c r="E347" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="C348" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="D348" s="1" t="s">
-        <v>1396</v>
-      </c>
       <c r="E348" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>1398</v>
-      </c>
       <c r="C349" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D349" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="D349" s="1" t="s">
-        <v>1396</v>
-      </c>
       <c r="E349" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>1400</v>
-      </c>
       <c r="C350" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D350" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="D350" s="1" t="s">
-        <v>1396</v>
-      </c>
       <c r="E350" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="C351" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="E351" s="1" t="s">
         <v>1404</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="C352" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E352" s="1" t="s">
         <v>1407</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="B353" s="1" t="s">
-        <v>1410</v>
-      </c>
       <c r="C353" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D353" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="D353" s="1" t="s">
-        <v>1404</v>
-      </c>
       <c r="E353" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="C354" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E354" s="1" t="s">
         <v>1412</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="B355" s="1" t="s">
-        <v>1415</v>
-      </c>
       <c r="C355" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D355" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="D355" s="1" t="s">
-        <v>1404</v>
-      </c>
       <c r="E355" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="B356" s="1" t="s">
-        <v>1417</v>
-      </c>
       <c r="C356" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D356" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="D356" s="1" t="s">
-        <v>1404</v>
-      </c>
       <c r="E356" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="C357" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E357" s="1" t="s">
         <v>1419</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="C358" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E358" s="1" t="s">
         <v>1422</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="C359" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E359" s="1" t="s">
         <v>1425</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="B360" s="1" t="s">
-        <v>1428</v>
-      </c>
       <c r="C360" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D360" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="D360" s="1" t="s">
-        <v>1404</v>
-      </c>
       <c r="E360" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B361" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="C361" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E361" s="1" t="s">
         <v>1430</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B362" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="B362" s="1" t="s">
-        <v>1433</v>
-      </c>
       <c r="C362" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D362" s="1" t="s">
         <v>1403</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>1404</v>
       </c>
       <c r="E362" s="1"/>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B363" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="C363" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E363" s="1" t="s">
         <v>1435</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="B364" s="1" t="s">
-        <v>1438</v>
-      </c>
       <c r="C364" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D364" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="D364" s="1" t="s">
-        <v>1404</v>
-      </c>
       <c r="E364" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="C365" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E365" s="1" t="s">
         <v>1440</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B366" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="C366" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E366" s="1" t="s">
         <v>1443</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B367" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="B367" s="1" t="s">
-        <v>1446</v>
-      </c>
       <c r="C367" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D367" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="D367" s="1" t="s">
+      <c r="E367" s="1" t="s">
         <v>1404</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="B368" s="1" t="s">
-        <v>1448</v>
-      </c>
       <c r="C368" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D368" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="D368" s="1" t="s">
-        <v>1404</v>
-      </c>
       <c r="E368" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>1450</v>
-      </c>
       <c r="C369" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D369" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="D369" s="1" t="s">
-        <v>1404</v>
-      </c>
       <c r="E369" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="C370" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E370" s="1" t="s">
         <v>1452</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="B371" s="1" t="s">
-        <v>1455</v>
-      </c>
       <c r="C371" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D371" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="D371" s="1" t="s">
-        <v>1404</v>
-      </c>
       <c r="E371" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="B372" s="1" t="s">
-        <v>1457</v>
-      </c>
       <c r="C372" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D372" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="D372" s="1" t="s">
-        <v>1404</v>
-      </c>
       <c r="E372" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B373" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="B373" s="1" t="s">
-        <v>1459</v>
-      </c>
       <c r="C373" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D373" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="D373" s="1" t="s">
-        <v>1404</v>
-      </c>
       <c r="E373" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
   </sheetData>

--- a/data/system/address/v1.xlsx
+++ b/data/system/address/v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696BC5E7-210D-ED43-82FD-2F82BBC7A09D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5F07C3-BED7-2C4B-824F-C454ED8F2C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2620" windowWidth="20940" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4447,9 +4447,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4728,7 +4731,7 @@
   <dimension ref="A1:E373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4767,7 +4770,7 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>10</v>
       </c>
     </row>

--- a/data/system/address/v1.xlsx
+++ b/data/system/address/v1.xlsx
@@ -3,26 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5F07C3-BED7-2C4B-824F-C454ED8F2C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18158B4A-1497-424E-B3A9-8D4E0FAD08E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2620" windowWidth="20940" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="city" sheetId="1" r:id="rId1"/>
+    <sheet name="china" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="1460">
   <si>
     <t>seq</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -4392,6 +4389,14 @@
   </si>
   <si>
     <t>云林县</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4420,7 +4425,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4443,16 +4448,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4728,10 +4745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E373"/>
+  <dimension ref="A1:H373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4740,6329 +4757,6335 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="3" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D141" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D144" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D145" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D151" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D162" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D163" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="C169" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D171" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D173" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D175" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D176" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>688</v>
       </c>
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D185" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D188" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D189" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D190" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D191" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D194" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D196" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D197" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>807</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D205" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D206" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D207" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D208" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D209" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D210" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D211" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D213" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D215" s="1" t="s">
+      <c r="E215" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D218" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D220" s="1" t="s">
+      <c r="E220" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D221" s="1" t="s">
+      <c r="E221" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D223" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D224" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D225" s="1" t="s">
+      <c r="E225" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D226" s="1" t="s">
+      <c r="E226" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="C227" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D228" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D228" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D229" s="1" t="s">
+      <c r="E229" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D230" s="1" t="s">
+      <c r="E230" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D231" s="1" t="s">
+      <c r="E231" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="C232" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="D232" s="1" t="s">
+      <c r="E232" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="E233" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="C234" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="D234" s="1" t="s">
+      <c r="E234" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="D235" s="1" t="s">
+      <c r="E235" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="D236" s="1" t="s">
+      <c r="E236" s="1" t="s">
         <v>952</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>940</v>
       </c>
       <c r="E237" s="1"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C238" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="E238" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C239" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="E239" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="C240" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="E240" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="C241" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D241" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="C241" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D241" s="1" t="s">
+      <c r="E241" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="C242" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D242" s="1" t="s">
+      <c r="E242" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="C243" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D243" s="1" t="s">
+      <c r="E243" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="C244" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="C244" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D245" s="1" t="s">
+      <c r="E245" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="C246" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D246" s="1" t="s">
+      <c r="E246" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C247" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D247" s="1" t="s">
+      <c r="E247" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="C248" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D248" s="1" t="s">
+      <c r="E248" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D249" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D249" s="1" t="s">
+      <c r="E249" s="1" t="s">
         <v>999</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="C250" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D250" s="1" t="s">
+      <c r="E250" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C251" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D251" s="1" t="s">
+      <c r="E251" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="C252" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D252" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D252" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="C253" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C254" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C254" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="C255" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D255" s="1" t="s">
+      <c r="E255" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="C256" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D256" s="1" t="s">
+      <c r="E256" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="C257" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C258" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D258" s="1" t="s">
+      <c r="E258" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C259" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="C259" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D259" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C260" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C260" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D260" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="C261" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="D261" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="E261" s="1" t="s">
         <v>1048</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="C262" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="C262" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D262" s="1" t="s">
+      <c r="E262" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="C263" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C263" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D263" s="1" t="s">
+      <c r="E263" s="1" t="s">
         <v>1056</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="C264" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="C264" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="C265" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D265" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="C265" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D265" s="1" t="s">
+      <c r="E265" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="C266" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D266" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="C266" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D266" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>1068</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="C267" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D267" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="C268" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C268" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="C269" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D269" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="E270" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="C271" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D271" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>1089</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="C272" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D273" s="1" t="s">
+      <c r="E273" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="C274" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D274" s="1" t="s">
+      <c r="E274" s="1" t="s">
         <v>1101</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="C275" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D275" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D275" s="1" t="s">
+      <c r="E275" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="C276" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="C276" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D276" s="1" t="s">
+      <c r="E276" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="C277" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D277" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="C277" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D277" s="1" t="s">
+      <c r="E277" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="C278" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="C278" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D279" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="C279" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D279" s="1" t="s">
+      <c r="E279" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D280" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="C280" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D280" s="1" t="s">
+      <c r="E280" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="C281" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D281" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="C281" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D281" s="1" t="s">
+      <c r="E281" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D282" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="C282" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D282" s="1" t="s">
+      <c r="E282" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="C283" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D283" s="1" t="s">
+      <c r="E283" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="C284" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D284" s="1" t="s">
+      <c r="E284" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D285" s="1" t="s">
+      <c r="E285" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="C286" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="E286" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="C287" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D287" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="C287" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D287" s="1" t="s">
+      <c r="E287" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="C288" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D288" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="C288" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D288" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="C289" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="C289" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D289" s="1" t="s">
+      <c r="E289" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="C290" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D290" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="C290" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D290" s="1" t="s">
+      <c r="E290" s="1" t="s">
         <v>1166</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="C291" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D291" s="1" t="s">
         <v>1169</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>1170</v>
       </c>
       <c r="E291" s="1"/>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="C292" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D292" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="C292" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D292" s="1" t="s">
+      <c r="E292" s="1" t="s">
         <v>1173</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="C293" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="E293" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="C294" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D294" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="C294" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D294" s="1" t="s">
+      <c r="E294" s="1" t="s">
         <v>1182</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="C295" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D295" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="C295" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D295" s="1" t="s">
+      <c r="E295" s="1" t="s">
         <v>1186</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="C296" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D296" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="C296" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D296" s="1" t="s">
+      <c r="E296" s="1" t="s">
         <v>1190</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="C297" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D297" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C297" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D297" s="1" t="s">
+      <c r="E297" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="C298" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D298" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="C298" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D298" s="1" t="s">
+      <c r="E298" s="1" t="s">
         <v>1198</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="C299" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D299" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="C299" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D299" s="1" t="s">
+      <c r="E299" s="1" t="s">
         <v>1202</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="C300" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D300" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="C300" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D300" s="1" t="s">
+      <c r="E300" s="1" t="s">
         <v>1206</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="C301" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D301" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="C301" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D301" s="1" t="s">
+      <c r="E301" s="1" t="s">
         <v>1210</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="C302" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D302" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="C302" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D302" s="1" t="s">
+      <c r="E302" s="1" t="s">
         <v>1214</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="C303" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="E303" s="1" t="s">
         <v>1219</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="C304" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D304" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="C304" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D304" s="1" t="s">
+      <c r="E304" s="1" t="s">
         <v>1223</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="C305" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D305" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="C305" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D305" s="1" t="s">
+      <c r="E305" s="1" t="s">
         <v>1227</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="C306" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D306" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="C306" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D306" s="1" t="s">
+      <c r="E306" s="1" t="s">
         <v>1231</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="C307" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D307" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="C307" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D307" s="1" t="s">
+      <c r="E307" s="1" t="s">
         <v>1235</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="C308" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D308" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C308" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D308" s="1" t="s">
+      <c r="E308" s="1" t="s">
         <v>1239</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="C309" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D309" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="C309" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D309" s="1" t="s">
+      <c r="E309" s="1" t="s">
         <v>1243</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="C310" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D310" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="C310" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D310" s="1" t="s">
+      <c r="E310" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="C311" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="C311" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D311" s="1" t="s">
+      <c r="E311" s="1" t="s">
         <v>1251</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="C312" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D312" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="C312" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D312" s="1" t="s">
+      <c r="E312" s="1" t="s">
         <v>1255</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="C313" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D313" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="C313" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D313" s="1" t="s">
+      <c r="E313" s="1" t="s">
         <v>1259</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="C314" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D314" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="C314" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D314" s="1" t="s">
+      <c r="E314" s="1" t="s">
         <v>1263</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="C315" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="C315" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D315" s="1" t="s">
+      <c r="E315" s="1" t="s">
         <v>1267</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="C316" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D316" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="C316" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D316" s="1" t="s">
+      <c r="E316" s="1" t="s">
         <v>1271</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="C317" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="D317" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="D317" s="1" t="s">
+      <c r="E317" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="C318" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D318" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="C318" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D318" s="1" t="s">
+      <c r="E318" s="1" t="s">
         <v>1280</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="C319" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="C319" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D319" s="1" t="s">
+      <c r="E319" s="1" t="s">
         <v>1284</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="C320" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="C320" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D320" s="1" t="s">
+      <c r="E320" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="C321" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D321" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="C321" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D321" s="1" t="s">
+      <c r="E321" s="1" t="s">
         <v>1292</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="C322" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E322" s="1" t="s">
         <v>1295</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="C323" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D323" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="C323" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D323" s="1" t="s">
+      <c r="E323" s="1" t="s">
         <v>1299</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="C324" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="C324" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D324" s="1" t="s">
+      <c r="E324" s="1" t="s">
         <v>1303</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="C325" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="D325" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="E325" s="1" t="s">
         <v>1308</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="C326" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D326" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="C326" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D326" s="1" t="s">
+      <c r="E326" s="1" t="s">
         <v>1312</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="C327" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="C327" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D327" s="1" t="s">
+      <c r="E327" s="1" t="s">
         <v>1316</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="C328" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D328" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="C328" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D328" s="1" t="s">
+      <c r="E328" s="1" t="s">
         <v>1320</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="C329" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D329" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="C329" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D329" s="1" t="s">
+      <c r="E329" s="1" t="s">
         <v>1324</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="C330" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="D330" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="E330" s="1" t="s">
         <v>1329</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="C331" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D331" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="C331" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D331" s="1" t="s">
+      <c r="E331" s="1" t="s">
         <v>1333</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="C332" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D332" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="C332" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D332" s="1" t="s">
+      <c r="E332" s="1" t="s">
         <v>1337</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="C333" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D333" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="C333" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D333" s="1" t="s">
+      <c r="E333" s="1" t="s">
         <v>1341</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="C334" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D334" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="C334" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D334" s="1" t="s">
+      <c r="E334" s="1" t="s">
         <v>1345</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="C335" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D335" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="C335" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D335" s="1" t="s">
+      <c r="E335" s="1" t="s">
         <v>1349</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="C336" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D336" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="C336" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D336" s="1" t="s">
+      <c r="E336" s="1" t="s">
         <v>1353</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="C337" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D337" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="C337" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D337" s="1" t="s">
+      <c r="E337" s="1" t="s">
         <v>1357</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="C338" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D338" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="C338" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D338" s="1" t="s">
+      <c r="E338" s="1" t="s">
         <v>1361</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C339" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D339" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="C339" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D339" s="1" t="s">
+      <c r="E339" s="1" t="s">
         <v>1365</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="C340" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D340" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="C340" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D340" s="1" t="s">
+      <c r="E340" s="1" t="s">
         <v>1369</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="C341" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D341" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="C341" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D341" s="1" t="s">
+      <c r="E341" s="1" t="s">
         <v>1373</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="C342" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D342" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="C342" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D342" s="1" t="s">
+      <c r="E342" s="1" t="s">
         <v>1377</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="C343" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D343" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="C343" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D343" s="1" t="s">
+      <c r="E343" s="1" t="s">
         <v>1381</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C344" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D344" s="1" t="s">
         <v>1328</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>1329</v>
       </c>
       <c r="E344" s="1"/>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="C345" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="D345" s="1" t="s">
-        <v>1387</v>
-      </c>
       <c r="E345" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="B346" s="1" t="s">
-        <v>1389</v>
-      </c>
       <c r="C346" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="D346" s="1" t="s">
-        <v>1387</v>
-      </c>
       <c r="E346" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="B347" s="1" t="s">
-        <v>1391</v>
-      </c>
       <c r="C347" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D347" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="D347" s="1" t="s">
-        <v>1387</v>
-      </c>
       <c r="E347" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="C348" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="D348" s="1" t="s">
-        <v>1395</v>
-      </c>
       <c r="E348" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>1397</v>
-      </c>
       <c r="C349" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D349" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="D349" s="1" t="s">
-        <v>1395</v>
-      </c>
       <c r="E349" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>1399</v>
-      </c>
       <c r="C350" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D350" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="D350" s="1" t="s">
-        <v>1395</v>
-      </c>
       <c r="E350" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="C351" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="E351" s="1" t="s">
         <v>1403</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="C352" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E352" s="1" t="s">
         <v>1406</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="B353" s="1" t="s">
-        <v>1409</v>
-      </c>
       <c r="C353" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D353" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D353" s="1" t="s">
-        <v>1403</v>
-      </c>
       <c r="E353" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="C354" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E354" s="1" t="s">
         <v>1411</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="B355" s="1" t="s">
-        <v>1414</v>
-      </c>
       <c r="C355" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D355" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D355" s="1" t="s">
-        <v>1403</v>
-      </c>
       <c r="E355" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="B356" s="1" t="s">
-        <v>1416</v>
-      </c>
       <c r="C356" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D356" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D356" s="1" t="s">
-        <v>1403</v>
-      </c>
       <c r="E356" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="C357" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E357" s="1" t="s">
         <v>1418</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="C358" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E358" s="1" t="s">
         <v>1421</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="C359" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E359" s="1" t="s">
         <v>1424</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="B360" s="1" t="s">
-        <v>1427</v>
-      </c>
       <c r="C360" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D360" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D360" s="1" t="s">
-        <v>1403</v>
-      </c>
       <c r="E360" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B361" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="C361" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E361" s="1" t="s">
         <v>1429</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B362" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="B362" s="1" t="s">
-        <v>1432</v>
-      </c>
       <c r="C362" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D362" s="1" t="s">
         <v>1402</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>1403</v>
       </c>
       <c r="E362" s="1"/>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B363" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="C363" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E363" s="1" t="s">
         <v>1434</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="B364" s="1" t="s">
-        <v>1437</v>
-      </c>
       <c r="C364" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D364" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D364" s="1" t="s">
-        <v>1403</v>
-      </c>
       <c r="E364" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="C365" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E365" s="1" t="s">
         <v>1439</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B366" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="C366" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E366" s="1" t="s">
         <v>1442</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B367" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="B367" s="1" t="s">
-        <v>1445</v>
-      </c>
       <c r="C367" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D367" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D367" s="1" t="s">
+      <c r="E367" s="1" t="s">
         <v>1403</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="B368" s="1" t="s">
-        <v>1447</v>
-      </c>
       <c r="C368" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D368" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D368" s="1" t="s">
-        <v>1403</v>
-      </c>
       <c r="E368" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>1449</v>
-      </c>
       <c r="C369" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D369" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D369" s="1" t="s">
-        <v>1403</v>
-      </c>
       <c r="E369" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="C370" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E370" s="1" t="s">
         <v>1451</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="B371" s="1" t="s">
-        <v>1454</v>
-      </c>
       <c r="C371" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D371" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D371" s="1" t="s">
-        <v>1403</v>
-      </c>
       <c r="E371" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="B372" s="1" t="s">
-        <v>1456</v>
-      </c>
       <c r="C372" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D372" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D372" s="1" t="s">
-        <v>1403</v>
-      </c>
       <c r="E372" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B373" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="B373" s="1" t="s">
-        <v>1458</v>
-      </c>
       <c r="C373" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D373" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D373" s="1" t="s">
-        <v>1403</v>
-      </c>
       <c r="E373" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
   </sheetData>

--- a/data/system/address/v1.xlsx
+++ b/data/system/address/v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18158B4A-1497-424E-B3A9-8D4E0FAD08E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B048D6C-FD4C-3847-9844-B56CCC216AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2620" windowWidth="20940" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4745,7 +4745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H373"/>
+  <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -4757,7 +4757,7 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -4912,11 +4912,8 @@
       <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -4933,7 +4930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -4950,7 +4947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -4967,7 +4964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -4984,7 +4981,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -5001,7 +4998,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -5018,7 +5015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>

--- a/data/system/address/v1.xlsx
+++ b/data/system/address/v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B048D6C-FD4C-3847-9844-B56CCC216AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AF0523-E26C-A643-BF69-C06420542125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2620" windowWidth="20940" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="1460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1461">
   <si>
     <t>seq</t>
   </si>
@@ -4396,6 +4396,10 @@
   </si>
   <si>
     <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4748,7 +4752,7 @@
   <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4790,6 +4794,9 @@
       <c r="E2" s="2">
         <v>10</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">

--- a/data/system/address/v1.xlsx
+++ b/data/system/address/v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AF0523-E26C-A643-BF69-C06420542125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22DC603-C48C-754C-9CD1-BE1C10A4C6D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2620" windowWidth="20940" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="2600" windowWidth="20940" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="china" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="1458">
   <si>
     <t>seq</t>
   </si>
@@ -1658,9 +1658,6 @@
     <t>山东省</t>
   </si>
   <si>
-    <t>250000</t>
-  </si>
-  <si>
     <t>531</t>
   </si>
   <si>
@@ -1848,9 +1845,6 @@
   </si>
   <si>
     <t>菏泽市</t>
-  </si>
-  <si>
-    <t>274000</t>
   </si>
   <si>
     <t>530</t>
@@ -4396,10 +4390,6 @@
   </si>
   <si>
     <t>city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4752,7 +4742,7 @@
   <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4766,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4794,9 +4784,7 @@
       <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>1460</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -4883,7 +4871,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7051,4045 +7039,4045 @@
       <c r="C135" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="1">
+        <v>250000</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D136" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D139" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D140" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D141" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D142" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D144" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D145" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D147" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D148" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D149" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D150" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>611</v>
+      <c r="D151" s="1">
+        <v>274000</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>817</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>861</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="E215" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="E220" s="1" t="s">
         <v>886</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="E221" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="E225" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="E226" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D228" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="E229" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="E230" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="E231" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="E232" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="E233" s="1" t="s">
         <v>938</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="E234" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="E235" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="E236" s="1" t="s">
         <v>950</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E237" s="1"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E238" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C239" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E239" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="E240" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D241" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="E241" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="E242" s="1" t="s">
         <v>969</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="E243" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="E244" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="E245" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="E246" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="E247" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="E248" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D249" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="E249" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="E250" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="E251" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D252" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="E254" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="E255" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="E256" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="E257" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="E258" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="D261" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="E261" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="E262" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="E263" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D265" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="E265" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D266" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="E270" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="E273" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="E274" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D275" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="E275" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="E276" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D277" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="E277" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="E278" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D279" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="E279" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D280" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="E280" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D281" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="E281" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D282" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="E282" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="E283" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="E284" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="E285" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="E286" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D287" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="E287" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D288" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="E289" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D290" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="E290" s="1" t="s">
         <v>1164</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D291" s="1" t="s">
         <v>1167</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>1169</v>
       </c>
       <c r="E291" s="1"/>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D292" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="E292" s="1" t="s">
         <v>1171</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="E293" s="1" t="s">
         <v>1176</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D294" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="E294" s="1" t="s">
         <v>1180</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D295" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="E295" s="1" t="s">
         <v>1184</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D296" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="E296" s="1" t="s">
         <v>1188</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D297" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="E297" s="1" t="s">
         <v>1192</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D298" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="E298" s="1" t="s">
         <v>1196</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D299" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="E299" s="1" t="s">
         <v>1200</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D300" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="E300" s="1" t="s">
         <v>1204</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D301" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="E301" s="1" t="s">
         <v>1208</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D302" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="E302" s="1" t="s">
         <v>1212</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="E303" s="1" t="s">
         <v>1217</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D304" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="E304" s="1" t="s">
         <v>1221</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D305" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="E305" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D306" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="E306" s="1" t="s">
         <v>1229</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D307" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="E307" s="1" t="s">
         <v>1233</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D308" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="E308" s="1" t="s">
         <v>1237</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D309" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="E309" s="1" t="s">
         <v>1241</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D310" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="E310" s="1" t="s">
         <v>1245</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="E311" s="1" t="s">
         <v>1249</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D312" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="E312" s="1" t="s">
         <v>1253</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D313" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="E313" s="1" t="s">
         <v>1257</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D314" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="E314" s="1" t="s">
         <v>1261</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="E315" s="1" t="s">
         <v>1265</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D316" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="E316" s="1" t="s">
         <v>1269</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="D317" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="E317" s="1" t="s">
         <v>1274</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D318" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="E318" s="1" t="s">
         <v>1278</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="E319" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="E320" s="1" t="s">
         <v>1286</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D321" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="E321" s="1" t="s">
         <v>1290</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E322" s="1" t="s">
         <v>1293</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D323" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="E323" s="1" t="s">
         <v>1297</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="E324" s="1" t="s">
         <v>1301</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="D325" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="E325" s="1" t="s">
         <v>1306</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D326" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="E326" s="1" t="s">
         <v>1310</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="E327" s="1" t="s">
         <v>1314</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D328" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="E328" s="1" t="s">
         <v>1318</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D329" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="E329" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="D330" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="E330" s="1" t="s">
         <v>1327</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D331" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="E331" s="1" t="s">
         <v>1331</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D332" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="E332" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D333" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="E333" s="1" t="s">
         <v>1339</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D334" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="E334" s="1" t="s">
         <v>1343</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D335" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="E335" s="1" t="s">
         <v>1347</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D336" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="E336" s="1" t="s">
         <v>1351</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D337" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="E337" s="1" t="s">
         <v>1355</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D338" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="E338" s="1" t="s">
         <v>1359</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D339" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="E339" s="1" t="s">
         <v>1363</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D340" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="E340" s="1" t="s">
         <v>1367</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D341" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="E341" s="1" t="s">
         <v>1371</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D342" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="E342" s="1" t="s">
         <v>1375</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D343" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="E343" s="1" t="s">
         <v>1379</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="1" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E344" s="1"/>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="C345" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>1386</v>
-      </c>
       <c r="E345" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="1" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="1" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="C348" s="1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>1394</v>
-      </c>
       <c r="E348" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="E351" s="1" t="s">
         <v>1401</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E352" s="1" t="s">
         <v>1404</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="1" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E354" s="1" t="s">
         <v>1409</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="1" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="1" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E357" s="1" t="s">
         <v>1416</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E358" s="1" t="s">
         <v>1419</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E359" s="1" t="s">
         <v>1422</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E361" s="1" t="s">
         <v>1427</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E362" s="1"/>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E363" s="1" t="s">
         <v>1432</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E365" s="1" t="s">
         <v>1437</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E366" s="1" t="s">
         <v>1440</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="1" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C367" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E367" s="1" t="s">
         <v>1401</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="1" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="1" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E370" s="1" t="s">
         <v>1449</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="1" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="1" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="1" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
   </sheetData>

--- a/data/system/address/v1.xlsx
+++ b/data/system/address/v1.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22DC603-C48C-754C-9CD1-BE1C10A4C6D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2600" windowWidth="20940" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="14360" windowWidth="20940" xWindow="3300" yWindow="2600"/>
   </bookViews>
   <sheets>
     <sheet name="china" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1458">
   <si>
     <t>seq</t>
   </si>
@@ -4384,19 +4391,15 @@
   <si>
     <t>云林县</t>
   </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+  <si/>
   <si>
     <t>city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -4413,10 +4416,16 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -4459,17 +4468,17 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4738,17 +4747,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col customWidth="true" max="2" min="2" width="8.83203125"/>
+    <col customWidth="true" max="3" min="3" width="18.6640625"/>
+    <col customWidth="true" max="7" min="7" width="48.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4785,6 +4795,9 @@
         <v>10</v>
       </c>
       <c r="F2" s="3"/>
+      <c r="CW2" t="str">
+        <v>b49a06d59d0ac37f521ee5ccc9c05728</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -4802,6 +4815,9 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="CW3" t="str">
+        <v>2f1070bfbed9377b846839a71bb495ac</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -4819,6 +4835,9 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="CW4" t="str">
+        <v>3f35369913f6aae6bebe2bfa44f21c24</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -4836,6 +4855,9 @@
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="CW5" t="str">
+        <v>24900e020b2af31a7e471066613c7097</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -4853,6 +4875,9 @@
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="CW6" t="str">
+        <v>c15a5d047c7b818bb463101404843085</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -4873,6 +4898,9 @@
       <c r="F7" s="3" t="s">
         <v>1456</v>
       </c>
+      <c r="CW7" t="str">
+        <v>34955cbcd66cc2fc987ffb152f06da43</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
@@ -4890,6 +4918,9 @@
       <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="CW8" t="str">
+        <v>dd2b84c85235265ce7a48df271cb764d</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -4907,6 +4938,9 @@
       <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="CW9" t="str">
+        <v>8e11f9a21b234d68d8e6955dc74b1e87</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -4924,6 +4958,9 @@
       <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="CW10" t="str">
+        <v>f557b9e25e79e8f65fe2054b9e693e5a</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -4941,6 +4978,9 @@
       <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="CW11" t="str">
+        <v>e7d80e7c1b0b4be2f8907cbd1c67b258</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
@@ -4958,6 +4998,9 @@
       <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="CW12" t="str">
+        <v>a4a7a326c43499002a1b0df2c8244e3b</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -4975,6 +5018,9 @@
       <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="CW13" t="str">
+        <v>a37c1c94c730aa1bca182d74a3651551</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
@@ -4992,6 +5038,9 @@
       <c r="E14" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="CW14" t="str">
+        <v>2b261f7f5c138cf259ab1bf2554dd88f</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
@@ -5009,6 +5058,9 @@
       <c r="E15" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="CW15" t="str">
+        <v>3457bde3e481a35ff55d925d2adf0439</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
@@ -5026,6 +5078,9 @@
       <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="CW16" t="str">
+        <v>b2976ca118d5952b44c17afaebb0367d</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
@@ -5043,6 +5098,9 @@
       <c r="E17" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="CW17" t="str">
+        <v>63179f597865ad7794f5def4b3b49c44</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
@@ -5060,6 +5118,9 @@
       <c r="E18" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="CW18" t="str">
+        <v>ee30dca164e1183cef1c20d29dc3baac</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
@@ -5077,6 +5138,9 @@
       <c r="E19" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="CW19" t="str">
+        <v>a1d183bc1013ead2337d2fb2ae0f13cd</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
@@ -5094,6 +5158,9 @@
       <c r="E20" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="CW20" t="str">
+        <v>7d7e4c088377e364d0bbee16c7ce5218</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
@@ -5111,6 +5178,9 @@
       <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="CW21" t="str">
+        <v>0e7d1ed89a2f87ca2f61e1700330e81e</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
@@ -5128,6 +5198,9 @@
       <c r="E22" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="CW22" t="str">
+        <v>0774367e80fedf18e278203ccc053a60</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
@@ -5145,6 +5218,9 @@
       <c r="E23" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="CW23" t="str">
+        <v>63b16328a0864c51f03834cb83c25fb3</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
@@ -5162,6 +5238,9 @@
       <c r="E24" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="CW24" t="str">
+        <v>ac8a7326677b6ee6dd958bc5d20c73fd</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
@@ -5179,6 +5258,9 @@
       <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="CW25" t="str">
+        <v>f15cf1c6548ddd43721f8a6c744409b6</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
@@ -5196,6 +5278,9 @@
       <c r="E26" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="CW26" t="str">
+        <v>87a40eac75bbb00a7ed9c16aca797a27</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
@@ -5213,6 +5298,9 @@
       <c r="E27" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="CW27" t="str">
+        <v>b457378a21b2e250c852807c64551824</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
@@ -5230,6 +5318,9 @@
       <c r="E28" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="CW28" t="str">
+        <v>ae5e2b7b48b982b5beaf6152aeaa751d</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
@@ -5247,6 +5338,9 @@
       <c r="E29" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="CW29" t="str">
+        <v>2db061dff788314af94e892199ea13c9</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
@@ -5264,6 +5358,9 @@
       <c r="E30" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="CW30" t="str">
+        <v>422c6c030dfcbc7fc69c55d87d93282e</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
@@ -5281,6 +5378,9 @@
       <c r="E31" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="CW31" t="str">
+        <v>ff6fe2b507264198c25e2428897856ba</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
@@ -5298,6 +5398,9 @@
       <c r="E32" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="CW32" t="str">
+        <v>fb9e4f49e147ebdf2cada66333896023</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
@@ -5315,6 +5418,9 @@
       <c r="E33" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="CW33" t="str">
+        <v>36fef6a1f4be0ebf5550ad1164bdb19c</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
@@ -5332,6 +5438,9 @@
       <c r="E34" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="CW34" t="str">
+        <v>bc6ea7a64a984eb11911c05bcdaa93a9</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
@@ -5349,6 +5458,9 @@
       <c r="E35" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="CW35" t="str">
+        <v>a63122eefbb0525cb18d59e304e85c21</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
@@ -5366,6 +5478,9 @@
       <c r="E36" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="CW36" t="str">
+        <v>7d7748dc74c159a67a601e7c2ee4e42d</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
@@ -5383,6 +5498,9 @@
       <c r="E37" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="CW37" t="str">
+        <v>d20a3456a9da7516f027644805509920</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
@@ -5400,6 +5518,9 @@
       <c r="E38" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="CW38" t="str">
+        <v>774edce732b844c73dc244eefc4e9470</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
@@ -5417,6 +5538,9 @@
       <c r="E39" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="CW39" t="str">
+        <v>4e6f5ccc5951d1fd3d9fe2ce14270899</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
@@ -5434,6 +5558,9 @@
       <c r="E40" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="CW40" t="str">
+        <v>199dc61347f8e2b9c817d7852bb9248e</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
@@ -5451,6 +5578,9 @@
       <c r="E41" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="CW41" t="str">
+        <v>f9db9a6d7357af2f1c365ce0e42f0d77</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
@@ -5468,6 +5598,9 @@
       <c r="E42" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="CW42" t="str">
+        <v>7c336307c20edb97afe688c3f212ae55</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
@@ -5485,6 +5618,9 @@
       <c r="E43" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="CW43" t="str">
+        <v>c47eab49a93d3e3ce98be1d240c18e85</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
@@ -5502,6 +5638,9 @@
       <c r="E44" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="CW44" t="str">
+        <v>519c49cc090f587ea166765043f7ddc4</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
@@ -5519,6 +5658,9 @@
       <c r="E45" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="CW45" t="str">
+        <v>7fb6d36e65bc16199f9dd57e60bcd8d0</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
@@ -5536,6 +5678,9 @@
       <c r="E46" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="CW46" t="str">
+        <v>a5d71dc212a475d675e3e5595b0929ac</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
@@ -5553,6 +5698,9 @@
       <c r="E47" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="CW47" t="str">
+        <v>619a27025032e73053487d30911c3b9c</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
@@ -5570,6 +5718,9 @@
       <c r="E48" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="CW48" t="str">
+        <v>14823b0d8ae2694756ffb3d776d4122c</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
@@ -5587,6 +5738,9 @@
       <c r="E49" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="CW49" t="str">
+        <v>bcc0b3dd8fabe5d9514903aa93b37397</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
@@ -5604,6 +5758,9 @@
       <c r="E50" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="CW50" t="str">
+        <v>df72d53492a2b0b713628d0011fa6d08</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
@@ -5621,6 +5778,9 @@
       <c r="E51" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="CW51" t="str">
+        <v>6378bc2b195cfbf6d4d455c02797388f</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
@@ -5638,6 +5798,9 @@
       <c r="E52" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="CW52" t="str">
+        <v>68640af917a74fdba47acbf0bfee9887</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
@@ -5655,6 +5818,9 @@
       <c r="E53" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="CW53" t="str">
+        <v>a017d674c5d13aa7c646a9ef921579b2</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
@@ -5672,6 +5838,9 @@
       <c r="E54" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="CW54" t="str">
+        <v>16c5eacd83b5855bd0bbb9b907af9adf</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
@@ -5689,6 +5858,9 @@
       <c r="E55" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="CW55" t="str">
+        <v>ad8e76d732bc292885540e839d3fe3ff</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
@@ -5706,6 +5878,9 @@
       <c r="E56" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="CW56" t="str">
+        <v>676ea516423cd4535c0ddb20195f35c5</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
@@ -5723,6 +5898,9 @@
       <c r="E57" s="1" t="s">
         <v>232</v>
       </c>
+      <c r="CW57" t="str">
+        <v>c53456321f63dfd91e6e6574768e83c7</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
@@ -5740,6 +5918,9 @@
       <c r="E58" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="CW58" t="str">
+        <v>be9b65c584ab103d9b3d0bd48bc86df6</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
@@ -5757,6 +5938,9 @@
       <c r="E59" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="CW59" t="str">
+        <v>b069c3171fa3e66188e224c05c9e6e53</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
@@ -5774,6 +5958,9 @@
       <c r="E60" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="CW60" t="str">
+        <v>a48d714bf7fb6aa74515f00102039fb2</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
@@ -5791,6 +5978,9 @@
       <c r="E61" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="CW61" t="str">
+        <v>ec427286d17383cfb28f7acf17915f58</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
@@ -5808,6 +5998,9 @@
       <c r="E62" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="CW62" t="str">
+        <v>6d98f670823c8b6f733026b9e6aca1ca</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
@@ -5825,6 +6018,9 @@
       <c r="E63" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="CW63" t="str">
+        <v>12b8d057b1963c6f6f48f18063610fb5</v>
+      </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
@@ -5842,6 +6038,9 @@
       <c r="E64" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="CW64" t="str">
+        <v>6e4fa326c33673e4be4d58c47c5c7d65</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
@@ -5859,6 +6058,9 @@
       <c r="E65" s="1" t="s">
         <v>265</v>
       </c>
+      <c r="CW65" t="str">
+        <v>37e9696a43dc26e7f9989f25afde9d5f</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
@@ -5876,6 +6078,9 @@
       <c r="E66" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="CW66" t="str">
+        <v>b6f893c3b664b5f31c34ef2d744be875</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
@@ -5893,6 +6098,9 @@
       <c r="E67" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="CW67" t="str">
+        <v>19a83c0b89f82e7cb9e3a49ceb492f9f</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
@@ -5910,6 +6118,9 @@
       <c r="E68" s="1" t="s">
         <v>277</v>
       </c>
+      <c r="CW68" t="str">
+        <v>526cbd8fe07e07f76d9405406f4c5928</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
@@ -5927,6 +6138,9 @@
       <c r="E69" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="CW69" t="str">
+        <v>bbb45b17b2e677253956b5d97d432523</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
@@ -5944,6 +6158,9 @@
       <c r="E70" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="CW70" t="str">
+        <v>37ce330a579c892da2e1c47574fa5480</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
@@ -5959,6 +6176,9 @@
         <v>288</v>
       </c>
       <c r="E71" s="1"/>
+      <c r="CW71" t="str">
+        <v>bc31a17ab5d86f17d94207f7dd33d6de</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
@@ -5976,6 +6196,9 @@
       <c r="E72" s="1" t="s">
         <v>292</v>
       </c>
+      <c r="CW72" t="str">
+        <v>2c83fa32795091c000188171f39f5056</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
@@ -5991,6 +6214,9 @@
         <v>295</v>
       </c>
       <c r="E73" s="1"/>
+      <c r="CW73" t="str">
+        <v>3da30a7035916072e1110eb5e81bc703</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
@@ -6008,6 +6234,9 @@
       <c r="E74" s="1" t="s">
         <v>299</v>
       </c>
+      <c r="CW74" t="str">
+        <v>00af0e5ede0333104424d2eec7534086</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
@@ -6025,6 +6254,9 @@
       <c r="E75" s="1" t="s">
         <v>304</v>
       </c>
+      <c r="CW75" t="str">
+        <v>48d8d4c717a64ee69ed1b5566270a250</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
@@ -6042,6 +6274,9 @@
       <c r="E76" s="1" t="s">
         <v>308</v>
       </c>
+      <c r="CW76" t="str">
+        <v>bd25c8eda14df0cbe12f605219330249</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
@@ -6059,6 +6294,9 @@
       <c r="E77" s="1" t="s">
         <v>312</v>
       </c>
+      <c r="CW77" t="str">
+        <v>b13d8afe7dc73c187bdcfe4841dfd0f8</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
@@ -6076,6 +6314,9 @@
       <c r="E78" s="1" t="s">
         <v>316</v>
       </c>
+      <c r="CW78" t="str">
+        <v>0a58620cced4a62893bb414e557b56b2</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
@@ -6093,6 +6334,9 @@
       <c r="E79" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="CW79" t="str">
+        <v>30cd5f0f3f638129f5d8f4e8584f2c4e</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
@@ -6110,6 +6354,9 @@
       <c r="E80" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="CW80" t="str">
+        <v>5973e0719e40d429082a6feed5861c90</v>
+      </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
@@ -6127,6 +6374,9 @@
       <c r="E81" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="CW81" t="str">
+        <v>7ac08ff1fe5613d0adb05f8ff9cfb863</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
@@ -6144,6 +6394,9 @@
       <c r="E82" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="CW82" t="str">
+        <v>fbb77a373ff77d4cc8a8a2429348c570</v>
+      </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
@@ -6161,6 +6414,9 @@
       <c r="E83" s="1" t="s">
         <v>336</v>
       </c>
+      <c r="CW83" t="str">
+        <v>933700a73011a1c01a5239a38f446a9d</v>
+      </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
@@ -6178,6 +6434,9 @@
       <c r="E84" s="1" t="s">
         <v>340</v>
       </c>
+      <c r="CW84" t="str">
+        <v>df148eb3e39e02716eeeae67a723b7ce</v>
+      </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
@@ -6195,6 +6454,9 @@
       <c r="E85" s="1" t="s">
         <v>344</v>
       </c>
+      <c r="CW85" t="str">
+        <v>522840be2c74cba57e8b87529eb3dccc</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
@@ -6212,6 +6474,9 @@
       <c r="E86" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="CW86" t="str">
+        <v>2f56fd9e5e98cd5f2319e78731c3eeb7</v>
+      </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
@@ -6229,6 +6494,9 @@
       <c r="E87" s="1" t="s">
         <v>352</v>
       </c>
+      <c r="CW87" t="str">
+        <v>17bb402c39964e2192145f83d22419dc</v>
+      </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
@@ -6246,6 +6514,9 @@
       <c r="E88" s="1" t="s">
         <v>357</v>
       </c>
+      <c r="CW88" t="str">
+        <v>5296868125b00c13feb63d978f44f161</v>
+      </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
@@ -6263,6 +6534,9 @@
       <c r="E89" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="CW89" t="str">
+        <v>74ac8ac3acd2d499c511069971b1a1e2</v>
+      </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
@@ -6280,6 +6554,9 @@
       <c r="E90" s="1" t="s">
         <v>365</v>
       </c>
+      <c r="CW90" t="str">
+        <v>76f5f19e86fd793d5ebb19cd4e8d611a</v>
+      </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
@@ -6297,6 +6574,9 @@
       <c r="E91" s="1" t="s">
         <v>369</v>
       </c>
+      <c r="CW91" t="str">
+        <v>c6e6d6079c89bc68fa96789f13768535</v>
+      </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
@@ -6314,6 +6594,9 @@
       <c r="E92" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="CW92" t="str">
+        <v>3eac43167d640dbe7dc5981932516429</v>
+      </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
@@ -6331,6 +6614,9 @@
       <c r="E93" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="CW93" t="str">
+        <v>8d7b21797340ac6091eb8d1f45dd3959</v>
+      </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
@@ -6348,6 +6634,9 @@
       <c r="E94" s="1" t="s">
         <v>381</v>
       </c>
+      <c r="CW94" t="str">
+        <v>10b55e2bf718008e0fb9bf5141d4270c</v>
+      </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
@@ -6365,6 +6654,9 @@
       <c r="E95" s="1" t="s">
         <v>385</v>
       </c>
+      <c r="CW95" t="str">
+        <v>015d7ed03a5098e1735c2ef27a3a2dd5</v>
+      </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
@@ -6382,6 +6674,9 @@
       <c r="E96" s="1" t="s">
         <v>389</v>
       </c>
+      <c r="CW96" t="str">
+        <v>47780dc5cd9328d72224ca7127d12d04</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
@@ -6399,6 +6694,9 @@
       <c r="E97" s="1" t="s">
         <v>393</v>
       </c>
+      <c r="CW97" t="str">
+        <v>7b0700ced9c3a9ded220ff504f304d7d</v>
+      </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
@@ -6416,6 +6714,9 @@
       <c r="E98" s="1" t="s">
         <v>397</v>
       </c>
+      <c r="CW98" t="str">
+        <v>10c3fcf91bae99a7ee4998df63ce4682</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
@@ -6433,6 +6734,9 @@
       <c r="E99" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="CW99" t="str">
+        <v>1a0fd3fc3a1fcc576babe58d2ae3b5ac</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
@@ -6450,6 +6754,9 @@
       <c r="E100" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="CW100" t="str">
+        <v>b4a3bb2d546669b2cdf7cd983386c8e5</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
@@ -6467,6 +6774,9 @@
       <c r="E101" s="1" t="s">
         <v>410</v>
       </c>
+      <c r="CW101" t="str">
+        <v>401b88721870e59be31aef8985d1e05b</v>
+      </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
@@ -6484,6 +6794,9 @@
       <c r="E102" s="1" t="s">
         <v>414</v>
       </c>
+      <c r="CW102" t="str">
+        <v>469bb3710aa4ecedc55b8bacf9a11a57</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
@@ -6501,6 +6814,9 @@
       <c r="E103" s="1" t="s">
         <v>418</v>
       </c>
+      <c r="CW103" t="str">
+        <v>363ff1c41f766a3345106844b340ea9d</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
@@ -6518,6 +6834,9 @@
       <c r="E104" s="1" t="s">
         <v>422</v>
       </c>
+      <c r="CW104" t="str">
+        <v>d6add6d5c44a416217abb575f5966d94</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
@@ -6535,6 +6854,9 @@
       <c r="E105" s="1" t="s">
         <v>426</v>
       </c>
+      <c r="CW105" t="str">
+        <v>2911140b2bf8b77662cb687fc636ad3c</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
@@ -6552,6 +6874,9 @@
       <c r="E106" s="1" t="s">
         <v>430</v>
       </c>
+      <c r="CW106" t="str">
+        <v>1b30f309080db203e30ba4967c73fb58</v>
+      </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
@@ -6569,6 +6894,9 @@
       <c r="E107" s="1" t="s">
         <v>434</v>
       </c>
+      <c r="CW107" t="str">
+        <v>cb3c6698850da586d57d572f15e56ceb</v>
+      </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
@@ -6586,6 +6914,9 @@
       <c r="E108" s="1" t="s">
         <v>438</v>
       </c>
+      <c r="CW108" t="str">
+        <v>6af0b655c49ee7fb015fa6129a1ea089</v>
+      </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
@@ -6603,6 +6934,9 @@
       <c r="E109" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="CW109" t="str">
+        <v>ef4414df1bb01d1dd35925c25f37989a</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
@@ -6620,6 +6954,9 @@
       <c r="E110" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="CW110" t="str">
+        <v>96085b693e2fc3581801d4c060d9c924</v>
+      </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
@@ -6637,6 +6974,9 @@
       <c r="E111" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="CW111" t="str">
+        <v>3e7b65d5b48df818230ef23d0cf6963f</v>
+      </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
@@ -6654,6 +6994,9 @@
       <c r="E112" s="1" t="s">
         <v>453</v>
       </c>
+      <c r="CW112" t="str">
+        <v>2f65a554e6bdbd4d27fade07703d4252</v>
+      </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
@@ -6671,6 +7014,9 @@
       <c r="E113" s="1" t="s">
         <v>457</v>
       </c>
+      <c r="CW113" t="str">
+        <v>318407832f6df98281517e2dbba6e52d</v>
+      </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
@@ -6688,6 +7034,9 @@
       <c r="E114" s="1" t="s">
         <v>461</v>
       </c>
+      <c r="CW114" t="str">
+        <v>9984b06497122a3cebea303fc637878a</v>
+      </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
@@ -6705,6 +7054,9 @@
       <c r="E115" s="1" t="s">
         <v>466</v>
       </c>
+      <c r="CW115" t="str">
+        <v>1e7035566e722fc56a2f7146f84dc40b</v>
+      </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
@@ -6722,6 +7074,9 @@
       <c r="E116" s="1" t="s">
         <v>470</v>
       </c>
+      <c r="CW116" t="str">
+        <v>c114aeb7f1adb29b6c412c4fe93bcbb7</v>
+      </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
@@ -6739,6 +7094,9 @@
       <c r="E117" s="1" t="s">
         <v>474</v>
       </c>
+      <c r="CW117" t="str">
+        <v>c46fdb3d40fb6b60c9148d89701a4737</v>
+      </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
@@ -6756,6 +7114,9 @@
       <c r="E118" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="CW118" t="str">
+        <v>0445cae4e99d755fd197c048d70ed3b1</v>
+      </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
@@ -6773,6 +7134,9 @@
       <c r="E119" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="CW119" t="str">
+        <v>a2809b0731553d4c6bb176ca726a755c</v>
+      </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
@@ -6790,6 +7154,9 @@
       <c r="E120" s="1" t="s">
         <v>486</v>
       </c>
+      <c r="CW120" t="str">
+        <v>8175e27e61f057bc6f2481d9598de108</v>
+      </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
@@ -6807,6 +7174,9 @@
       <c r="E121" s="1" t="s">
         <v>490</v>
       </c>
+      <c r="CW121" t="str">
+        <v>e48de22805d56b1e229d0c2c064d245c</v>
+      </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
@@ -6824,6 +7194,9 @@
       <c r="E122" s="1" t="s">
         <v>494</v>
       </c>
+      <c r="CW122" t="str">
+        <v>c68565899a0f683b8cae8dd3761c3e48</v>
+      </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
@@ -6841,6 +7214,9 @@
       <c r="E123" s="1" t="s">
         <v>498</v>
       </c>
+      <c r="CW123" t="str">
+        <v>ff3e6d6b89d896756c293e0e9a5a6252</v>
+      </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
@@ -6858,6 +7234,9 @@
       <c r="E124" s="1" t="s">
         <v>503</v>
       </c>
+      <c r="CW124" t="str">
+        <v>62f20a8df655cc39fed3d6c817945be4</v>
+      </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
@@ -6875,6 +7254,9 @@
       <c r="E125" s="1" t="s">
         <v>507</v>
       </c>
+      <c r="CW125" t="str">
+        <v>0438877e14b7e813a629229194c34703</v>
+      </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
@@ -6892,6 +7274,9 @@
       <c r="E126" s="1" t="s">
         <v>511</v>
       </c>
+      <c r="CW126" t="str">
+        <v>f83919269430091133952b491bec15a8</v>
+      </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
@@ -6909,6 +7294,9 @@
       <c r="E127" s="1" t="s">
         <v>515</v>
       </c>
+      <c r="CW127" t="str">
+        <v>5c383e9908a3bdf25829a78b17ed9af9</v>
+      </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
@@ -6926,6 +7314,9 @@
       <c r="E128" s="1" t="s">
         <v>519</v>
       </c>
+      <c r="CW128" t="str">
+        <v>321ba5071ab59f1f1342ef890f328757</v>
+      </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
@@ -6943,6 +7334,9 @@
       <c r="E129" s="1" t="s">
         <v>523</v>
       </c>
+      <c r="CW129" t="str">
+        <v>25afe494a73c0b26a44fb61194340e6c</v>
+      </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
@@ -6960,6 +7354,9 @@
       <c r="E130" s="1" t="s">
         <v>527</v>
       </c>
+      <c r="CW130" t="str">
+        <v>9f714c6ad82c9cbc3b98eb4c74fd8414</v>
+      </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
@@ -6977,6 +7374,9 @@
       <c r="E131" s="1" t="s">
         <v>531</v>
       </c>
+      <c r="CW131" t="str">
+        <v>b9ac3f1098083b11a8a02a7772e75650</v>
+      </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
@@ -6994,6 +7394,9 @@
       <c r="E132" s="1" t="s">
         <v>535</v>
       </c>
+      <c r="CW132" t="str">
+        <v>9f84a8b1aac88119c4d12bf1061f4b8f</v>
+      </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
@@ -7011,6 +7414,9 @@
       <c r="E133" s="1" t="s">
         <v>539</v>
       </c>
+      <c r="CW133" t="str">
+        <v>9d84e5b780cd80b4d006826805bd2d21</v>
+      </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
@@ -7028,6 +7434,9 @@
       <c r="E134" s="1" t="s">
         <v>543</v>
       </c>
+      <c r="CW134" t="str">
+        <v>25f4a6ca3e35aeb51cc8c438b1f8d070</v>
+      </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
@@ -7045,6 +7454,9 @@
       <c r="E135" s="1" t="s">
         <v>547</v>
       </c>
+      <c r="CW135" t="str">
+        <v>4f8da057483a9204e674ebb49ca6f175</v>
+      </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
@@ -7062,6 +7474,9 @@
       <c r="E136" s="1" t="s">
         <v>551</v>
       </c>
+      <c r="CW136" t="str">
+        <v>ce72092c7cc2e7933c967c134d40ad92</v>
+      </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
@@ -7079,6 +7494,9 @@
       <c r="E137" s="1" t="s">
         <v>555</v>
       </c>
+      <c r="CW137" t="str">
+        <v>e9a515041dc1f3c4c3bba635d55f0883</v>
+      </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
@@ -7096,6 +7514,9 @@
       <c r="E138" s="1" t="s">
         <v>559</v>
       </c>
+      <c r="CW138" t="str">
+        <v>0ac9b11b5f540a61d43f0897e0cd8c11</v>
+      </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
@@ -7113,6 +7534,9 @@
       <c r="E139" s="1" t="s">
         <v>563</v>
       </c>
+      <c r="CW139" t="str">
+        <v>5df6a94e3d7e5f2fd2ccbf0e2533f1ca</v>
+      </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
@@ -7130,6 +7554,9 @@
       <c r="E140" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="CW140" t="str">
+        <v>75ae6c2f04d5a5c66eca55d65ea3fdf9</v>
+      </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
@@ -7147,6 +7574,9 @@
       <c r="E141" s="1" t="s">
         <v>571</v>
       </c>
+      <c r="CW141" t="str">
+        <v>b660822786167e3f0089b80d94978681</v>
+      </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
@@ -7164,6 +7594,9 @@
       <c r="E142" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="CW142" t="str">
+        <v>b7d37e5a9b2f95b5b1bc20c209ad2a94</v>
+      </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
@@ -7181,6 +7614,9 @@
       <c r="E143" s="1" t="s">
         <v>579</v>
       </c>
+      <c r="CW143" t="str">
+        <v>53276213c21f01a560e8eb0f63288758</v>
+      </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
@@ -7198,6 +7634,9 @@
       <c r="E144" s="1" t="s">
         <v>583</v>
       </c>
+      <c r="CW144" t="str">
+        <v>f498cc9600a9a44c7b2f391487aed255</v>
+      </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
@@ -7215,6 +7654,9 @@
       <c r="E145" s="1" t="s">
         <v>587</v>
       </c>
+      <c r="CW145" t="str">
+        <v>0aeebfe6b82af063ef08aa2a1000af7e</v>
+      </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
@@ -7232,6 +7674,9 @@
       <c r="E146" s="1" t="s">
         <v>591</v>
       </c>
+      <c r="CW146" t="str">
+        <v>3bdf7148b89ce047091f29809f433c2e</v>
+      </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
@@ -7249,6 +7694,9 @@
       <c r="E147" s="1" t="s">
         <v>595</v>
       </c>
+      <c r="CW147" t="str">
+        <v>a2c23556a28e6f31d4a375a7e690ed56</v>
+      </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
@@ -7266,6 +7714,9 @@
       <c r="E148" s="1" t="s">
         <v>599</v>
       </c>
+      <c r="CW148" t="str">
+        <v>f61c93c5e61c461eaba9f5cac99c5587</v>
+      </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
@@ -7283,6 +7734,9 @@
       <c r="E149" s="1" t="s">
         <v>603</v>
       </c>
+      <c r="CW149" t="str">
+        <v>aecaf9b041f1851c444c657f621a14b5</v>
+      </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
@@ -7300,6 +7754,9 @@
       <c r="E150" s="1" t="s">
         <v>607</v>
       </c>
+      <c r="CW150" t="str">
+        <v>6c601eeda7bd504f438f930478bab605</v>
+      </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
@@ -7317,6 +7774,9 @@
       <c r="E151" s="1" t="s">
         <v>610</v>
       </c>
+      <c r="CW151" t="str">
+        <v>c880183b3e85890c05d64b2ffdaabb19</v>
+      </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
@@ -7334,6 +7794,9 @@
       <c r="E152" s="1" t="s">
         <v>615</v>
       </c>
+      <c r="CW152" t="str">
+        <v>6484bdda391524f0e54997b22f2b49bb</v>
+      </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
@@ -7351,6 +7814,9 @@
       <c r="E153" s="1" t="s">
         <v>619</v>
       </c>
+      <c r="CW153" t="str">
+        <v>2eb6b2ba6a703872f9eef77fb7b4e661</v>
+      </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
@@ -7368,6 +7834,9 @@
       <c r="E154" s="1" t="s">
         <v>623</v>
       </c>
+      <c r="CW154" t="str">
+        <v>6285f7c5dc0f7cd64fdc033a4a7822ae</v>
+      </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
@@ -7385,6 +7854,9 @@
       <c r="E155" s="1" t="s">
         <v>627</v>
       </c>
+      <c r="CW155" t="str">
+        <v>4cc48c1f07fb7aa832a0c70e1970347d</v>
+      </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
@@ -7402,6 +7874,9 @@
       <c r="E156" s="1" t="s">
         <v>631</v>
       </c>
+      <c r="CW156" t="str">
+        <v>b3da080d6f4642b378a5297210288e16</v>
+      </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
@@ -7419,6 +7894,9 @@
       <c r="E157" s="1" t="s">
         <v>635</v>
       </c>
+      <c r="CW157" t="str">
+        <v>f3d128f51522dcfc07282d547723228b</v>
+      </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
@@ -7436,6 +7914,9 @@
       <c r="E158" s="1" t="s">
         <v>639</v>
       </c>
+      <c r="CW158" t="str">
+        <v>0037b37290df23e3074041455f65bf44</v>
+      </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
@@ -7453,6 +7934,9 @@
       <c r="E159" s="1" t="s">
         <v>643</v>
       </c>
+      <c r="CW159" t="str">
+        <v>7973638ab71306b5edbc4e1841282941</v>
+      </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
@@ -7470,6 +7954,9 @@
       <c r="E160" s="1" t="s">
         <v>647</v>
       </c>
+      <c r="CW160" t="str">
+        <v>3b4dda05086d7bcf33695c6c57aa1fce</v>
+      </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
@@ -7487,6 +7974,9 @@
       <c r="E161" s="1" t="s">
         <v>651</v>
       </c>
+      <c r="CW161" t="str">
+        <v>a3e092a5cc114948904b12465d3069a6</v>
+      </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
@@ -7504,6 +7994,9 @@
       <c r="E162" s="1" t="s">
         <v>655</v>
       </c>
+      <c r="CW162" t="str">
+        <v>ebf417f824880139024a633e6b765ad4</v>
+      </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
@@ -7521,6 +8014,9 @@
       <c r="E163" s="1" t="s">
         <v>659</v>
       </c>
+      <c r="CW163" t="str">
+        <v>4fec8d6c3cba6efa4aca319f30cdc5b3</v>
+      </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
@@ -7538,6 +8034,9 @@
       <c r="E164" s="1" t="s">
         <v>663</v>
       </c>
+      <c r="CW164" t="str">
+        <v>cc61c20c798fee52249d8478ad2cacbf</v>
+      </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
@@ -7555,6 +8054,9 @@
       <c r="E165" s="1" t="s">
         <v>667</v>
       </c>
+      <c r="CW165" t="str">
+        <v>832b7aa827cfe76285c33494a5ec4321</v>
+      </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
@@ -7572,6 +8074,9 @@
       <c r="E166" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="CW166" t="str">
+        <v>45b5f67d204937a5e771c73e260f916a</v>
+      </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
@@ -7589,6 +8094,9 @@
       <c r="E167" s="1" t="s">
         <v>675</v>
       </c>
+      <c r="CW167" t="str">
+        <v>b8a27668bbbf13df19fd660f82279c03</v>
+      </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
@@ -7606,6 +8114,9 @@
       <c r="E168" s="1" t="s">
         <v>679</v>
       </c>
+      <c r="CW168" t="str">
+        <v>f5517487dff88e8a556bfcf81a1dcc21</v>
+      </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
@@ -7621,6 +8132,9 @@
         <v>614</v>
       </c>
       <c r="E169" s="1"/>
+      <c r="CW169" t="str">
+        <v>ae15a58acd9a47c1c639577360b9e34c</v>
+      </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
@@ -7638,6 +8152,9 @@
       <c r="E170" s="1" t="s">
         <v>686</v>
       </c>
+      <c r="CW170" t="str">
+        <v>ed2c2dac2708a1f188001baee792a46d</v>
+      </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
@@ -7655,6 +8172,9 @@
       <c r="E171" s="1" t="s">
         <v>690</v>
       </c>
+      <c r="CW171" t="str">
+        <v>d89de7674c89ef57c67a406610bb6f61</v>
+      </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
@@ -7672,6 +8192,9 @@
       <c r="E172" s="1" t="s">
         <v>694</v>
       </c>
+      <c r="CW172" t="str">
+        <v>08abd4dcc3b2fde8ba16640963185383</v>
+      </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
@@ -7689,6 +8212,9 @@
       <c r="E173" s="1" t="s">
         <v>698</v>
       </c>
+      <c r="CW173" t="str">
+        <v>2d6ce2c45d5e84c156dbcfec6fb8ea6f</v>
+      </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
@@ -7706,6 +8232,9 @@
       <c r="E174" s="1" t="s">
         <v>702</v>
       </c>
+      <c r="CW174" t="str">
+        <v>763bef8c595431bb2a02857d6ae9e4a3</v>
+      </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
@@ -7723,6 +8252,9 @@
       <c r="E175" s="1" t="s">
         <v>706</v>
       </c>
+      <c r="CW175" t="str">
+        <v>7ccb2857b7a451a97213a09f8ec63178</v>
+      </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
@@ -7740,6 +8272,9 @@
       <c r="E176" s="1" t="s">
         <v>710</v>
       </c>
+      <c r="CW176" t="str">
+        <v>405a524913de4d7fdb55eaa641027133</v>
+      </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
@@ -7757,6 +8292,9 @@
       <c r="E177" s="1" t="s">
         <v>714</v>
       </c>
+      <c r="CW177" t="str">
+        <v>6d166023439e3affdacb098c4ac9396d</v>
+      </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
@@ -7774,6 +8312,9 @@
       <c r="E178" s="1" t="s">
         <v>718</v>
       </c>
+      <c r="CW178" t="str">
+        <v>c92d2b317a632e8f5b7a61945f6b852c</v>
+      </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
@@ -7791,6 +8332,9 @@
       <c r="E179" s="1" t="s">
         <v>722</v>
       </c>
+      <c r="CW179" t="str">
+        <v>b5878f0a4d04e96f4af12db2d958519c</v>
+      </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
@@ -7808,6 +8352,9 @@
       <c r="E180" s="1" t="s">
         <v>726</v>
       </c>
+      <c r="CW180" t="str">
+        <v>8d2836f1ecc295bb00300ab6ae99d316</v>
+      </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
@@ -7825,6 +8372,9 @@
       <c r="E181" s="1" t="s">
         <v>730</v>
       </c>
+      <c r="CW181" t="str">
+        <v>b6185b1736094bcede741f973ce66f0f</v>
+      </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
@@ -7842,6 +8392,9 @@
       <c r="E182" s="1" t="s">
         <v>734</v>
       </c>
+      <c r="CW182" t="str">
+        <v>8dc7253238d5a9d7879b0222d8e59401</v>
+      </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
@@ -7857,6 +8410,9 @@
         <v>685</v>
       </c>
       <c r="E183" s="1"/>
+      <c r="CW183" t="str">
+        <v>5cefc3f66798260047cd44a301c880f5</v>
+      </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
@@ -7874,6 +8430,9 @@
       <c r="E184" s="1" t="s">
         <v>740</v>
       </c>
+      <c r="CW184" t="str">
+        <v>826ecb9ac0a9b141782331db4ce9f258</v>
+      </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
@@ -7891,6 +8450,9 @@
       <c r="E185" s="1" t="s">
         <v>744</v>
       </c>
+      <c r="CW185" t="str">
+        <v>452f003ea1a514a66dfa86707af2b696</v>
+      </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
@@ -7908,6 +8470,9 @@
       <c r="E186" s="1" t="s">
         <v>748</v>
       </c>
+      <c r="CW186" t="str">
+        <v>dc1d843126fb2858482f642afc5558a4</v>
+      </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
@@ -7925,6 +8490,9 @@
       <c r="E187" s="1" t="s">
         <v>752</v>
       </c>
+      <c r="CW187" t="str">
+        <v>76fea5b9b8ff194e240ac19647f789fc</v>
+      </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
@@ -7942,6 +8510,9 @@
       <c r="E188" s="1" t="s">
         <v>756</v>
       </c>
+      <c r="CW188" t="str">
+        <v>61d915fd92d4734b7b80f1e1e4e54da8</v>
+      </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
@@ -7959,6 +8530,9 @@
       <c r="E189" s="1" t="s">
         <v>760</v>
       </c>
+      <c r="CW189" t="str">
+        <v>745501751374105ff27fed6c775112e9</v>
+      </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
@@ -7976,6 +8550,9 @@
       <c r="E190" s="1" t="s">
         <v>764</v>
       </c>
+      <c r="CW190" t="str">
+        <v>24561136579a5a7ffd3e0daa5baeaacb</v>
+      </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
@@ -7993,6 +8570,9 @@
       <c r="E191" s="1" t="s">
         <v>768</v>
       </c>
+      <c r="CW191" t="str">
+        <v>97256ed7257ab939a7541ca5cced4efd</v>
+      </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
@@ -8010,6 +8590,9 @@
       <c r="E192" s="1" t="s">
         <v>772</v>
       </c>
+      <c r="CW192" t="str">
+        <v>fa1b4549378c96201a6339e4aaf73ccc</v>
+      </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
@@ -8027,6 +8610,9 @@
       <c r="E193" s="1" t="s">
         <v>776</v>
       </c>
+      <c r="CW193" t="str">
+        <v>064c58232d2fac2d794e86c659ea75c4</v>
+      </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
@@ -8044,6 +8630,9 @@
       <c r="E194" s="1" t="s">
         <v>780</v>
       </c>
+      <c r="CW194" t="str">
+        <v>56cc99f9c86e9f5764acfd0dda64b5c9</v>
+      </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
@@ -8061,6 +8650,9 @@
       <c r="E195" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="CW195" t="str">
+        <v>b92aadb727bd85004650550f21d1a9f3</v>
+      </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
@@ -8078,6 +8670,9 @@
       <c r="E196" s="1" t="s">
         <v>788</v>
       </c>
+      <c r="CW196" t="str">
+        <v>2c8de8694d191d78900a667b5fa42646</v>
+      </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
@@ -8095,6 +8690,9 @@
       <c r="E197" s="1" t="s">
         <v>792</v>
       </c>
+      <c r="CW197" t="str">
+        <v>ee8179c1acd8111a6f5a6bbebf64c31d</v>
+      </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
@@ -8112,6 +8710,9 @@
       <c r="E198" s="1" t="s">
         <v>797</v>
       </c>
+      <c r="CW198" t="str">
+        <v>b3a941c5d7f3577562f0dd2a74d24122</v>
+      </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
@@ -8129,6 +8730,9 @@
       <c r="E199" s="1" t="s">
         <v>801</v>
       </c>
+      <c r="CW199" t="str">
+        <v>73ddfb946d6b699ef6e997fe0d02032f</v>
+      </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
@@ -8146,6 +8750,9 @@
       <c r="E200" s="1" t="s">
         <v>805</v>
       </c>
+      <c r="CW200" t="str">
+        <v>c505cf09351313d99526ac54f626ac8c</v>
+      </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
@@ -8163,6 +8770,9 @@
       <c r="E201" s="1" t="s">
         <v>809</v>
       </c>
+      <c r="CW201" t="str">
+        <v>ad6e1e3357549a7c7e8fa3a88c3a8979</v>
+      </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
@@ -8180,6 +8790,9 @@
       <c r="E202" s="1" t="s">
         <v>813</v>
       </c>
+      <c r="CW202" t="str">
+        <v>fc2673646f837d3b119139db99fddaee</v>
+      </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
@@ -8197,6 +8810,9 @@
       <c r="E203" s="1" t="s">
         <v>817</v>
       </c>
+      <c r="CW203" t="str">
+        <v>cdbfa4dc080441ef5589049fd004b6f4</v>
+      </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
@@ -8214,6 +8830,9 @@
       <c r="E204" s="1" t="s">
         <v>821</v>
       </c>
+      <c r="CW204" t="str">
+        <v>90c28cd85bc977dfe6e81aec765508cd</v>
+      </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
@@ -8231,6 +8850,9 @@
       <c r="E205" s="1" t="s">
         <v>825</v>
       </c>
+      <c r="CW205" t="str">
+        <v>61a4577fc917c65e6b64393ca69672ce</v>
+      </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
@@ -8248,6 +8870,9 @@
       <c r="E206" s="1" t="s">
         <v>829</v>
       </c>
+      <c r="CW206" t="str">
+        <v>df3304a0fe71306fc3d273ff39329d5d</v>
+      </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
@@ -8265,6 +8890,9 @@
       <c r="E207" s="1" t="s">
         <v>833</v>
       </c>
+      <c r="CW207" t="str">
+        <v>8d673eb2012977fe9312453d3174c25c</v>
+      </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
@@ -8282,6 +8910,9 @@
       <c r="E208" s="1" t="s">
         <v>837</v>
       </c>
+      <c r="CW208" t="str">
+        <v>ab891f46e4b6ec44461dd803cebc9eba</v>
+      </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
@@ -8299,6 +8930,9 @@
       <c r="E209" s="1" t="s">
         <v>841</v>
       </c>
+      <c r="CW209" t="str">
+        <v>695695e3c5161fbf8c134ba7a6534ff7</v>
+      </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
@@ -8316,6 +8950,9 @@
       <c r="E210" s="1" t="s">
         <v>845</v>
       </c>
+      <c r="CW210" t="str">
+        <v>097374d79a2a62621df048861e786bd9</v>
+      </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
@@ -8333,6 +8970,9 @@
       <c r="E211" s="1" t="s">
         <v>849</v>
       </c>
+      <c r="CW211" t="str">
+        <v>5005a62dec2c70d80ccf29fac1a7bbdd</v>
+      </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
@@ -8350,6 +8990,9 @@
       <c r="E212" s="1" t="s">
         <v>853</v>
       </c>
+      <c r="CW212" t="str">
+        <v>a071d6591316ae923f8d66267b88726e</v>
+      </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
@@ -8367,6 +9010,9 @@
       <c r="E213" s="1" t="s">
         <v>857</v>
       </c>
+      <c r="CW213" t="str">
+        <v>bbce4d51db0daf019dd3c2a3b1d1b38c</v>
+      </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
@@ -8384,6 +9030,9 @@
       <c r="E214" s="1" t="s">
         <v>861</v>
       </c>
+      <c r="CW214" t="str">
+        <v>1a279c3f756f66282ce47efc79a80656</v>
+      </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
@@ -8401,6 +9050,9 @@
       <c r="E215" s="1" t="s">
         <v>865</v>
       </c>
+      <c r="CW215" t="str">
+        <v>a19b1b3681376a0b837c0a462ba91557</v>
+      </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
@@ -8418,6 +9070,9 @@
       <c r="E216" s="1" t="s">
         <v>869</v>
       </c>
+      <c r="CW216" t="str">
+        <v>008321dcb79297432b656bbd7c43549d</v>
+      </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
@@ -8435,6 +9090,9 @@
       <c r="E217" s="1" t="s">
         <v>873</v>
       </c>
+      <c r="CW217" t="str">
+        <v>d7d44609bdca8b8cc5d875e6b3e51343</v>
+      </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
@@ -8452,6 +9110,9 @@
       <c r="E218" s="1" t="s">
         <v>877</v>
       </c>
+      <c r="CW218" t="str">
+        <v>171ba565fb2dd575a703a3edafdce65a</v>
+      </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
@@ -8469,6 +9130,9 @@
       <c r="E219" s="1" t="s">
         <v>882</v>
       </c>
+      <c r="CW219" t="str">
+        <v>3cc23e593a814df94efdd4978ed804a9</v>
+      </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
@@ -8486,6 +9150,9 @@
       <c r="E220" s="1" t="s">
         <v>886</v>
       </c>
+      <c r="CW220" t="str">
+        <v>cca6f3e438788c840045ed912893bca7</v>
+      </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
@@ -8503,6 +9170,9 @@
       <c r="E221" s="1" t="s">
         <v>890</v>
       </c>
+      <c r="CW221" t="str">
+        <v>10e4f10eaae08763684bc93226449920</v>
+      </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
@@ -8520,6 +9190,9 @@
       <c r="E222" s="1" t="s">
         <v>894</v>
       </c>
+      <c r="CW222" t="str">
+        <v>cfc51ea4b483b1148409a2be8da279d0</v>
+      </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
@@ -8537,6 +9210,9 @@
       <c r="E223" s="1" t="s">
         <v>898</v>
       </c>
+      <c r="CW223" t="str">
+        <v>bf41b8a077ac8208f579e617b0639096</v>
+      </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
@@ -8554,6 +9230,9 @@
       <c r="E224" s="1" t="s">
         <v>902</v>
       </c>
+      <c r="CW224" t="str">
+        <v>bd1c19c137b42a3493544f223fa8ded7</v>
+      </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
@@ -8571,6 +9250,9 @@
       <c r="E225" s="1" t="s">
         <v>906</v>
       </c>
+      <c r="CW225" t="str">
+        <v>69ffbad3a71ff71bc9fe0ed56c2d4ebb</v>
+      </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
@@ -8588,6 +9270,9 @@
       <c r="E226" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="CW226" t="str">
+        <v>4e7a5b95a378f97b6d4aa756e950a4c3</v>
+      </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
@@ -8605,6 +9290,9 @@
       <c r="E227" s="1" t="s">
         <v>913</v>
       </c>
+      <c r="CW227" t="str">
+        <v>c939f7fad8fcfcb61abf0152f37ef938</v>
+      </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
@@ -8622,6 +9310,9 @@
       <c r="E228" s="1" t="s">
         <v>917</v>
       </c>
+      <c r="CW228" t="str">
+        <v>42190812d57a3d5dbb6f245b9d5d2e94</v>
+      </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
@@ -8639,6 +9330,9 @@
       <c r="E229" s="1" t="s">
         <v>921</v>
       </c>
+      <c r="CW229" t="str">
+        <v>e8769c9cbb860a954f9a342ab40ff688</v>
+      </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
@@ -8656,6 +9350,9 @@
       <c r="E230" s="1" t="s">
         <v>925</v>
       </c>
+      <c r="CW230" t="str">
+        <v>4084c01fe70dccde04ec83c62a1cf63a</v>
+      </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
@@ -8673,6 +9370,9 @@
       <c r="E231" s="1" t="s">
         <v>929</v>
       </c>
+      <c r="CW231" t="str">
+        <v>5527eb52c3c513116df0cd0d2bfe0644</v>
+      </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
@@ -8690,6 +9390,9 @@
       <c r="E232" s="1" t="s">
         <v>933</v>
       </c>
+      <c r="CW232" t="str">
+        <v>0ebf246567fe1130b3beb260a31f0601</v>
+      </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
@@ -8707,6 +9410,9 @@
       <c r="E233" s="1" t="s">
         <v>938</v>
       </c>
+      <c r="CW233" t="str">
+        <v>c7cbbefe5fa1d7d0fa8a46b13ed12d95</v>
+      </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
@@ -8724,6 +9430,9 @@
       <c r="E234" s="1" t="s">
         <v>942</v>
       </c>
+      <c r="CW234" t="str">
+        <v>ed18df1f039910c02623ebe87eea86fd</v>
+      </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
@@ -8741,6 +9450,9 @@
       <c r="E235" s="1" t="s">
         <v>946</v>
       </c>
+      <c r="CW235" t="str">
+        <v>c497397545dde34beb2deb418ccfbab4</v>
+      </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
@@ -8758,6 +9470,9 @@
       <c r="E236" s="1" t="s">
         <v>950</v>
       </c>
+      <c r="CW236" t="str">
+        <v>a9d421b2f4678763b22fb2a13e2c921e</v>
+      </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
@@ -8773,6 +9488,9 @@
         <v>937</v>
       </c>
       <c r="E237" s="1"/>
+      <c r="CW237" t="str">
+        <v>9a2bc14ca008316482448d2b51e786c5</v>
+      </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
@@ -8790,6 +9508,9 @@
       <c r="E238" s="1" t="s">
         <v>955</v>
       </c>
+      <c r="CW238" t="str">
+        <v>6b282cc3d79bf6df7b67fa3879d2a28c</v>
+      </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
@@ -8807,6 +9528,9 @@
       <c r="E239" s="1" t="s">
         <v>955</v>
       </c>
+      <c r="CW239" t="str">
+        <v>8c5de538049e3e76b1b2bc896dd862c6</v>
+      </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
@@ -8824,6 +9548,9 @@
       <c r="E240" s="1" t="s">
         <v>961</v>
       </c>
+      <c r="CW240" t="str">
+        <v>a05b12e631a7c6dae16f3f86ab29cb8d</v>
+      </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
@@ -8841,6 +9568,9 @@
       <c r="E241" s="1" t="s">
         <v>965</v>
       </c>
+      <c r="CW241" t="str">
+        <v>3f75dceb36e20b689aea1c81851974e3</v>
+      </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
@@ -8858,6 +9588,9 @@
       <c r="E242" s="1" t="s">
         <v>969</v>
       </c>
+      <c r="CW242" t="str">
+        <v>4089fa618bd9673ca9e7f6a45a558702</v>
+      </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
@@ -8875,6 +9608,9 @@
       <c r="E243" s="1" t="s">
         <v>973</v>
       </c>
+      <c r="CW243" t="str">
+        <v>4f0937aec2d26b514c9ce0842db0ce0d</v>
+      </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
@@ -8892,6 +9628,9 @@
       <c r="E244" s="1" t="s">
         <v>977</v>
       </c>
+      <c r="CW244" t="str">
+        <v>1f38d906f50a0ec10501b554269bf861</v>
+      </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
@@ -8909,6 +9648,9 @@
       <c r="E245" s="1" t="s">
         <v>981</v>
       </c>
+      <c r="CW245" t="str">
+        <v>af7f4fd625bfff6a41d576e56d674160</v>
+      </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
@@ -8926,6 +9668,9 @@
       <c r="E246" s="1" t="s">
         <v>985</v>
       </c>
+      <c r="CW246" t="str">
+        <v>0b17eaf31c04df8d5c7a43ea3797d70a</v>
+      </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
@@ -8943,6 +9688,9 @@
       <c r="E247" s="1" t="s">
         <v>989</v>
       </c>
+      <c r="CW247" t="str">
+        <v>84fdd26e0e963e0a2d84db13496eba0e</v>
+      </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
@@ -8960,6 +9708,9 @@
       <c r="E248" s="1" t="s">
         <v>993</v>
       </c>
+      <c r="CW248" t="str">
+        <v>fc8a6e804098aafc956e083765ea311d</v>
+      </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
@@ -8977,6 +9728,9 @@
       <c r="E249" s="1" t="s">
         <v>997</v>
       </c>
+      <c r="CW249" t="str">
+        <v>297a5d92e9e78b3d188d486035b69dee</v>
+      </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
@@ -8994,6 +9748,9 @@
       <c r="E250" s="1" t="s">
         <v>1001</v>
       </c>
+      <c r="CW250" t="str">
+        <v>85fe54264773887e7b91224dd6e34f7e</v>
+      </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
@@ -9011,6 +9768,9 @@
       <c r="E251" s="1" t="s">
         <v>1005</v>
       </c>
+      <c r="CW251" t="str">
+        <v>c714d502628f895d384db90cd4c1f130</v>
+      </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
@@ -9028,6 +9788,9 @@
       <c r="E252" s="1" t="s">
         <v>1009</v>
       </c>
+      <c r="CW252" t="str">
+        <v>1089927bec096158f43cd57f8a1acb41</v>
+      </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
@@ -9045,6 +9808,9 @@
       <c r="E253" s="1" t="s">
         <v>1013</v>
       </c>
+      <c r="CW253" t="str">
+        <v>291d5d0231c26d5dc5f181cc4396ac15</v>
+      </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
@@ -9062,6 +9828,9 @@
       <c r="E254" s="1" t="s">
         <v>1017</v>
       </c>
+      <c r="CW254" t="str">
+        <v>937a05e194fb7305ce1400174c656e80</v>
+      </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
@@ -9079,6 +9848,9 @@
       <c r="E255" s="1" t="s">
         <v>1021</v>
       </c>
+      <c r="CW255" t="str">
+        <v>7415c73bac1d6ee2db2b66dca6efa53e</v>
+      </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
@@ -9096,6 +9868,9 @@
       <c r="E256" s="1" t="s">
         <v>1025</v>
       </c>
+      <c r="CW256" t="str">
+        <v>5a11fa4406bdf139e953c64916a6c3a4</v>
+      </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
@@ -9113,6 +9888,9 @@
       <c r="E257" s="1" t="s">
         <v>1029</v>
       </c>
+      <c r="CW257" t="str">
+        <v>e239f30dffc032962ec9abe860b23378</v>
+      </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
@@ -9130,6 +9908,9 @@
       <c r="E258" s="1" t="s">
         <v>1033</v>
       </c>
+      <c r="CW258" t="str">
+        <v>4d8d1094cc21807236803bc7c6f74066</v>
+      </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
@@ -9147,6 +9928,9 @@
       <c r="E259" s="1" t="s">
         <v>1037</v>
       </c>
+      <c r="CW259" t="str">
+        <v>c676659571d10b928b8994e76099b5a6</v>
+      </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
@@ -9164,6 +9948,9 @@
       <c r="E260" s="1" t="s">
         <v>1041</v>
       </c>
+      <c r="CW260" t="str">
+        <v>67f59596f0aff62c26db6f7435688a2e</v>
+      </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
@@ -9181,6 +9968,9 @@
       <c r="E261" s="1" t="s">
         <v>1046</v>
       </c>
+      <c r="CW261" t="str">
+        <v>34f8480cb0627b5896e092113d8666d2</v>
+      </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1" t="s">
@@ -9198,6 +9988,9 @@
       <c r="E262" s="1" t="s">
         <v>1050</v>
       </c>
+      <c r="CW262" t="str">
+        <v>e35330d4ce04991d98e0354f839302fb</v>
+      </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="1" t="s">
@@ -9215,6 +10008,9 @@
       <c r="E263" s="1" t="s">
         <v>1054</v>
       </c>
+      <c r="CW263" t="str">
+        <v>e0032ccbd80d6b0f0f7496081bcb4ab6</v>
+      </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1" t="s">
@@ -9232,6 +10028,9 @@
       <c r="E264" s="1" t="s">
         <v>1058</v>
       </c>
+      <c r="CW264" t="str">
+        <v>a06a63fea7c8d00086e4620eca0e7845</v>
+      </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="1" t="s">
@@ -9249,6 +10048,9 @@
       <c r="E265" s="1" t="s">
         <v>1062</v>
       </c>
+      <c r="CW265" t="str">
+        <v>c8535de6583de27a9626c98792edbf23</v>
+      </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="1" t="s">
@@ -9266,6 +10068,9 @@
       <c r="E266" s="1" t="s">
         <v>1066</v>
       </c>
+      <c r="CW266" t="str">
+        <v>64c20fd71504f0eb35c6a3bd4a908868</v>
+      </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="1" t="s">
@@ -9283,6 +10088,9 @@
       <c r="E267" s="1" t="s">
         <v>1070</v>
       </c>
+      <c r="CW267" t="str">
+        <v>934826954a43a20d2e8feb9d59cb4343</v>
+      </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1" t="s">
@@ -9300,6 +10108,9 @@
       <c r="E268" s="1" t="s">
         <v>1074</v>
       </c>
+      <c r="CW268" t="str">
+        <v>93e06f791f5c96becfd7561eb980f8a7</v>
+      </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="1" t="s">
@@ -9317,6 +10128,9 @@
       <c r="E269" s="1" t="s">
         <v>1078</v>
       </c>
+      <c r="CW269" t="str">
+        <v>4a3a493d0fd85ab7b361cf67b83bd0e2</v>
+      </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="1" t="s">
@@ -9334,6 +10148,9 @@
       <c r="E270" s="1" t="s">
         <v>1083</v>
       </c>
+      <c r="CW270" t="str">
+        <v>5f8d07f9a6c3d7286dcc5c01787aff90</v>
+      </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="1" t="s">
@@ -9351,6 +10168,9 @@
       <c r="E271" s="1" t="s">
         <v>1087</v>
       </c>
+      <c r="CW271" t="str">
+        <v>e733cb1a7eec61f3e163ecafdd457478</v>
+      </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="1" t="s">
@@ -9368,6 +10188,9 @@
       <c r="E272" s="1" t="s">
         <v>1091</v>
       </c>
+      <c r="CW272" t="str">
+        <v>1f29413648bd0ed9b7dc959c60c817c6</v>
+      </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="1" t="s">
@@ -9385,6 +10208,9 @@
       <c r="E273" s="1" t="s">
         <v>1095</v>
       </c>
+      <c r="CW273" t="str">
+        <v>e80e0bb39f3add9498fecf792ace4324</v>
+      </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="1" t="s">
@@ -9402,6 +10228,9 @@
       <c r="E274" s="1" t="s">
         <v>1099</v>
       </c>
+      <c r="CW274" t="str">
+        <v>c5d1e04ff8061889798e47a223b28d1d</v>
+      </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="1" t="s">
@@ -9419,6 +10248,9 @@
       <c r="E275" s="1" t="s">
         <v>1103</v>
       </c>
+      <c r="CW275" t="str">
+        <v>a82c2b648008f4eb6aef7beb86b3dd9f</v>
+      </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="1" t="s">
@@ -9436,6 +10268,9 @@
       <c r="E276" s="1" t="s">
         <v>1107</v>
       </c>
+      <c r="CW276" t="str">
+        <v>f6aaf72da215efebaea7ceed2f5eed35</v>
+      </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="1" t="s">
@@ -9453,6 +10288,9 @@
       <c r="E277" s="1" t="s">
         <v>1111</v>
       </c>
+      <c r="CW277" t="str">
+        <v>3d3d2dc5b2bc325f9ff979c8dc618fac</v>
+      </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="1" t="s">
@@ -9470,6 +10308,9 @@
       <c r="E278" s="1" t="s">
         <v>1115</v>
       </c>
+      <c r="CW278" t="str">
+        <v>8db26cd542a6fb877a5dee66382856d7</v>
+      </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="1" t="s">
@@ -9487,6 +10328,9 @@
       <c r="E279" s="1" t="s">
         <v>1119</v>
       </c>
+      <c r="CW279" t="str">
+        <v>1bb0b93541bb9cd0f37abebee2e88bf7</v>
+      </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="1" t="s">
@@ -9504,6 +10348,9 @@
       <c r="E280" s="1" t="s">
         <v>1123</v>
       </c>
+      <c r="CW280" t="str">
+        <v>6edf27f89ec812c68cde9a78f79e011b</v>
+      </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="1" t="s">
@@ -9521,6 +10368,9 @@
       <c r="E281" s="1" t="s">
         <v>1127</v>
       </c>
+      <c r="CW281" t="str">
+        <v>918e55e0f2eb50505e3987591d3fd7cf</v>
+      </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="1" t="s">
@@ -9538,6 +10388,9 @@
       <c r="E282" s="1" t="s">
         <v>1131</v>
       </c>
+      <c r="CW282" t="str">
+        <v>d33843624ef68b026025d22b07c1af3e</v>
+      </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="1" t="s">
@@ -9555,6 +10408,9 @@
       <c r="E283" s="1" t="s">
         <v>1135</v>
       </c>
+      <c r="CW283" t="str">
+        <v>73423e191108da7d2b9c79571a764d42</v>
+      </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="1" t="s">
@@ -9572,6 +10428,9 @@
       <c r="E284" s="1" t="s">
         <v>1139</v>
       </c>
+      <c r="CW284" t="str">
+        <v>15d58920eda653bcbe5876621ee3b9b5</v>
+      </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1" t="s">
@@ -9589,6 +10448,9 @@
       <c r="E285" s="1" t="s">
         <v>1143</v>
       </c>
+      <c r="CW285" t="str">
+        <v>95f9476428e30215821f3f9e9708e9d1</v>
+      </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="1" t="s">
@@ -9606,6 +10468,9 @@
       <c r="E286" s="1" t="s">
         <v>1148</v>
       </c>
+      <c r="CW286" t="str">
+        <v>d893e954601bf25e40cb87f354da023d</v>
+      </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="1" t="s">
@@ -9623,6 +10488,9 @@
       <c r="E287" s="1" t="s">
         <v>1152</v>
       </c>
+      <c r="CW287" t="str">
+        <v>8c6cc09feb4071aba3b3b55736d5b3ff</v>
+      </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="1" t="s">
@@ -9640,6 +10508,9 @@
       <c r="E288" s="1" t="s">
         <v>1156</v>
       </c>
+      <c r="CW288" t="str">
+        <v>8d833f1f37eb02b698636b80c514f37e</v>
+      </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="1" t="s">
@@ -9657,6 +10528,9 @@
       <c r="E289" s="1" t="s">
         <v>1160</v>
       </c>
+      <c r="CW289" t="str">
+        <v>791acb0e11fdfb5e32aaa8c76ec09fe3</v>
+      </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="1" t="s">
@@ -9674,6 +10548,9 @@
       <c r="E290" s="1" t="s">
         <v>1164</v>
       </c>
+      <c r="CW290" t="str">
+        <v>21a0f2c9bc3cd3efe67fc934f938fd5e</v>
+      </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="1" t="s">
@@ -9689,6 +10566,9 @@
         <v>1167</v>
       </c>
       <c r="E291" s="1"/>
+      <c r="CW291" t="str">
+        <v>f92dd93a07882bfb48196d25ac3d6a4e</v>
+      </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="1" t="s">
@@ -9706,6 +10586,9 @@
       <c r="E292" s="1" t="s">
         <v>1171</v>
       </c>
+      <c r="CW292" t="str">
+        <v>5fa9add6ec0f167d92cb005f4b98e3b3</v>
+      </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="1" t="s">
@@ -9723,6 +10606,9 @@
       <c r="E293" s="1" t="s">
         <v>1176</v>
       </c>
+      <c r="CW293" t="str">
+        <v>ceb9f75414f0ead167c251a83a16857f</v>
+      </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="1" t="s">
@@ -9740,6 +10626,9 @@
       <c r="E294" s="1" t="s">
         <v>1180</v>
       </c>
+      <c r="CW294" t="str">
+        <v>3f01890e4e697ac566557cc3a1e92b79</v>
+      </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="1" t="s">
@@ -9757,6 +10646,9 @@
       <c r="E295" s="1" t="s">
         <v>1184</v>
       </c>
+      <c r="CW295" t="str">
+        <v>5f82643bd70f0afae52ef34497697c05</v>
+      </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
@@ -9774,6 +10666,9 @@
       <c r="E296" s="1" t="s">
         <v>1188</v>
       </c>
+      <c r="CW296" t="str">
+        <v>e9df9211a871f238888efbe4e452cef2</v>
+      </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="1" t="s">
@@ -9791,6 +10686,9 @@
       <c r="E297" s="1" t="s">
         <v>1192</v>
       </c>
+      <c r="CW297" t="str">
+        <v>cba9e9da46f162f7996cce0efb29f331</v>
+      </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="1" t="s">
@@ -9808,6 +10706,9 @@
       <c r="E298" s="1" t="s">
         <v>1196</v>
       </c>
+      <c r="CW298" t="str">
+        <v>2554653b6be0ea25f98a8ace486e972a</v>
+      </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
@@ -9825,6 +10726,9 @@
       <c r="E299" s="1" t="s">
         <v>1200</v>
       </c>
+      <c r="CW299" t="str">
+        <v>cbfb913515cf1c61a066001e52d97531</v>
+      </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
@@ -9842,6 +10746,9 @@
       <c r="E300" s="1" t="s">
         <v>1204</v>
       </c>
+      <c r="CW300" t="str">
+        <v>2fc7d803cb85c64088794afcba521007</v>
+      </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="1" t="s">
@@ -9859,6 +10766,9 @@
       <c r="E301" s="1" t="s">
         <v>1208</v>
       </c>
+      <c r="CW301" t="str">
+        <v>919cde1729de098a996013e4ba7626d8</v>
+      </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="1" t="s">
@@ -9876,6 +10786,9 @@
       <c r="E302" s="1" t="s">
         <v>1212</v>
       </c>
+      <c r="CW302" t="str">
+        <v>cf3ec81c7801b10251d9dfb1d63ac0ca</v>
+      </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="1" t="s">
@@ -9893,6 +10806,9 @@
       <c r="E303" s="1" t="s">
         <v>1217</v>
       </c>
+      <c r="CW303" t="str">
+        <v>43303212b30cf304efd9407d9aa9c8cb</v>
+      </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="1" t="s">
@@ -9910,6 +10826,9 @@
       <c r="E304" s="1" t="s">
         <v>1221</v>
       </c>
+      <c r="CW304" t="str">
+        <v>a185b566260ca9af77002bd8b813d916</v>
+      </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="1" t="s">
@@ -9927,6 +10846,9 @@
       <c r="E305" s="1" t="s">
         <v>1225</v>
       </c>
+      <c r="CW305" t="str">
+        <v>50fd67e363b514e259aa0dc212c6b80d</v>
+      </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="1" t="s">
@@ -9944,6 +10866,9 @@
       <c r="E306" s="1" t="s">
         <v>1229</v>
       </c>
+      <c r="CW306" t="str">
+        <v>1a656cf9e774cba6d95a8ad2f5ea4f95</v>
+      </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="1" t="s">
@@ -9961,6 +10886,9 @@
       <c r="E307" s="1" t="s">
         <v>1233</v>
       </c>
+      <c r="CW307" t="str">
+        <v>e6134d03d4c46910f423518e12bc34ef</v>
+      </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="1" t="s">
@@ -9978,6 +10906,9 @@
       <c r="E308" s="1" t="s">
         <v>1237</v>
       </c>
+      <c r="CW308" t="str">
+        <v>cb04748d95aad5c228ff947f80d14cfc</v>
+      </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="1" t="s">
@@ -9995,6 +10926,9 @@
       <c r="E309" s="1" t="s">
         <v>1241</v>
       </c>
+      <c r="CW309" t="str">
+        <v>4caec2fa061ea8bc64a7947d36ae74ff</v>
+      </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="1" t="s">
@@ -10012,6 +10946,9 @@
       <c r="E310" s="1" t="s">
         <v>1245</v>
       </c>
+      <c r="CW310" t="str">
+        <v>335ab3cbc78309852e5ede2f12d62689</v>
+      </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="1" t="s">
@@ -10029,6 +10966,9 @@
       <c r="E311" s="1" t="s">
         <v>1249</v>
       </c>
+      <c r="CW311" t="str">
+        <v>6571247e49679d78f83e588001a4e3be</v>
+      </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="1" t="s">
@@ -10046,6 +10986,9 @@
       <c r="E312" s="1" t="s">
         <v>1253</v>
       </c>
+      <c r="CW312" t="str">
+        <v>9bf3c19113ac3b3a75c3b078a9c5ab15</v>
+      </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="1" t="s">
@@ -10063,6 +11006,9 @@
       <c r="E313" s="1" t="s">
         <v>1257</v>
       </c>
+      <c r="CW313" t="str">
+        <v>1d6a1a626280a7e12fe4cf9303051410</v>
+      </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="1" t="s">
@@ -10080,6 +11026,9 @@
       <c r="E314" s="1" t="s">
         <v>1261</v>
       </c>
+      <c r="CW314" t="str">
+        <v>ea4c091e8a95704e66456f63fcd0822e</v>
+      </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="1" t="s">
@@ -10097,6 +11046,9 @@
       <c r="E315" s="1" t="s">
         <v>1265</v>
       </c>
+      <c r="CW315" t="str">
+        <v>bb7121da923ee0181155892c109962d4</v>
+      </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="1" t="s">
@@ -10114,6 +11066,9 @@
       <c r="E316" s="1" t="s">
         <v>1269</v>
       </c>
+      <c r="CW316" t="str">
+        <v>88fde9f62acdfd056fe9673bc31ef671</v>
+      </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="1" t="s">
@@ -10131,6 +11086,9 @@
       <c r="E317" s="1" t="s">
         <v>1274</v>
       </c>
+      <c r="CW317" t="str">
+        <v>1de7f4c63eddada747ae79c6e17daa56</v>
+      </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="1" t="s">
@@ -10148,6 +11106,9 @@
       <c r="E318" s="1" t="s">
         <v>1278</v>
       </c>
+      <c r="CW318" t="str">
+        <v>bb0128347a5879f5dd85ce9041fa42c3</v>
+      </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="1" t="s">
@@ -10165,6 +11126,9 @@
       <c r="E319" s="1" t="s">
         <v>1282</v>
       </c>
+      <c r="CW319" t="str">
+        <v>5ab8f028107b8a7cb6b771098c2a0d16</v>
+      </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="1" t="s">
@@ -10182,6 +11146,9 @@
       <c r="E320" s="1" t="s">
         <v>1286</v>
       </c>
+      <c r="CW320" t="str">
+        <v>f2f36f6c90eff56079814c5db5979efa</v>
+      </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="1" t="s">
@@ -10199,6 +11166,9 @@
       <c r="E321" s="1" t="s">
         <v>1290</v>
       </c>
+      <c r="CW321" t="str">
+        <v>3a310883d20b11e68025d8326a5da5c0</v>
+      </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="1" t="s">
@@ -10216,6 +11186,9 @@
       <c r="E322" s="1" t="s">
         <v>1293</v>
       </c>
+      <c r="CW322" t="str">
+        <v>6dc218e724cf7c72b5c5f1bece9d64a4</v>
+      </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="1" t="s">
@@ -10233,6 +11206,9 @@
       <c r="E323" s="1" t="s">
         <v>1297</v>
       </c>
+      <c r="CW323" t="str">
+        <v>949172fed6c0ee3a74741259864e4178</v>
+      </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="1" t="s">
@@ -10250,6 +11226,9 @@
       <c r="E324" s="1" t="s">
         <v>1301</v>
       </c>
+      <c r="CW324" t="str">
+        <v>aa21b5f3efbab69a5487adcd0d04ec52</v>
+      </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="1" t="s">
@@ -10267,6 +11246,9 @@
       <c r="E325" s="1" t="s">
         <v>1306</v>
       </c>
+      <c r="CW325" t="str">
+        <v>911f8173f4a762535eb84a9b9b4a963b</v>
+      </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="1" t="s">
@@ -10284,6 +11266,9 @@
       <c r="E326" s="1" t="s">
         <v>1310</v>
       </c>
+      <c r="CW326" t="str">
+        <v>115b67dd57fcdc81e1b8aa3b5068c6ea</v>
+      </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="1" t="s">
@@ -10301,6 +11286,9 @@
       <c r="E327" s="1" t="s">
         <v>1314</v>
       </c>
+      <c r="CW327" t="str">
+        <v>620c185f8757ae3607ea6cd9eeb833ca</v>
+      </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1" t="s">
@@ -10318,6 +11306,9 @@
       <c r="E328" s="1" t="s">
         <v>1318</v>
       </c>
+      <c r="CW328" t="str">
+        <v>ffc5104cc773ea5ce0d26edd3e736ebd</v>
+      </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="1" t="s">
@@ -10335,6 +11326,9 @@
       <c r="E329" s="1" t="s">
         <v>1322</v>
       </c>
+      <c r="CW329" t="str">
+        <v>1ae1a2e8804ca7ee9cc48182885dba7c</v>
+      </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="1" t="s">
@@ -10352,6 +11346,9 @@
       <c r="E330" s="1" t="s">
         <v>1327</v>
       </c>
+      <c r="CW330" t="str">
+        <v>8b4bdb81ab79def388db4d84b555d38e</v>
+      </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="1" t="s">
@@ -10369,6 +11366,9 @@
       <c r="E331" s="1" t="s">
         <v>1331</v>
       </c>
+      <c r="CW331" t="str">
+        <v>cb518cf04cf7b11c5fb65278e76870bc</v>
+      </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="1" t="s">
@@ -10386,6 +11386,9 @@
       <c r="E332" s="1" t="s">
         <v>1335</v>
       </c>
+      <c r="CW332" t="str">
+        <v>720fc111589b6968933e738ded2e249c</v>
+      </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="1" t="s">
@@ -10403,6 +11406,9 @@
       <c r="E333" s="1" t="s">
         <v>1339</v>
       </c>
+      <c r="CW333" t="str">
+        <v>00320ecddaa46297accbb1085628ce07</v>
+      </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="1" t="s">
@@ -10420,6 +11426,9 @@
       <c r="E334" s="1" t="s">
         <v>1343</v>
       </c>
+      <c r="CW334" t="str">
+        <v>714188fad205b8ea582a0e87ca37965a</v>
+      </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="1" t="s">
@@ -10437,6 +11446,9 @@
       <c r="E335" s="1" t="s">
         <v>1347</v>
       </c>
+      <c r="CW335" t="str">
+        <v>a052970d215cc07eff9e577ffa2b8ea3</v>
+      </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="1" t="s">
@@ -10454,6 +11466,9 @@
       <c r="E336" s="1" t="s">
         <v>1351</v>
       </c>
+      <c r="CW336" t="str">
+        <v>b8ae1b47359deb40c3aaf8b8238fe079</v>
+      </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="1" t="s">
@@ -10471,6 +11486,9 @@
       <c r="E337" s="1" t="s">
         <v>1355</v>
       </c>
+      <c r="CW337" t="str">
+        <v>a41b5e10bd7d81e03c481a41bb15f8df</v>
+      </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="1" t="s">
@@ -10488,6 +11506,9 @@
       <c r="E338" s="1" t="s">
         <v>1359</v>
       </c>
+      <c r="CW338" t="str">
+        <v>7669aaba26c6527fe83cd7e1df939574</v>
+      </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="1" t="s">
@@ -10505,6 +11526,9 @@
       <c r="E339" s="1" t="s">
         <v>1363</v>
       </c>
+      <c r="CW339" t="str">
+        <v>44db22d14e2c23d094f1aed4c3244dc3</v>
+      </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="1" t="s">
@@ -10522,6 +11546,9 @@
       <c r="E340" s="1" t="s">
         <v>1367</v>
       </c>
+      <c r="CW340" t="str">
+        <v>7d437436750cb5ca4f7b630bfcf4fd2f</v>
+      </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="1" t="s">
@@ -10539,6 +11566,9 @@
       <c r="E341" s="1" t="s">
         <v>1371</v>
       </c>
+      <c r="CW341" t="str">
+        <v>10e5c1351ed1c0fe120b6fa9cfd1801a</v>
+      </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="1" t="s">
@@ -10556,6 +11586,9 @@
       <c r="E342" s="1" t="s">
         <v>1375</v>
       </c>
+      <c r="CW342" t="str">
+        <v>59fdaf18354b17162f36bdd058b31ed7</v>
+      </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="1" t="s">
@@ -10573,6 +11606,9 @@
       <c r="E343" s="1" t="s">
         <v>1379</v>
       </c>
+      <c r="CW343" t="str">
+        <v>26c83983fd49c80adbe2ff275e516a3a</v>
+      </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="1" t="s">
@@ -10588,6 +11624,9 @@
         <v>1326</v>
       </c>
       <c r="E344" s="1"/>
+      <c r="CW344" t="str">
+        <v>3afc69b5aced41add7e95ff31f7755fc</v>
+      </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="1" t="s">
@@ -10602,8 +11641,11 @@
       <c r="D345" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="E345" s="1" t="s">
-        <v>1054</v>
+      <c r="E345" s="1">
+        <v>852</v>
+      </c>
+      <c r="CW345" t="str">
+        <v>ef6afc76cfd5e3c94a6e6ff551f1f2da</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -10622,6 +11664,9 @@
       <c r="E346" s="1" t="s">
         <v>1054</v>
       </c>
+      <c r="CW346" t="str">
+        <v>aa49e79fa54392e8ed982f656b0d37c5</v>
+      </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="1" t="s">
@@ -10639,6 +11684,9 @@
       <c r="E347" s="1" t="s">
         <v>1054</v>
       </c>
+      <c r="CW347" t="str">
+        <v>7247c0fe7290dbd8fc7fe707ba3240f5</v>
+      </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="1" t="s">
@@ -10656,6 +11704,9 @@
       <c r="E348" s="1" t="s">
         <v>1058</v>
       </c>
+      <c r="CW348" t="str">
+        <v>c2f92d95d374cfcc6c881ccc2642d7f9</v>
+      </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="1" t="s">
@@ -10673,6 +11724,9 @@
       <c r="E349" s="1" t="s">
         <v>1058</v>
       </c>
+      <c r="CW349" t="str">
+        <v>5ed031e1f5ac73161410a13f022d6269</v>
+      </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="1" t="s">
@@ -10690,6 +11744,9 @@
       <c r="E350" s="1" t="s">
         <v>1058</v>
       </c>
+      <c r="CW350" t="str">
+        <v>0d48da9c18a2caac1ec4e0232068285f</v>
+      </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="1" t="s">
@@ -10707,6 +11764,9 @@
       <c r="E351" s="1" t="s">
         <v>1401</v>
       </c>
+      <c r="CW351" t="str">
+        <v>4a39f200b9a44347ea6fa588f6749535</v>
+      </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="1" t="s">
@@ -10724,6 +11784,9 @@
       <c r="E352" s="1" t="s">
         <v>1404</v>
       </c>
+      <c r="CW352" t="str">
+        <v>0ed1e7b45b6f4b32707163a9c23c9641</v>
+      </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="1" t="s">
@@ -10741,6 +11804,9 @@
       <c r="E353" s="1" t="s">
         <v>1404</v>
       </c>
+      <c r="CW353" t="str">
+        <v>2917570ed454580eb9b83ac5b878a90a</v>
+      </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="1" t="s">
@@ -10758,6 +11824,9 @@
       <c r="E354" s="1" t="s">
         <v>1409</v>
       </c>
+      <c r="CW354" t="str">
+        <v>90b91ab05b7a0827015dfd7b73c71d59</v>
+      </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="1" t="s">
@@ -10775,6 +11844,9 @@
       <c r="E355" s="1" t="s">
         <v>1409</v>
       </c>
+      <c r="CW355" t="str">
+        <v>b3cd649c8bbcba28ad3c0e007deb6cd1</v>
+      </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="1" t="s">
@@ -10792,6 +11864,9 @@
       <c r="E356" s="1" t="s">
         <v>1409</v>
       </c>
+      <c r="CW356" t="str">
+        <v>9451d38d26f68ab2a8fdf28c62590978</v>
+      </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="1" t="s">
@@ -10809,6 +11884,9 @@
       <c r="E357" s="1" t="s">
         <v>1416</v>
       </c>
+      <c r="CW357" t="str">
+        <v>6f5dc052250de8a99f562d5ecb5eb4cb</v>
+      </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="1" t="s">
@@ -10826,6 +11904,9 @@
       <c r="E358" s="1" t="s">
         <v>1419</v>
       </c>
+      <c r="CW358" t="str">
+        <v>f786a44f1cbfdd2f0b1c9504254c9f9a</v>
+      </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="1" t="s">
@@ -10843,6 +11924,9 @@
       <c r="E359" s="1" t="s">
         <v>1422</v>
       </c>
+      <c r="CW359" t="str">
+        <v>6c1809de9c93cffdadef275b5c6c4398</v>
+      </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="1" t="s">
@@ -10860,6 +11944,9 @@
       <c r="E360" s="1" t="s">
         <v>1037</v>
       </c>
+      <c r="CW360" t="str">
+        <v>351c92910d9bfa0ee7dc8997e0390e1e</v>
+      </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="1" t="s">
@@ -10877,6 +11964,9 @@
       <c r="E361" s="1" t="s">
         <v>1427</v>
       </c>
+      <c r="CW361" t="str">
+        <v>29dff176ed4537e097700d5a064b1d6e</v>
+      </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="1" t="s">
@@ -10892,6 +11982,9 @@
         <v>1400</v>
       </c>
       <c r="E362" s="1"/>
+      <c r="CW362" t="str">
+        <v>3837777e3c58f104a22c2886cbee7572</v>
+      </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="1" t="s">
@@ -10909,6 +12002,9 @@
       <c r="E363" s="1" t="s">
         <v>1432</v>
       </c>
+      <c r="CW363" t="str">
+        <v>c2ffba1b3fb4e65fba6c404e8774caf1</v>
+      </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="1" t="s">
@@ -10926,6 +12022,9 @@
       <c r="E364" s="1" t="s">
         <v>1419</v>
       </c>
+      <c r="CW364" t="str">
+        <v>c9cb794f2cb89bd810e76f359a631f50</v>
+      </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="1" t="s">
@@ -10943,6 +12042,9 @@
       <c r="E365" s="1" t="s">
         <v>1437</v>
       </c>
+      <c r="CW365" t="str">
+        <v>06970abd080b12b4ac6f0447cdec3e50</v>
+      </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="1" t="s">
@@ -10960,6 +12062,9 @@
       <c r="E366" s="1" t="s">
         <v>1440</v>
       </c>
+      <c r="CW366" t="str">
+        <v>0266a4f37868faa0e64dd632d1b009c9</v>
+      </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="1" t="s">
@@ -10977,6 +12082,9 @@
       <c r="E367" s="1" t="s">
         <v>1401</v>
       </c>
+      <c r="CW367" t="str">
+        <v>6944ada1eb0318a47392d4b228f9e5fc</v>
+      </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="1" t="s">
@@ -10994,6 +12102,9 @@
       <c r="E368" s="1" t="s">
         <v>1437</v>
       </c>
+      <c r="CW368" t="str">
+        <v>ea6c32e244765e3f3920c7c3917f1f31</v>
+      </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="1" t="s">
@@ -11011,6 +12122,9 @@
       <c r="E369" s="1" t="s">
         <v>1419</v>
       </c>
+      <c r="CW369" t="str">
+        <v>8b3bbcf294a74ebe50452ac970e200c9</v>
+      </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="1" t="s">
@@ -11028,6 +12142,9 @@
       <c r="E370" s="1" t="s">
         <v>1449</v>
       </c>
+      <c r="CW370" t="str">
+        <v>fc4336bc1fb88e16be04c5779a9daf2d</v>
+      </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="1" t="s">
@@ -11045,6 +12162,9 @@
       <c r="E371" s="1" t="s">
         <v>1409</v>
       </c>
+      <c r="CW371" t="str">
+        <v>f3f73fb0b535268143dfb9d0f59aac43</v>
+      </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="1" t="s">
@@ -11062,6 +12182,9 @@
       <c r="E372" s="1" t="s">
         <v>1409</v>
       </c>
+      <c r="CW372" t="str">
+        <v>d3ceac34e4a7989cfa186173c138b3e2</v>
+      </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="1" t="s">
@@ -11079,9 +12202,12 @@
       <c r="E373" s="1" t="s">
         <v>1404</v>
       </c>
+      <c r="CW373" t="str">
+        <v>4f90d7520a0b412bfdd2227b771a2048</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data/system/address/v1.xlsx
+++ b/data/system/address/v1.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
-  <workbookPr filterPrivacy="true"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1686112E-749B-7F43-937F-970D99680F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14360" windowWidth="20940" xWindow="3300" yWindow="2600"/>
+    <workbookView xWindow="3300" yWindow="2600" windowWidth="20940" windowHeight="14360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="china" sheetId="1" r:id="rId1"/>
+    <sheet name="us" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="1830">
   <si>
     <t>seq</t>
   </si>
@@ -4391,15 +4393,1133 @@
   <si>
     <t>云林县</t>
   </si>
-  <si/>
+  <si>
+    <t/>
+  </si>
   <si>
     <t>city</t>
+  </si>
+  <si>
+    <t>b49a06d59d0ac37f521ee5ccc9c05728</t>
+  </si>
+  <si>
+    <t>2f1070bfbed9377b846839a71bb495ac</t>
+  </si>
+  <si>
+    <t>3f35369913f6aae6bebe2bfa44f21c24</t>
+  </si>
+  <si>
+    <t>24900e020b2af31a7e471066613c7097</t>
+  </si>
+  <si>
+    <t>c15a5d047c7b818bb463101404843085</t>
+  </si>
+  <si>
+    <t>34955cbcd66cc2fc987ffb152f06da43</t>
+  </si>
+  <si>
+    <t>dd2b84c85235265ce7a48df271cb764d</t>
+  </si>
+  <si>
+    <t>8e11f9a21b234d68d8e6955dc74b1e87</t>
+  </si>
+  <si>
+    <t>f557b9e25e79e8f65fe2054b9e693e5a</t>
+  </si>
+  <si>
+    <t>e7d80e7c1b0b4be2f8907cbd1c67b258</t>
+  </si>
+  <si>
+    <t>a4a7a326c43499002a1b0df2c8244e3b</t>
+  </si>
+  <si>
+    <t>a37c1c94c730aa1bca182d74a3651551</t>
+  </si>
+  <si>
+    <t>2b261f7f5c138cf259ab1bf2554dd88f</t>
+  </si>
+  <si>
+    <t>3457bde3e481a35ff55d925d2adf0439</t>
+  </si>
+  <si>
+    <t>b2976ca118d5952b44c17afaebb0367d</t>
+  </si>
+  <si>
+    <t>63179f597865ad7794f5def4b3b49c44</t>
+  </si>
+  <si>
+    <t>ee30dca164e1183cef1c20d29dc3baac</t>
+  </si>
+  <si>
+    <t>a1d183bc1013ead2337d2fb2ae0f13cd</t>
+  </si>
+  <si>
+    <t>7d7e4c088377e364d0bbee16c7ce5218</t>
+  </si>
+  <si>
+    <t>0e7d1ed89a2f87ca2f61e1700330e81e</t>
+  </si>
+  <si>
+    <t>0774367e80fedf18e278203ccc053a60</t>
+  </si>
+  <si>
+    <t>63b16328a0864c51f03834cb83c25fb3</t>
+  </si>
+  <si>
+    <t>ac8a7326677b6ee6dd958bc5d20c73fd</t>
+  </si>
+  <si>
+    <t>f15cf1c6548ddd43721f8a6c744409b6</t>
+  </si>
+  <si>
+    <t>87a40eac75bbb00a7ed9c16aca797a27</t>
+  </si>
+  <si>
+    <t>b457378a21b2e250c852807c64551824</t>
+  </si>
+  <si>
+    <t>ae5e2b7b48b982b5beaf6152aeaa751d</t>
+  </si>
+  <si>
+    <t>2db061dff788314af94e892199ea13c9</t>
+  </si>
+  <si>
+    <t>422c6c030dfcbc7fc69c55d87d93282e</t>
+  </si>
+  <si>
+    <t>ff6fe2b507264198c25e2428897856ba</t>
+  </si>
+  <si>
+    <t>fb9e4f49e147ebdf2cada66333896023</t>
+  </si>
+  <si>
+    <t>36fef6a1f4be0ebf5550ad1164bdb19c</t>
+  </si>
+  <si>
+    <t>bc6ea7a64a984eb11911c05bcdaa93a9</t>
+  </si>
+  <si>
+    <t>a63122eefbb0525cb18d59e304e85c21</t>
+  </si>
+  <si>
+    <t>7d7748dc74c159a67a601e7c2ee4e42d</t>
+  </si>
+  <si>
+    <t>d20a3456a9da7516f027644805509920</t>
+  </si>
+  <si>
+    <t>774edce732b844c73dc244eefc4e9470</t>
+  </si>
+  <si>
+    <t>4e6f5ccc5951d1fd3d9fe2ce14270899</t>
+  </si>
+  <si>
+    <t>199dc61347f8e2b9c817d7852bb9248e</t>
+  </si>
+  <si>
+    <t>f9db9a6d7357af2f1c365ce0e42f0d77</t>
+  </si>
+  <si>
+    <t>7c336307c20edb97afe688c3f212ae55</t>
+  </si>
+  <si>
+    <t>c47eab49a93d3e3ce98be1d240c18e85</t>
+  </si>
+  <si>
+    <t>519c49cc090f587ea166765043f7ddc4</t>
+  </si>
+  <si>
+    <t>7fb6d36e65bc16199f9dd57e60bcd8d0</t>
+  </si>
+  <si>
+    <t>a5d71dc212a475d675e3e5595b0929ac</t>
+  </si>
+  <si>
+    <t>619a27025032e73053487d30911c3b9c</t>
+  </si>
+  <si>
+    <t>14823b0d8ae2694756ffb3d776d4122c</t>
+  </si>
+  <si>
+    <t>bcc0b3dd8fabe5d9514903aa93b37397</t>
+  </si>
+  <si>
+    <t>df72d53492a2b0b713628d0011fa6d08</t>
+  </si>
+  <si>
+    <t>6378bc2b195cfbf6d4d455c02797388f</t>
+  </si>
+  <si>
+    <t>68640af917a74fdba47acbf0bfee9887</t>
+  </si>
+  <si>
+    <t>a017d674c5d13aa7c646a9ef921579b2</t>
+  </si>
+  <si>
+    <t>16c5eacd83b5855bd0bbb9b907af9adf</t>
+  </si>
+  <si>
+    <t>ad8e76d732bc292885540e839d3fe3ff</t>
+  </si>
+  <si>
+    <t>676ea516423cd4535c0ddb20195f35c5</t>
+  </si>
+  <si>
+    <t>c53456321f63dfd91e6e6574768e83c7</t>
+  </si>
+  <si>
+    <t>be9b65c584ab103d9b3d0bd48bc86df6</t>
+  </si>
+  <si>
+    <t>b069c3171fa3e66188e224c05c9e6e53</t>
+  </si>
+  <si>
+    <t>a48d714bf7fb6aa74515f00102039fb2</t>
+  </si>
+  <si>
+    <t>ec427286d17383cfb28f7acf17915f58</t>
+  </si>
+  <si>
+    <t>6d98f670823c8b6f733026b9e6aca1ca</t>
+  </si>
+  <si>
+    <t>12b8d057b1963c6f6f48f18063610fb5</t>
+  </si>
+  <si>
+    <t>6e4fa326c33673e4be4d58c47c5c7d65</t>
+  </si>
+  <si>
+    <t>37e9696a43dc26e7f9989f25afde9d5f</t>
+  </si>
+  <si>
+    <t>b6f893c3b664b5f31c34ef2d744be875</t>
+  </si>
+  <si>
+    <t>19a83c0b89f82e7cb9e3a49ceb492f9f</t>
+  </si>
+  <si>
+    <t>526cbd8fe07e07f76d9405406f4c5928</t>
+  </si>
+  <si>
+    <t>bbb45b17b2e677253956b5d97d432523</t>
+  </si>
+  <si>
+    <t>37ce330a579c892da2e1c47574fa5480</t>
+  </si>
+  <si>
+    <t>bc31a17ab5d86f17d94207f7dd33d6de</t>
+  </si>
+  <si>
+    <t>2c83fa32795091c000188171f39f5056</t>
+  </si>
+  <si>
+    <t>3da30a7035916072e1110eb5e81bc703</t>
+  </si>
+  <si>
+    <t>00af0e5ede0333104424d2eec7534086</t>
+  </si>
+  <si>
+    <t>48d8d4c717a64ee69ed1b5566270a250</t>
+  </si>
+  <si>
+    <t>bd25c8eda14df0cbe12f605219330249</t>
+  </si>
+  <si>
+    <t>b13d8afe7dc73c187bdcfe4841dfd0f8</t>
+  </si>
+  <si>
+    <t>0a58620cced4a62893bb414e557b56b2</t>
+  </si>
+  <si>
+    <t>30cd5f0f3f638129f5d8f4e8584f2c4e</t>
+  </si>
+  <si>
+    <t>5973e0719e40d429082a6feed5861c90</t>
+  </si>
+  <si>
+    <t>7ac08ff1fe5613d0adb05f8ff9cfb863</t>
+  </si>
+  <si>
+    <t>fbb77a373ff77d4cc8a8a2429348c570</t>
+  </si>
+  <si>
+    <t>933700a73011a1c01a5239a38f446a9d</t>
+  </si>
+  <si>
+    <t>df148eb3e39e02716eeeae67a723b7ce</t>
+  </si>
+  <si>
+    <t>522840be2c74cba57e8b87529eb3dccc</t>
+  </si>
+  <si>
+    <t>2f56fd9e5e98cd5f2319e78731c3eeb7</t>
+  </si>
+  <si>
+    <t>17bb402c39964e2192145f83d22419dc</t>
+  </si>
+  <si>
+    <t>5296868125b00c13feb63d978f44f161</t>
+  </si>
+  <si>
+    <t>74ac8ac3acd2d499c511069971b1a1e2</t>
+  </si>
+  <si>
+    <t>76f5f19e86fd793d5ebb19cd4e8d611a</t>
+  </si>
+  <si>
+    <t>c6e6d6079c89bc68fa96789f13768535</t>
+  </si>
+  <si>
+    <t>3eac43167d640dbe7dc5981932516429</t>
+  </si>
+  <si>
+    <t>8d7b21797340ac6091eb8d1f45dd3959</t>
+  </si>
+  <si>
+    <t>10b55e2bf718008e0fb9bf5141d4270c</t>
+  </si>
+  <si>
+    <t>015d7ed03a5098e1735c2ef27a3a2dd5</t>
+  </si>
+  <si>
+    <t>47780dc5cd9328d72224ca7127d12d04</t>
+  </si>
+  <si>
+    <t>7b0700ced9c3a9ded220ff504f304d7d</t>
+  </si>
+  <si>
+    <t>10c3fcf91bae99a7ee4998df63ce4682</t>
+  </si>
+  <si>
+    <t>1a0fd3fc3a1fcc576babe58d2ae3b5ac</t>
+  </si>
+  <si>
+    <t>b4a3bb2d546669b2cdf7cd983386c8e5</t>
+  </si>
+  <si>
+    <t>401b88721870e59be31aef8985d1e05b</t>
+  </si>
+  <si>
+    <t>469bb3710aa4ecedc55b8bacf9a11a57</t>
+  </si>
+  <si>
+    <t>363ff1c41f766a3345106844b340ea9d</t>
+  </si>
+  <si>
+    <t>d6add6d5c44a416217abb575f5966d94</t>
+  </si>
+  <si>
+    <t>2911140b2bf8b77662cb687fc636ad3c</t>
+  </si>
+  <si>
+    <t>1b30f309080db203e30ba4967c73fb58</t>
+  </si>
+  <si>
+    <t>cb3c6698850da586d57d572f15e56ceb</t>
+  </si>
+  <si>
+    <t>6af0b655c49ee7fb015fa6129a1ea089</t>
+  </si>
+  <si>
+    <t>ef4414df1bb01d1dd35925c25f37989a</t>
+  </si>
+  <si>
+    <t>96085b693e2fc3581801d4c060d9c924</t>
+  </si>
+  <si>
+    <t>3e7b65d5b48df818230ef23d0cf6963f</t>
+  </si>
+  <si>
+    <t>2f65a554e6bdbd4d27fade07703d4252</t>
+  </si>
+  <si>
+    <t>318407832f6df98281517e2dbba6e52d</t>
+  </si>
+  <si>
+    <t>9984b06497122a3cebea303fc637878a</t>
+  </si>
+  <si>
+    <t>1e7035566e722fc56a2f7146f84dc40b</t>
+  </si>
+  <si>
+    <t>c114aeb7f1adb29b6c412c4fe93bcbb7</t>
+  </si>
+  <si>
+    <t>c46fdb3d40fb6b60c9148d89701a4737</t>
+  </si>
+  <si>
+    <t>0445cae4e99d755fd197c048d70ed3b1</t>
+  </si>
+  <si>
+    <t>a2809b0731553d4c6bb176ca726a755c</t>
+  </si>
+  <si>
+    <t>8175e27e61f057bc6f2481d9598de108</t>
+  </si>
+  <si>
+    <t>e48de22805d56b1e229d0c2c064d245c</t>
+  </si>
+  <si>
+    <t>c68565899a0f683b8cae8dd3761c3e48</t>
+  </si>
+  <si>
+    <t>ff3e6d6b89d896756c293e0e9a5a6252</t>
+  </si>
+  <si>
+    <t>62f20a8df655cc39fed3d6c817945be4</t>
+  </si>
+  <si>
+    <t>0438877e14b7e813a629229194c34703</t>
+  </si>
+  <si>
+    <t>f83919269430091133952b491bec15a8</t>
+  </si>
+  <si>
+    <t>5c383e9908a3bdf25829a78b17ed9af9</t>
+  </si>
+  <si>
+    <t>321ba5071ab59f1f1342ef890f328757</t>
+  </si>
+  <si>
+    <t>25afe494a73c0b26a44fb61194340e6c</t>
+  </si>
+  <si>
+    <t>9f714c6ad82c9cbc3b98eb4c74fd8414</t>
+  </si>
+  <si>
+    <t>b9ac3f1098083b11a8a02a7772e75650</t>
+  </si>
+  <si>
+    <t>9f84a8b1aac88119c4d12bf1061f4b8f</t>
+  </si>
+  <si>
+    <t>9d84e5b780cd80b4d006826805bd2d21</t>
+  </si>
+  <si>
+    <t>25f4a6ca3e35aeb51cc8c438b1f8d070</t>
+  </si>
+  <si>
+    <t>4f8da057483a9204e674ebb49ca6f175</t>
+  </si>
+  <si>
+    <t>ce72092c7cc2e7933c967c134d40ad92</t>
+  </si>
+  <si>
+    <t>e9a515041dc1f3c4c3bba635d55f0883</t>
+  </si>
+  <si>
+    <t>0ac9b11b5f540a61d43f0897e0cd8c11</t>
+  </si>
+  <si>
+    <t>5df6a94e3d7e5f2fd2ccbf0e2533f1ca</t>
+  </si>
+  <si>
+    <t>75ae6c2f04d5a5c66eca55d65ea3fdf9</t>
+  </si>
+  <si>
+    <t>b660822786167e3f0089b80d94978681</t>
+  </si>
+  <si>
+    <t>b7d37e5a9b2f95b5b1bc20c209ad2a94</t>
+  </si>
+  <si>
+    <t>53276213c21f01a560e8eb0f63288758</t>
+  </si>
+  <si>
+    <t>f498cc9600a9a44c7b2f391487aed255</t>
+  </si>
+  <si>
+    <t>0aeebfe6b82af063ef08aa2a1000af7e</t>
+  </si>
+  <si>
+    <t>3bdf7148b89ce047091f29809f433c2e</t>
+  </si>
+  <si>
+    <t>a2c23556a28e6f31d4a375a7e690ed56</t>
+  </si>
+  <si>
+    <t>f61c93c5e61c461eaba9f5cac99c5587</t>
+  </si>
+  <si>
+    <t>aecaf9b041f1851c444c657f621a14b5</t>
+  </si>
+  <si>
+    <t>6c601eeda7bd504f438f930478bab605</t>
+  </si>
+  <si>
+    <t>c880183b3e85890c05d64b2ffdaabb19</t>
+  </si>
+  <si>
+    <t>6484bdda391524f0e54997b22f2b49bb</t>
+  </si>
+  <si>
+    <t>2eb6b2ba6a703872f9eef77fb7b4e661</t>
+  </si>
+  <si>
+    <t>6285f7c5dc0f7cd64fdc033a4a7822ae</t>
+  </si>
+  <si>
+    <t>4cc48c1f07fb7aa832a0c70e1970347d</t>
+  </si>
+  <si>
+    <t>b3da080d6f4642b378a5297210288e16</t>
+  </si>
+  <si>
+    <t>f3d128f51522dcfc07282d547723228b</t>
+  </si>
+  <si>
+    <t>0037b37290df23e3074041455f65bf44</t>
+  </si>
+  <si>
+    <t>7973638ab71306b5edbc4e1841282941</t>
+  </si>
+  <si>
+    <t>3b4dda05086d7bcf33695c6c57aa1fce</t>
+  </si>
+  <si>
+    <t>a3e092a5cc114948904b12465d3069a6</t>
+  </si>
+  <si>
+    <t>ebf417f824880139024a633e6b765ad4</t>
+  </si>
+  <si>
+    <t>4fec8d6c3cba6efa4aca319f30cdc5b3</t>
+  </si>
+  <si>
+    <t>cc61c20c798fee52249d8478ad2cacbf</t>
+  </si>
+  <si>
+    <t>832b7aa827cfe76285c33494a5ec4321</t>
+  </si>
+  <si>
+    <t>45b5f67d204937a5e771c73e260f916a</t>
+  </si>
+  <si>
+    <t>b8a27668bbbf13df19fd660f82279c03</t>
+  </si>
+  <si>
+    <t>f5517487dff88e8a556bfcf81a1dcc21</t>
+  </si>
+  <si>
+    <t>ae15a58acd9a47c1c639577360b9e34c</t>
+  </si>
+  <si>
+    <t>ed2c2dac2708a1f188001baee792a46d</t>
+  </si>
+  <si>
+    <t>d89de7674c89ef57c67a406610bb6f61</t>
+  </si>
+  <si>
+    <t>08abd4dcc3b2fde8ba16640963185383</t>
+  </si>
+  <si>
+    <t>2d6ce2c45d5e84c156dbcfec6fb8ea6f</t>
+  </si>
+  <si>
+    <t>763bef8c595431bb2a02857d6ae9e4a3</t>
+  </si>
+  <si>
+    <t>7ccb2857b7a451a97213a09f8ec63178</t>
+  </si>
+  <si>
+    <t>405a524913de4d7fdb55eaa641027133</t>
+  </si>
+  <si>
+    <t>6d166023439e3affdacb098c4ac9396d</t>
+  </si>
+  <si>
+    <t>c92d2b317a632e8f5b7a61945f6b852c</t>
+  </si>
+  <si>
+    <t>b5878f0a4d04e96f4af12db2d958519c</t>
+  </si>
+  <si>
+    <t>8d2836f1ecc295bb00300ab6ae99d316</t>
+  </si>
+  <si>
+    <t>b6185b1736094bcede741f973ce66f0f</t>
+  </si>
+  <si>
+    <t>8dc7253238d5a9d7879b0222d8e59401</t>
+  </si>
+  <si>
+    <t>5cefc3f66798260047cd44a301c880f5</t>
+  </si>
+  <si>
+    <t>826ecb9ac0a9b141782331db4ce9f258</t>
+  </si>
+  <si>
+    <t>452f003ea1a514a66dfa86707af2b696</t>
+  </si>
+  <si>
+    <t>dc1d843126fb2858482f642afc5558a4</t>
+  </si>
+  <si>
+    <t>76fea5b9b8ff194e240ac19647f789fc</t>
+  </si>
+  <si>
+    <t>61d915fd92d4734b7b80f1e1e4e54da8</t>
+  </si>
+  <si>
+    <t>745501751374105ff27fed6c775112e9</t>
+  </si>
+  <si>
+    <t>24561136579a5a7ffd3e0daa5baeaacb</t>
+  </si>
+  <si>
+    <t>97256ed7257ab939a7541ca5cced4efd</t>
+  </si>
+  <si>
+    <t>fa1b4549378c96201a6339e4aaf73ccc</t>
+  </si>
+  <si>
+    <t>064c58232d2fac2d794e86c659ea75c4</t>
+  </si>
+  <si>
+    <t>56cc99f9c86e9f5764acfd0dda64b5c9</t>
+  </si>
+  <si>
+    <t>b92aadb727bd85004650550f21d1a9f3</t>
+  </si>
+  <si>
+    <t>2c8de8694d191d78900a667b5fa42646</t>
+  </si>
+  <si>
+    <t>ee8179c1acd8111a6f5a6bbebf64c31d</t>
+  </si>
+  <si>
+    <t>b3a941c5d7f3577562f0dd2a74d24122</t>
+  </si>
+  <si>
+    <t>73ddfb946d6b699ef6e997fe0d02032f</t>
+  </si>
+  <si>
+    <t>c505cf09351313d99526ac54f626ac8c</t>
+  </si>
+  <si>
+    <t>ad6e1e3357549a7c7e8fa3a88c3a8979</t>
+  </si>
+  <si>
+    <t>fc2673646f837d3b119139db99fddaee</t>
+  </si>
+  <si>
+    <t>cdbfa4dc080441ef5589049fd004b6f4</t>
+  </si>
+  <si>
+    <t>90c28cd85bc977dfe6e81aec765508cd</t>
+  </si>
+  <si>
+    <t>61a4577fc917c65e6b64393ca69672ce</t>
+  </si>
+  <si>
+    <t>df3304a0fe71306fc3d273ff39329d5d</t>
+  </si>
+  <si>
+    <t>8d673eb2012977fe9312453d3174c25c</t>
+  </si>
+  <si>
+    <t>ab891f46e4b6ec44461dd803cebc9eba</t>
+  </si>
+  <si>
+    <t>695695e3c5161fbf8c134ba7a6534ff7</t>
+  </si>
+  <si>
+    <t>097374d79a2a62621df048861e786bd9</t>
+  </si>
+  <si>
+    <t>5005a62dec2c70d80ccf29fac1a7bbdd</t>
+  </si>
+  <si>
+    <t>a071d6591316ae923f8d66267b88726e</t>
+  </si>
+  <si>
+    <t>bbce4d51db0daf019dd3c2a3b1d1b38c</t>
+  </si>
+  <si>
+    <t>1a279c3f756f66282ce47efc79a80656</t>
+  </si>
+  <si>
+    <t>a19b1b3681376a0b837c0a462ba91557</t>
+  </si>
+  <si>
+    <t>008321dcb79297432b656bbd7c43549d</t>
+  </si>
+  <si>
+    <t>d7d44609bdca8b8cc5d875e6b3e51343</t>
+  </si>
+  <si>
+    <t>171ba565fb2dd575a703a3edafdce65a</t>
+  </si>
+  <si>
+    <t>3cc23e593a814df94efdd4978ed804a9</t>
+  </si>
+  <si>
+    <t>cca6f3e438788c840045ed912893bca7</t>
+  </si>
+  <si>
+    <t>10e4f10eaae08763684bc93226449920</t>
+  </si>
+  <si>
+    <t>cfc51ea4b483b1148409a2be8da279d0</t>
+  </si>
+  <si>
+    <t>bf41b8a077ac8208f579e617b0639096</t>
+  </si>
+  <si>
+    <t>bd1c19c137b42a3493544f223fa8ded7</t>
+  </si>
+  <si>
+    <t>69ffbad3a71ff71bc9fe0ed56c2d4ebb</t>
+  </si>
+  <si>
+    <t>4e7a5b95a378f97b6d4aa756e950a4c3</t>
+  </si>
+  <si>
+    <t>c939f7fad8fcfcb61abf0152f37ef938</t>
+  </si>
+  <si>
+    <t>42190812d57a3d5dbb6f245b9d5d2e94</t>
+  </si>
+  <si>
+    <t>e8769c9cbb860a954f9a342ab40ff688</t>
+  </si>
+  <si>
+    <t>4084c01fe70dccde04ec83c62a1cf63a</t>
+  </si>
+  <si>
+    <t>5527eb52c3c513116df0cd0d2bfe0644</t>
+  </si>
+  <si>
+    <t>0ebf246567fe1130b3beb260a31f0601</t>
+  </si>
+  <si>
+    <t>c7cbbefe5fa1d7d0fa8a46b13ed12d95</t>
+  </si>
+  <si>
+    <t>ed18df1f039910c02623ebe87eea86fd</t>
+  </si>
+  <si>
+    <t>c497397545dde34beb2deb418ccfbab4</t>
+  </si>
+  <si>
+    <t>a9d421b2f4678763b22fb2a13e2c921e</t>
+  </si>
+  <si>
+    <t>9a2bc14ca008316482448d2b51e786c5</t>
+  </si>
+  <si>
+    <t>6b282cc3d79bf6df7b67fa3879d2a28c</t>
+  </si>
+  <si>
+    <t>8c5de538049e3e76b1b2bc896dd862c6</t>
+  </si>
+  <si>
+    <t>a05b12e631a7c6dae16f3f86ab29cb8d</t>
+  </si>
+  <si>
+    <t>3f75dceb36e20b689aea1c81851974e3</t>
+  </si>
+  <si>
+    <t>4089fa618bd9673ca9e7f6a45a558702</t>
+  </si>
+  <si>
+    <t>4f0937aec2d26b514c9ce0842db0ce0d</t>
+  </si>
+  <si>
+    <t>1f38d906f50a0ec10501b554269bf861</t>
+  </si>
+  <si>
+    <t>af7f4fd625bfff6a41d576e56d674160</t>
+  </si>
+  <si>
+    <t>0b17eaf31c04df8d5c7a43ea3797d70a</t>
+  </si>
+  <si>
+    <t>84fdd26e0e963e0a2d84db13496eba0e</t>
+  </si>
+  <si>
+    <t>fc8a6e804098aafc956e083765ea311d</t>
+  </si>
+  <si>
+    <t>297a5d92e9e78b3d188d486035b69dee</t>
+  </si>
+  <si>
+    <t>85fe54264773887e7b91224dd6e34f7e</t>
+  </si>
+  <si>
+    <t>c714d502628f895d384db90cd4c1f130</t>
+  </si>
+  <si>
+    <t>1089927bec096158f43cd57f8a1acb41</t>
+  </si>
+  <si>
+    <t>291d5d0231c26d5dc5f181cc4396ac15</t>
+  </si>
+  <si>
+    <t>937a05e194fb7305ce1400174c656e80</t>
+  </si>
+  <si>
+    <t>7415c73bac1d6ee2db2b66dca6efa53e</t>
+  </si>
+  <si>
+    <t>5a11fa4406bdf139e953c64916a6c3a4</t>
+  </si>
+  <si>
+    <t>e239f30dffc032962ec9abe860b23378</t>
+  </si>
+  <si>
+    <t>4d8d1094cc21807236803bc7c6f74066</t>
+  </si>
+  <si>
+    <t>c676659571d10b928b8994e76099b5a6</t>
+  </si>
+  <si>
+    <t>67f59596f0aff62c26db6f7435688a2e</t>
+  </si>
+  <si>
+    <t>34f8480cb0627b5896e092113d8666d2</t>
+  </si>
+  <si>
+    <t>e35330d4ce04991d98e0354f839302fb</t>
+  </si>
+  <si>
+    <t>e0032ccbd80d6b0f0f7496081bcb4ab6</t>
+  </si>
+  <si>
+    <t>a06a63fea7c8d00086e4620eca0e7845</t>
+  </si>
+  <si>
+    <t>c8535de6583de27a9626c98792edbf23</t>
+  </si>
+  <si>
+    <t>64c20fd71504f0eb35c6a3bd4a908868</t>
+  </si>
+  <si>
+    <t>934826954a43a20d2e8feb9d59cb4343</t>
+  </si>
+  <si>
+    <t>93e06f791f5c96becfd7561eb980f8a7</t>
+  </si>
+  <si>
+    <t>4a3a493d0fd85ab7b361cf67b83bd0e2</t>
+  </si>
+  <si>
+    <t>5f8d07f9a6c3d7286dcc5c01787aff90</t>
+  </si>
+  <si>
+    <t>e733cb1a7eec61f3e163ecafdd457478</t>
+  </si>
+  <si>
+    <t>1f29413648bd0ed9b7dc959c60c817c6</t>
+  </si>
+  <si>
+    <t>e80e0bb39f3add9498fecf792ace4324</t>
+  </si>
+  <si>
+    <t>c5d1e04ff8061889798e47a223b28d1d</t>
+  </si>
+  <si>
+    <t>a82c2b648008f4eb6aef7beb86b3dd9f</t>
+  </si>
+  <si>
+    <t>f6aaf72da215efebaea7ceed2f5eed35</t>
+  </si>
+  <si>
+    <t>3d3d2dc5b2bc325f9ff979c8dc618fac</t>
+  </si>
+  <si>
+    <t>8db26cd542a6fb877a5dee66382856d7</t>
+  </si>
+  <si>
+    <t>1bb0b93541bb9cd0f37abebee2e88bf7</t>
+  </si>
+  <si>
+    <t>6edf27f89ec812c68cde9a78f79e011b</t>
+  </si>
+  <si>
+    <t>918e55e0f2eb50505e3987591d3fd7cf</t>
+  </si>
+  <si>
+    <t>d33843624ef68b026025d22b07c1af3e</t>
+  </si>
+  <si>
+    <t>73423e191108da7d2b9c79571a764d42</t>
+  </si>
+  <si>
+    <t>15d58920eda653bcbe5876621ee3b9b5</t>
+  </si>
+  <si>
+    <t>95f9476428e30215821f3f9e9708e9d1</t>
+  </si>
+  <si>
+    <t>d893e954601bf25e40cb87f354da023d</t>
+  </si>
+  <si>
+    <t>8c6cc09feb4071aba3b3b55736d5b3ff</t>
+  </si>
+  <si>
+    <t>8d833f1f37eb02b698636b80c514f37e</t>
+  </si>
+  <si>
+    <t>791acb0e11fdfb5e32aaa8c76ec09fe3</t>
+  </si>
+  <si>
+    <t>21a0f2c9bc3cd3efe67fc934f938fd5e</t>
+  </si>
+  <si>
+    <t>f92dd93a07882bfb48196d25ac3d6a4e</t>
+  </si>
+  <si>
+    <t>5fa9add6ec0f167d92cb005f4b98e3b3</t>
+  </si>
+  <si>
+    <t>ceb9f75414f0ead167c251a83a16857f</t>
+  </si>
+  <si>
+    <t>3f01890e4e697ac566557cc3a1e92b79</t>
+  </si>
+  <si>
+    <t>5f82643bd70f0afae52ef34497697c05</t>
+  </si>
+  <si>
+    <t>e9df9211a871f238888efbe4e452cef2</t>
+  </si>
+  <si>
+    <t>cba9e9da46f162f7996cce0efb29f331</t>
+  </si>
+  <si>
+    <t>2554653b6be0ea25f98a8ace486e972a</t>
+  </si>
+  <si>
+    <t>cbfb913515cf1c61a066001e52d97531</t>
+  </si>
+  <si>
+    <t>2fc7d803cb85c64088794afcba521007</t>
+  </si>
+  <si>
+    <t>919cde1729de098a996013e4ba7626d8</t>
+  </si>
+  <si>
+    <t>cf3ec81c7801b10251d9dfb1d63ac0ca</t>
+  </si>
+  <si>
+    <t>43303212b30cf304efd9407d9aa9c8cb</t>
+  </si>
+  <si>
+    <t>a185b566260ca9af77002bd8b813d916</t>
+  </si>
+  <si>
+    <t>50fd67e363b514e259aa0dc212c6b80d</t>
+  </si>
+  <si>
+    <t>1a656cf9e774cba6d95a8ad2f5ea4f95</t>
+  </si>
+  <si>
+    <t>e6134d03d4c46910f423518e12bc34ef</t>
+  </si>
+  <si>
+    <t>cb04748d95aad5c228ff947f80d14cfc</t>
+  </si>
+  <si>
+    <t>4caec2fa061ea8bc64a7947d36ae74ff</t>
+  </si>
+  <si>
+    <t>335ab3cbc78309852e5ede2f12d62689</t>
+  </si>
+  <si>
+    <t>6571247e49679d78f83e588001a4e3be</t>
+  </si>
+  <si>
+    <t>9bf3c19113ac3b3a75c3b078a9c5ab15</t>
+  </si>
+  <si>
+    <t>1d6a1a626280a7e12fe4cf9303051410</t>
+  </si>
+  <si>
+    <t>ea4c091e8a95704e66456f63fcd0822e</t>
+  </si>
+  <si>
+    <t>bb7121da923ee0181155892c109962d4</t>
+  </si>
+  <si>
+    <t>88fde9f62acdfd056fe9673bc31ef671</t>
+  </si>
+  <si>
+    <t>1de7f4c63eddada747ae79c6e17daa56</t>
+  </si>
+  <si>
+    <t>bb0128347a5879f5dd85ce9041fa42c3</t>
+  </si>
+  <si>
+    <t>5ab8f028107b8a7cb6b771098c2a0d16</t>
+  </si>
+  <si>
+    <t>f2f36f6c90eff56079814c5db5979efa</t>
+  </si>
+  <si>
+    <t>3a310883d20b11e68025d8326a5da5c0</t>
+  </si>
+  <si>
+    <t>6dc218e724cf7c72b5c5f1bece9d64a4</t>
+  </si>
+  <si>
+    <t>949172fed6c0ee3a74741259864e4178</t>
+  </si>
+  <si>
+    <t>aa21b5f3efbab69a5487adcd0d04ec52</t>
+  </si>
+  <si>
+    <t>911f8173f4a762535eb84a9b9b4a963b</t>
+  </si>
+  <si>
+    <t>115b67dd57fcdc81e1b8aa3b5068c6ea</t>
+  </si>
+  <si>
+    <t>620c185f8757ae3607ea6cd9eeb833ca</t>
+  </si>
+  <si>
+    <t>ffc5104cc773ea5ce0d26edd3e736ebd</t>
+  </si>
+  <si>
+    <t>1ae1a2e8804ca7ee9cc48182885dba7c</t>
+  </si>
+  <si>
+    <t>8b4bdb81ab79def388db4d84b555d38e</t>
+  </si>
+  <si>
+    <t>cb518cf04cf7b11c5fb65278e76870bc</t>
+  </si>
+  <si>
+    <t>720fc111589b6968933e738ded2e249c</t>
+  </si>
+  <si>
+    <t>00320ecddaa46297accbb1085628ce07</t>
+  </si>
+  <si>
+    <t>714188fad205b8ea582a0e87ca37965a</t>
+  </si>
+  <si>
+    <t>a052970d215cc07eff9e577ffa2b8ea3</t>
+  </si>
+  <si>
+    <t>b8ae1b47359deb40c3aaf8b8238fe079</t>
+  </si>
+  <si>
+    <t>a41b5e10bd7d81e03c481a41bb15f8df</t>
+  </si>
+  <si>
+    <t>7669aaba26c6527fe83cd7e1df939574</t>
+  </si>
+  <si>
+    <t>44db22d14e2c23d094f1aed4c3244dc3</t>
+  </si>
+  <si>
+    <t>7d437436750cb5ca4f7b630bfcf4fd2f</t>
+  </si>
+  <si>
+    <t>10e5c1351ed1c0fe120b6fa9cfd1801a</t>
+  </si>
+  <si>
+    <t>59fdaf18354b17162f36bdd058b31ed7</t>
+  </si>
+  <si>
+    <t>26c83983fd49c80adbe2ff275e516a3a</t>
+  </si>
+  <si>
+    <t>3afc69b5aced41add7e95ff31f7755fc</t>
+  </si>
+  <si>
+    <t>ef6afc76cfd5e3c94a6e6ff551f1f2da</t>
+  </si>
+  <si>
+    <t>aa49e79fa54392e8ed982f656b0d37c5</t>
+  </si>
+  <si>
+    <t>7247c0fe7290dbd8fc7fe707ba3240f5</t>
+  </si>
+  <si>
+    <t>c2f92d95d374cfcc6c881ccc2642d7f9</t>
+  </si>
+  <si>
+    <t>5ed031e1f5ac73161410a13f022d6269</t>
+  </si>
+  <si>
+    <t>0d48da9c18a2caac1ec4e0232068285f</t>
+  </si>
+  <si>
+    <t>4a39f200b9a44347ea6fa588f6749535</t>
+  </si>
+  <si>
+    <t>0ed1e7b45b6f4b32707163a9c23c9641</t>
+  </si>
+  <si>
+    <t>2917570ed454580eb9b83ac5b878a90a</t>
+  </si>
+  <si>
+    <t>90b91ab05b7a0827015dfd7b73c71d59</t>
+  </si>
+  <si>
+    <t>b3cd649c8bbcba28ad3c0e007deb6cd1</t>
+  </si>
+  <si>
+    <t>9451d38d26f68ab2a8fdf28c62590978</t>
+  </si>
+  <si>
+    <t>6f5dc052250de8a99f562d5ecb5eb4cb</t>
+  </si>
+  <si>
+    <t>f786a44f1cbfdd2f0b1c9504254c9f9a</t>
+  </si>
+  <si>
+    <t>6c1809de9c93cffdadef275b5c6c4398</t>
+  </si>
+  <si>
+    <t>351c92910d9bfa0ee7dc8997e0390e1e</t>
+  </si>
+  <si>
+    <t>29dff176ed4537e097700d5a064b1d6e</t>
+  </si>
+  <si>
+    <t>3837777e3c58f104a22c2886cbee7572</t>
+  </si>
+  <si>
+    <t>c2ffba1b3fb4e65fba6c404e8774caf1</t>
+  </si>
+  <si>
+    <t>c9cb794f2cb89bd810e76f359a631f50</t>
+  </si>
+  <si>
+    <t>06970abd080b12b4ac6f0447cdec3e50</t>
+  </si>
+  <si>
+    <t>0266a4f37868faa0e64dd632d1b009c9</t>
+  </si>
+  <si>
+    <t>6944ada1eb0318a47392d4b228f9e5fc</t>
+  </si>
+  <si>
+    <t>ea6c32e244765e3f3920c7c3917f1f31</t>
+  </si>
+  <si>
+    <t>8b3bbcf294a74ebe50452ac970e200c9</t>
+  </si>
+  <si>
+    <t>fc4336bc1fb88e16be04c5779a9daf2d</t>
+  </si>
+  <si>
+    <t>f3f73fb0b535268143dfb9d0f59aac43</t>
+  </si>
+  <si>
+    <t>d3ceac34e4a7989cfa186173c138b3e2</t>
+  </si>
+  <si>
+    <t>4f90d7520a0b412bfdd2227b771a2048</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -4416,16 +5536,10 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="3">
@@ -4468,17 +5582,17 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4747,21 +5861,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F373"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CW373"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" max="2" min="2" width="8.83203125"/>
-    <col customWidth="true" max="3" min="3" width="18.6640625"/>
-    <col customWidth="true" max="7" min="7" width="48.6640625"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:101">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +5892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:101">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4795,11 +5909,11 @@
         <v>10</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="CW2" t="str">
-        <v>b49a06d59d0ac37f521ee5ccc9c05728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="CW2" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4815,11 +5929,11 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="CW3" t="str">
-        <v>2f1070bfbed9377b846839a71bb495ac</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="CW3" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4835,11 +5949,11 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="CW4" t="str">
-        <v>3f35369913f6aae6bebe2bfa44f21c24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="CW4" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -4855,11 +5969,11 @@
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" t="str">
-        <v>24900e020b2af31a7e471066613c7097</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="CW5" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4875,11 +5989,11 @@
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CW6" t="str">
-        <v>c15a5d047c7b818bb463101404843085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="CW6" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -4898,11 +6012,11 @@
       <c r="F7" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="CW7" t="str">
-        <v>34955cbcd66cc2fc987ffb152f06da43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="CW7" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -4918,11 +6032,11 @@
       <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="CW8" t="str">
-        <v>dd2b84c85235265ce7a48df271cb764d</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="CW8" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -4938,11 +6052,11 @@
       <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CW9" t="str">
-        <v>8e11f9a21b234d68d8e6955dc74b1e87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="CW9" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:101">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -4958,11 +6072,11 @@
       <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="CW10" t="str">
-        <v>f557b9e25e79e8f65fe2054b9e693e5a</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="CW10" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:101">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -4978,11 +6092,11 @@
       <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="CW11" t="str">
-        <v>e7d80e7c1b0b4be2f8907cbd1c67b258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="CW11" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:101">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -4998,11 +6112,11 @@
       <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="CW12" t="str">
-        <v>a4a7a326c43499002a1b0df2c8244e3b</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="CW12" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:101">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -5018,11 +6132,11 @@
       <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="CW13" t="str">
-        <v>a37c1c94c730aa1bca182d74a3651551</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="CW13" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:101">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -5038,11 +6152,11 @@
       <c r="E14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CW14" t="str">
-        <v>2b261f7f5c138cf259ab1bf2554dd88f</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="CW14" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:101">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -5058,11 +6172,11 @@
       <c r="E15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="CW15" t="str">
-        <v>3457bde3e481a35ff55d925d2adf0439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="CW15" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:101">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -5078,11 +6192,11 @@
       <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="CW16" t="str">
-        <v>b2976ca118d5952b44c17afaebb0367d</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="CW16" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:101">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -5098,11 +6212,11 @@
       <c r="E17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="CW17" t="str">
-        <v>63179f597865ad7794f5def4b3b49c44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="CW17" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:101">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -5118,11 +6232,11 @@
       <c r="E18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="CW18" t="str">
-        <v>ee30dca164e1183cef1c20d29dc3baac</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="CW18" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:101">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -5138,11 +6252,11 @@
       <c r="E19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CW19" t="str">
-        <v>a1d183bc1013ead2337d2fb2ae0f13cd</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="CW19" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:101">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -5158,11 +6272,11 @@
       <c r="E20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CW20" t="str">
-        <v>7d7e4c088377e364d0bbee16c7ce5218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="CW20" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:101">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -5178,11 +6292,11 @@
       <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CW21" t="str">
-        <v>0e7d1ed89a2f87ca2f61e1700330e81e</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="CW21" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:101">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -5198,11 +6312,11 @@
       <c r="E22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CW22" t="str">
-        <v>0774367e80fedf18e278203ccc053a60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="CW22" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:101">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -5218,11 +6332,11 @@
       <c r="E23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CW23" t="str">
-        <v>63b16328a0864c51f03834cb83c25fb3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="CW23" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:101">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -5238,11 +6352,11 @@
       <c r="E24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CW24" t="str">
-        <v>ac8a7326677b6ee6dd958bc5d20c73fd</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="CW24" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:101">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -5258,11 +6372,11 @@
       <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CW25" t="str">
-        <v>f15cf1c6548ddd43721f8a6c744409b6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="CW25" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:101">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -5278,11 +6392,11 @@
       <c r="E26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="CW26" t="str">
-        <v>87a40eac75bbb00a7ed9c16aca797a27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="CW26" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:101">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -5298,11 +6412,11 @@
       <c r="E27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CW27" t="str">
-        <v>b457378a21b2e250c852807c64551824</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="CW27" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:101">
       <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
@@ -5318,11 +6432,11 @@
       <c r="E28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CW28" t="str">
-        <v>ae5e2b7b48b982b5beaf6152aeaa751d</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="CW28" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:101">
       <c r="A29" s="1" t="s">
         <v>115</v>
       </c>
@@ -5338,11 +6452,11 @@
       <c r="E29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="CW29" t="str">
-        <v>2db061dff788314af94e892199ea13c9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="CW29" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:101">
       <c r="A30" s="1" t="s">
         <v>119</v>
       </c>
@@ -5358,11 +6472,11 @@
       <c r="E30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="CW30" t="str">
-        <v>422c6c030dfcbc7fc69c55d87d93282e</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="CW30" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:101">
       <c r="A31" s="1" t="s">
         <v>123</v>
       </c>
@@ -5378,11 +6492,11 @@
       <c r="E31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CW31" t="str">
-        <v>ff6fe2b507264198c25e2428897856ba</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="CW31" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:101">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -5398,11 +6512,11 @@
       <c r="E32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="CW32" t="str">
-        <v>fb9e4f49e147ebdf2cada66333896023</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="CW32" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:101">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
@@ -5418,11 +6532,11 @@
       <c r="E33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="CW33" t="str">
-        <v>36fef6a1f4be0ebf5550ad1164bdb19c</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="CW33" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:101">
       <c r="A34" s="1" t="s">
         <v>135</v>
       </c>
@@ -5438,11 +6552,11 @@
       <c r="E34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="CW34" t="str">
-        <v>bc6ea7a64a984eb11911c05bcdaa93a9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="CW34" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:101">
       <c r="A35" s="1" t="s">
         <v>139</v>
       </c>
@@ -5458,11 +6572,11 @@
       <c r="E35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="CW35" t="str">
-        <v>a63122eefbb0525cb18d59e304e85c21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="CW35" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:101">
       <c r="A36" s="1" t="s">
         <v>143</v>
       </c>
@@ -5478,11 +6592,11 @@
       <c r="E36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="CW36" t="str">
-        <v>7d7748dc74c159a67a601e7c2ee4e42d</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="CW36" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:101">
       <c r="A37" s="1" t="s">
         <v>147</v>
       </c>
@@ -5498,11 +6612,11 @@
       <c r="E37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="CW37" t="str">
-        <v>d20a3456a9da7516f027644805509920</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="CW37" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:101">
       <c r="A38" s="1" t="s">
         <v>151</v>
       </c>
@@ -5518,11 +6632,11 @@
       <c r="E38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CW38" t="str">
-        <v>774edce732b844c73dc244eefc4e9470</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="CW38" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:101">
       <c r="A39" s="1" t="s">
         <v>156</v>
       </c>
@@ -5538,11 +6652,11 @@
       <c r="E39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CW39" t="str">
-        <v>4e6f5ccc5951d1fd3d9fe2ce14270899</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="CW39" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:101">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -5558,11 +6672,11 @@
       <c r="E40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CW40" t="str">
-        <v>199dc61347f8e2b9c817d7852bb9248e</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="CW40" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:101">
       <c r="A41" s="1" t="s">
         <v>164</v>
       </c>
@@ -5578,11 +6692,11 @@
       <c r="E41" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="CW41" t="str">
-        <v>f9db9a6d7357af2f1c365ce0e42f0d77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="CW41" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:101">
       <c r="A42" s="1" t="s">
         <v>168</v>
       </c>
@@ -5598,11 +6712,11 @@
       <c r="E42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CW42" t="str">
-        <v>7c336307c20edb97afe688c3f212ae55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="CW42" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:101">
       <c r="A43" s="1" t="s">
         <v>172</v>
       </c>
@@ -5618,11 +6732,11 @@
       <c r="E43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="CW43" t="str">
-        <v>c47eab49a93d3e3ce98be1d240c18e85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="CW43" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:101">
       <c r="A44" s="1" t="s">
         <v>176</v>
       </c>
@@ -5638,11 +6752,11 @@
       <c r="E44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CW44" t="str">
-        <v>519c49cc090f587ea166765043f7ddc4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="CW44" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:101">
       <c r="A45" s="1" t="s">
         <v>180</v>
       </c>
@@ -5658,11 +6772,11 @@
       <c r="E45" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CW45" t="str">
-        <v>7fb6d36e65bc16199f9dd57e60bcd8d0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="CW45" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:101">
       <c r="A46" s="1" t="s">
         <v>184</v>
       </c>
@@ -5678,11 +6792,11 @@
       <c r="E46" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CW46" t="str">
-        <v>a5d71dc212a475d675e3e5595b0929ac</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="CW46" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:101">
       <c r="A47" s="1" t="s">
         <v>188</v>
       </c>
@@ -5698,11 +6812,11 @@
       <c r="E47" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CW47" t="str">
-        <v>619a27025032e73053487d30911c3b9c</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="CW47" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:101">
       <c r="A48" s="1" t="s">
         <v>192</v>
       </c>
@@ -5718,11 +6832,11 @@
       <c r="E48" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CW48" t="str">
-        <v>14823b0d8ae2694756ffb3d776d4122c</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="CW48" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:101">
       <c r="A49" s="1" t="s">
         <v>196</v>
       </c>
@@ -5738,11 +6852,11 @@
       <c r="E49" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CW49" t="str">
-        <v>bcc0b3dd8fabe5d9514903aa93b37397</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="CW49" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:101">
       <c r="A50" s="1" t="s">
         <v>200</v>
       </c>
@@ -5758,11 +6872,11 @@
       <c r="E50" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="CW50" t="str">
-        <v>df72d53492a2b0b713628d0011fa6d08</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="CW50" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:101">
       <c r="A51" s="1" t="s">
         <v>204</v>
       </c>
@@ -5778,11 +6892,11 @@
       <c r="E51" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="CW51" t="str">
-        <v>6378bc2b195cfbf6d4d455c02797388f</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="CW51" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="52" spans="1:101">
       <c r="A52" s="1" t="s">
         <v>208</v>
       </c>
@@ -5798,11 +6912,11 @@
       <c r="E52" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="CW52" t="str">
-        <v>68640af917a74fdba47acbf0bfee9887</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="CW52" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="53" spans="1:101">
       <c r="A53" s="1" t="s">
         <v>213</v>
       </c>
@@ -5818,11 +6932,11 @@
       <c r="E53" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="CW53" t="str">
-        <v>a017d674c5d13aa7c646a9ef921579b2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="CW53" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="54" spans="1:101">
       <c r="A54" s="1" t="s">
         <v>217</v>
       </c>
@@ -5838,11 +6952,11 @@
       <c r="E54" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="CW54" t="str">
-        <v>16c5eacd83b5855bd0bbb9b907af9adf</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="CW54" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="55" spans="1:101">
       <c r="A55" s="1" t="s">
         <v>221</v>
       </c>
@@ -5858,11 +6972,11 @@
       <c r="E55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="CW55" t="str">
-        <v>ad8e76d732bc292885540e839d3fe3ff</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="CW55" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="56" spans="1:101">
       <c r="A56" s="1" t="s">
         <v>225</v>
       </c>
@@ -5878,11 +6992,11 @@
       <c r="E56" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="CW56" t="str">
-        <v>676ea516423cd4535c0ddb20195f35c5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="CW56" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:101">
       <c r="A57" s="1" t="s">
         <v>229</v>
       </c>
@@ -5898,11 +7012,11 @@
       <c r="E57" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="CW57" t="str">
-        <v>c53456321f63dfd91e6e6574768e83c7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="CW57" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:101">
       <c r="A58" s="1" t="s">
         <v>233</v>
       </c>
@@ -5918,11 +7032,11 @@
       <c r="E58" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CW58" t="str">
-        <v>be9b65c584ab103d9b3d0bd48bc86df6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="CW58" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:101">
       <c r="A59" s="1" t="s">
         <v>237</v>
       </c>
@@ -5938,11 +7052,11 @@
       <c r="E59" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="CW59" t="str">
-        <v>b069c3171fa3e66188e224c05c9e6e53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="CW59" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="60" spans="1:101">
       <c r="A60" s="1" t="s">
         <v>241</v>
       </c>
@@ -5958,11 +7072,11 @@
       <c r="E60" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="CW60" t="str">
-        <v>a48d714bf7fb6aa74515f00102039fb2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="CW60" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="61" spans="1:101">
       <c r="A61" s="1" t="s">
         <v>245</v>
       </c>
@@ -5978,11 +7092,11 @@
       <c r="E61" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="CW61" t="str">
-        <v>ec427286d17383cfb28f7acf17915f58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="CW61" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="62" spans="1:101">
       <c r="A62" s="1" t="s">
         <v>250</v>
       </c>
@@ -5998,11 +7112,11 @@
       <c r="E62" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CW62" t="str">
-        <v>6d98f670823c8b6f733026b9e6aca1ca</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="CW62" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="63" spans="1:101">
       <c r="A63" s="1" t="s">
         <v>254</v>
       </c>
@@ -6018,11 +7132,11 @@
       <c r="E63" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="CW63" t="str">
-        <v>12b8d057b1963c6f6f48f18063610fb5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="CW63" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:101">
       <c r="A64" s="1" t="s">
         <v>258</v>
       </c>
@@ -6038,11 +7152,11 @@
       <c r="E64" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CW64" t="str">
-        <v>6e4fa326c33673e4be4d58c47c5c7d65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="CW64" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="65" spans="1:101">
       <c r="A65" s="1" t="s">
         <v>262</v>
       </c>
@@ -6058,11 +7172,11 @@
       <c r="E65" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="CW65" t="str">
-        <v>37e9696a43dc26e7f9989f25afde9d5f</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="CW65" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:101">
       <c r="A66" s="1" t="s">
         <v>266</v>
       </c>
@@ -6078,11 +7192,11 @@
       <c r="E66" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CW66" t="str">
-        <v>b6f893c3b664b5f31c34ef2d744be875</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="CW66" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="67" spans="1:101">
       <c r="A67" s="1" t="s">
         <v>270</v>
       </c>
@@ -6098,11 +7212,11 @@
       <c r="E67" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CW67" t="str">
-        <v>19a83c0b89f82e7cb9e3a49ceb492f9f</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="CW67" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="68" spans="1:101">
       <c r="A68" s="1" t="s">
         <v>274</v>
       </c>
@@ -6118,11 +7232,11 @@
       <c r="E68" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CW68" t="str">
-        <v>526cbd8fe07e07f76d9405406f4c5928</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="CW68" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="69" spans="1:101">
       <c r="A69" s="1" t="s">
         <v>278</v>
       </c>
@@ -6138,11 +7252,11 @@
       <c r="E69" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="CW69" t="str">
-        <v>bbb45b17b2e677253956b5d97d432523</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="CW69" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="70" spans="1:101">
       <c r="A70" s="1" t="s">
         <v>282</v>
       </c>
@@ -6158,11 +7272,11 @@
       <c r="E70" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="CW70" t="str">
-        <v>37ce330a579c892da2e1c47574fa5480</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="CW70" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="71" spans="1:101">
       <c r="A71" s="1" t="s">
         <v>286</v>
       </c>
@@ -6176,11 +7290,11 @@
         <v>288</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="CW71" t="str">
-        <v>bc31a17ab5d86f17d94207f7dd33d6de</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="CW71" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="72" spans="1:101">
       <c r="A72" s="1" t="s">
         <v>289</v>
       </c>
@@ -6196,11 +7310,11 @@
       <c r="E72" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="CW72" t="str">
-        <v>2c83fa32795091c000188171f39f5056</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="CW72" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="73" spans="1:101">
       <c r="A73" s="1" t="s">
         <v>293</v>
       </c>
@@ -6214,11 +7328,11 @@
         <v>295</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="CW73" t="str">
-        <v>3da30a7035916072e1110eb5e81bc703</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="CW73" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="74" spans="1:101">
       <c r="A74" s="1" t="s">
         <v>296</v>
       </c>
@@ -6234,11 +7348,11 @@
       <c r="E74" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="CW74" t="str">
-        <v>00af0e5ede0333104424d2eec7534086</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="CW74" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="75" spans="1:101">
       <c r="A75" s="1" t="s">
         <v>300</v>
       </c>
@@ -6254,11 +7368,11 @@
       <c r="E75" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="CW75" t="str">
-        <v>48d8d4c717a64ee69ed1b5566270a250</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="CW75" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:101">
       <c r="A76" s="1" t="s">
         <v>305</v>
       </c>
@@ -6274,11 +7388,11 @@
       <c r="E76" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="CW76" t="str">
-        <v>bd25c8eda14df0cbe12f605219330249</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="CW76" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="77" spans="1:101">
       <c r="A77" s="1" t="s">
         <v>309</v>
       </c>
@@ -6294,11 +7408,11 @@
       <c r="E77" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="CW77" t="str">
-        <v>b13d8afe7dc73c187bdcfe4841dfd0f8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="CW77" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="78" spans="1:101">
       <c r="A78" s="1" t="s">
         <v>313</v>
       </c>
@@ -6314,11 +7428,11 @@
       <c r="E78" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="CW78" t="str">
-        <v>0a58620cced4a62893bb414e557b56b2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="CW78" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="79" spans="1:101">
       <c r="A79" s="1" t="s">
         <v>317</v>
       </c>
@@ -6334,11 +7448,11 @@
       <c r="E79" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="CW79" t="str">
-        <v>30cd5f0f3f638129f5d8f4e8584f2c4e</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="CW79" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="80" spans="1:101">
       <c r="A80" s="1" t="s">
         <v>321</v>
       </c>
@@ -6354,11 +7468,11 @@
       <c r="E80" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="CW80" t="str">
-        <v>5973e0719e40d429082a6feed5861c90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="CW80" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="81" spans="1:101">
       <c r="A81" s="1" t="s">
         <v>325</v>
       </c>
@@ -6374,11 +7488,11 @@
       <c r="E81" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="CW81" t="str">
-        <v>7ac08ff1fe5613d0adb05f8ff9cfb863</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="CW81" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="82" spans="1:101">
       <c r="A82" s="1" t="s">
         <v>329</v>
       </c>
@@ -6394,11 +7508,11 @@
       <c r="E82" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="CW82" t="str">
-        <v>fbb77a373ff77d4cc8a8a2429348c570</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="CW82" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="83" spans="1:101">
       <c r="A83" s="1" t="s">
         <v>333</v>
       </c>
@@ -6414,11 +7528,11 @@
       <c r="E83" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="CW83" t="str">
-        <v>933700a73011a1c01a5239a38f446a9d</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="CW83" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="84" spans="1:101">
       <c r="A84" s="1" t="s">
         <v>337</v>
       </c>
@@ -6434,11 +7548,11 @@
       <c r="E84" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="CW84" t="str">
-        <v>df148eb3e39e02716eeeae67a723b7ce</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="CW84" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="85" spans="1:101">
       <c r="A85" s="1" t="s">
         <v>341</v>
       </c>
@@ -6454,11 +7568,11 @@
       <c r="E85" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="CW85" t="str">
-        <v>522840be2c74cba57e8b87529eb3dccc</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="CW85" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="86" spans="1:101">
       <c r="A86" s="1" t="s">
         <v>345</v>
       </c>
@@ -6474,11 +7588,11 @@
       <c r="E86" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="CW86" t="str">
-        <v>2f56fd9e5e98cd5f2319e78731c3eeb7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="CW86" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="87" spans="1:101">
       <c r="A87" s="1" t="s">
         <v>349</v>
       </c>
@@ -6494,11 +7608,11 @@
       <c r="E87" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="CW87" t="str">
-        <v>17bb402c39964e2192145f83d22419dc</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="CW87" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="88" spans="1:101">
       <c r="A88" s="1" t="s">
         <v>353</v>
       </c>
@@ -6514,11 +7628,11 @@
       <c r="E88" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="CW88" t="str">
-        <v>5296868125b00c13feb63d978f44f161</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="CW88" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="89" spans="1:101">
       <c r="A89" s="1" t="s">
         <v>358</v>
       </c>
@@ -6534,11 +7648,11 @@
       <c r="E89" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="CW89" t="str">
-        <v>74ac8ac3acd2d499c511069971b1a1e2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="CW89" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="90" spans="1:101">
       <c r="A90" s="1" t="s">
         <v>362</v>
       </c>
@@ -6554,11 +7668,11 @@
       <c r="E90" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="CW90" t="str">
-        <v>76f5f19e86fd793d5ebb19cd4e8d611a</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="CW90" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="91" spans="1:101">
       <c r="A91" s="1" t="s">
         <v>366</v>
       </c>
@@ -6574,11 +7688,11 @@
       <c r="E91" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="CW91" t="str">
-        <v>c6e6d6079c89bc68fa96789f13768535</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="CW91" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="92" spans="1:101">
       <c r="A92" s="1" t="s">
         <v>370</v>
       </c>
@@ -6594,11 +7708,11 @@
       <c r="E92" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="CW92" t="str">
-        <v>3eac43167d640dbe7dc5981932516429</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="CW92" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="93" spans="1:101">
       <c r="A93" s="1" t="s">
         <v>374</v>
       </c>
@@ -6614,11 +7728,11 @@
       <c r="E93" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="CW93" t="str">
-        <v>8d7b21797340ac6091eb8d1f45dd3959</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="CW93" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="94" spans="1:101">
       <c r="A94" s="1" t="s">
         <v>378</v>
       </c>
@@ -6634,11 +7748,11 @@
       <c r="E94" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="CW94" t="str">
-        <v>10b55e2bf718008e0fb9bf5141d4270c</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="CW94" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="95" spans="1:101">
       <c r="A95" s="1" t="s">
         <v>382</v>
       </c>
@@ -6654,11 +7768,11 @@
       <c r="E95" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="CW95" t="str">
-        <v>015d7ed03a5098e1735c2ef27a3a2dd5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="CW95" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:101">
       <c r="A96" s="1" t="s">
         <v>386</v>
       </c>
@@ -6674,11 +7788,11 @@
       <c r="E96" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="CW96" t="str">
-        <v>47780dc5cd9328d72224ca7127d12d04</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="CW96" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="97" spans="1:101">
       <c r="A97" s="1" t="s">
         <v>390</v>
       </c>
@@ -6694,11 +7808,11 @@
       <c r="E97" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="CW97" t="str">
-        <v>7b0700ced9c3a9ded220ff504f304d7d</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="CW97" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="98" spans="1:101">
       <c r="A98" s="1" t="s">
         <v>394</v>
       </c>
@@ -6714,11 +7828,11 @@
       <c r="E98" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="CW98" t="str">
-        <v>10c3fcf91bae99a7ee4998df63ce4682</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="CW98" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="99" spans="1:101">
       <c r="A99" s="1" t="s">
         <v>398</v>
       </c>
@@ -6734,11 +7848,11 @@
       <c r="E99" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="CW99" t="str">
-        <v>1a0fd3fc3a1fcc576babe58d2ae3b5ac</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="CW99" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="100" spans="1:101">
       <c r="A100" s="1" t="s">
         <v>403</v>
       </c>
@@ -6754,11 +7868,11 @@
       <c r="E100" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="CW100" t="str">
-        <v>b4a3bb2d546669b2cdf7cd983386c8e5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="CW100" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="101" spans="1:101">
       <c r="A101" s="1" t="s">
         <v>407</v>
       </c>
@@ -6774,11 +7888,11 @@
       <c r="E101" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="CW101" t="str">
-        <v>401b88721870e59be31aef8985d1e05b</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="CW101" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="102" spans="1:101">
       <c r="A102" s="1" t="s">
         <v>411</v>
       </c>
@@ -6794,11 +7908,11 @@
       <c r="E102" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="CW102" t="str">
-        <v>469bb3710aa4ecedc55b8bacf9a11a57</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="CW102" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="103" spans="1:101">
       <c r="A103" s="1" t="s">
         <v>415</v>
       </c>
@@ -6814,11 +7928,11 @@
       <c r="E103" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="CW103" t="str">
-        <v>363ff1c41f766a3345106844b340ea9d</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="CW103" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="104" spans="1:101">
       <c r="A104" s="1" t="s">
         <v>419</v>
       </c>
@@ -6834,11 +7948,11 @@
       <c r="E104" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="CW104" t="str">
-        <v>d6add6d5c44a416217abb575f5966d94</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="CW104" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="105" spans="1:101">
       <c r="A105" s="1" t="s">
         <v>423</v>
       </c>
@@ -6854,11 +7968,11 @@
       <c r="E105" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="CW105" t="str">
-        <v>2911140b2bf8b77662cb687fc636ad3c</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="CW105" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="106" spans="1:101">
       <c r="A106" s="1" t="s">
         <v>427</v>
       </c>
@@ -6874,11 +7988,11 @@
       <c r="E106" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="CW106" t="str">
-        <v>1b30f309080db203e30ba4967c73fb58</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="CW106" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="107" spans="1:101">
       <c r="A107" s="1" t="s">
         <v>431</v>
       </c>
@@ -6894,11 +8008,11 @@
       <c r="E107" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="CW107" t="str">
-        <v>cb3c6698850da586d57d572f15e56ceb</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="CW107" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="108" spans="1:101">
       <c r="A108" s="1" t="s">
         <v>435</v>
       </c>
@@ -6914,11 +8028,11 @@
       <c r="E108" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="CW108" t="str">
-        <v>6af0b655c49ee7fb015fa6129a1ea089</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="CW108" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="109" spans="1:101">
       <c r="A109" s="1" t="s">
         <v>439</v>
       </c>
@@ -6934,11 +8048,11 @@
       <c r="E109" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="CW109" t="str">
-        <v>ef4414df1bb01d1dd35925c25f37989a</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="CW109" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="110" spans="1:101">
       <c r="A110" s="1" t="s">
         <v>443</v>
       </c>
@@ -6954,11 +8068,11 @@
       <c r="E110" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="CW110" t="str">
-        <v>96085b693e2fc3581801d4c060d9c924</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="CW110" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="111" spans="1:101">
       <c r="A111" s="1" t="s">
         <v>447</v>
       </c>
@@ -6974,11 +8088,11 @@
       <c r="E111" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="CW111" t="str">
-        <v>3e7b65d5b48df818230ef23d0cf6963f</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="CW111" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="112" spans="1:101">
       <c r="A112" s="1" t="s">
         <v>451</v>
       </c>
@@ -6994,11 +8108,11 @@
       <c r="E112" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="CW112" t="str">
-        <v>2f65a554e6bdbd4d27fade07703d4252</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="CW112" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="113" spans="1:101">
       <c r="A113" s="1" t="s">
         <v>454</v>
       </c>
@@ -7014,11 +8128,11 @@
       <c r="E113" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="CW113" t="str">
-        <v>318407832f6df98281517e2dbba6e52d</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="CW113" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="114" spans="1:101">
       <c r="A114" s="1" t="s">
         <v>458</v>
       </c>
@@ -7034,11 +8148,11 @@
       <c r="E114" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="CW114" t="str">
-        <v>9984b06497122a3cebea303fc637878a</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="CW114" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="115" spans="1:101">
       <c r="A115" s="1" t="s">
         <v>462</v>
       </c>
@@ -7054,11 +8168,11 @@
       <c r="E115" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="CW115" t="str">
-        <v>1e7035566e722fc56a2f7146f84dc40b</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="CW115" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="116" spans="1:101">
       <c r="A116" s="1" t="s">
         <v>467</v>
       </c>
@@ -7074,11 +8188,11 @@
       <c r="E116" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="CW116" t="str">
-        <v>c114aeb7f1adb29b6c412c4fe93bcbb7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="CW116" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="117" spans="1:101">
       <c r="A117" s="1" t="s">
         <v>471</v>
       </c>
@@ -7094,11 +8208,11 @@
       <c r="E117" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="CW117" t="str">
-        <v>c46fdb3d40fb6b60c9148d89701a4737</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="CW117" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="118" spans="1:101">
       <c r="A118" s="1" t="s">
         <v>475</v>
       </c>
@@ -7114,11 +8228,11 @@
       <c r="E118" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="CW118" t="str">
-        <v>0445cae4e99d755fd197c048d70ed3b1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="CW118" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="119" spans="1:101">
       <c r="A119" s="1" t="s">
         <v>479</v>
       </c>
@@ -7134,11 +8248,11 @@
       <c r="E119" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="CW119" t="str">
-        <v>a2809b0731553d4c6bb176ca726a755c</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="CW119" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="120" spans="1:101">
       <c r="A120" s="1" t="s">
         <v>483</v>
       </c>
@@ -7154,11 +8268,11 @@
       <c r="E120" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="CW120" t="str">
-        <v>8175e27e61f057bc6f2481d9598de108</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="CW120" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="121" spans="1:101">
       <c r="A121" s="1" t="s">
         <v>487</v>
       </c>
@@ -7174,11 +8288,11 @@
       <c r="E121" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="CW121" t="str">
-        <v>e48de22805d56b1e229d0c2c064d245c</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="CW121" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="122" spans="1:101">
       <c r="A122" s="1" t="s">
         <v>491</v>
       </c>
@@ -7194,11 +8308,11 @@
       <c r="E122" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="CW122" t="str">
-        <v>c68565899a0f683b8cae8dd3761c3e48</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="CW122" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="123" spans="1:101">
       <c r="A123" s="1" t="s">
         <v>495</v>
       </c>
@@ -7214,11 +8328,11 @@
       <c r="E123" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="CW123" t="str">
-        <v>ff3e6d6b89d896756c293e0e9a5a6252</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="CW123" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="124" spans="1:101">
       <c r="A124" s="1" t="s">
         <v>499</v>
       </c>
@@ -7234,11 +8348,11 @@
       <c r="E124" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="CW124" t="str">
-        <v>62f20a8df655cc39fed3d6c817945be4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="CW124" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="125" spans="1:101">
       <c r="A125" s="1" t="s">
         <v>504</v>
       </c>
@@ -7254,11 +8368,11 @@
       <c r="E125" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="CW125" t="str">
-        <v>0438877e14b7e813a629229194c34703</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="CW125" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="126" spans="1:101">
       <c r="A126" s="1" t="s">
         <v>508</v>
       </c>
@@ -7274,11 +8388,11 @@
       <c r="E126" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="CW126" t="str">
-        <v>f83919269430091133952b491bec15a8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="CW126" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="127" spans="1:101">
       <c r="A127" s="1" t="s">
         <v>512</v>
       </c>
@@ -7294,11 +8408,11 @@
       <c r="E127" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="CW127" t="str">
-        <v>5c383e9908a3bdf25829a78b17ed9af9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="CW127" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="128" spans="1:101">
       <c r="A128" s="1" t="s">
         <v>516</v>
       </c>
@@ -7314,11 +8428,11 @@
       <c r="E128" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="CW128" t="str">
-        <v>321ba5071ab59f1f1342ef890f328757</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="CW128" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="129" spans="1:101">
       <c r="A129" s="1" t="s">
         <v>520</v>
       </c>
@@ -7334,11 +8448,11 @@
       <c r="E129" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="CW129" t="str">
-        <v>25afe494a73c0b26a44fb61194340e6c</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="CW129" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="130" spans="1:101">
       <c r="A130" s="1" t="s">
         <v>524</v>
       </c>
@@ -7354,11 +8468,11 @@
       <c r="E130" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="CW130" t="str">
-        <v>9f714c6ad82c9cbc3b98eb4c74fd8414</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="CW130" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="131" spans="1:101">
       <c r="A131" s="1" t="s">
         <v>528</v>
       </c>
@@ -7374,11 +8488,11 @@
       <c r="E131" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="CW131" t="str">
-        <v>b9ac3f1098083b11a8a02a7772e75650</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="CW131" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="132" spans="1:101">
       <c r="A132" s="1" t="s">
         <v>532</v>
       </c>
@@ -7394,11 +8508,11 @@
       <c r="E132" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="CW132" t="str">
-        <v>9f84a8b1aac88119c4d12bf1061f4b8f</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="CW132" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="133" spans="1:101">
       <c r="A133" s="1" t="s">
         <v>536</v>
       </c>
@@ -7414,11 +8528,11 @@
       <c r="E133" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="CW133" t="str">
-        <v>9d84e5b780cd80b4d006826805bd2d21</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="CW133" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="134" spans="1:101">
       <c r="A134" s="1" t="s">
         <v>540</v>
       </c>
@@ -7434,11 +8548,11 @@
       <c r="E134" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="CW134" t="str">
-        <v>25f4a6ca3e35aeb51cc8c438b1f8d070</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="CW134" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="135" spans="1:101">
       <c r="A135" s="1" t="s">
         <v>544</v>
       </c>
@@ -7454,11 +8568,11 @@
       <c r="E135" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="CW135" t="str">
-        <v>4f8da057483a9204e674ebb49ca6f175</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="CW135" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="136" spans="1:101">
       <c r="A136" s="1" t="s">
         <v>548</v>
       </c>
@@ -7474,11 +8588,11 @@
       <c r="E136" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="CW136" t="str">
-        <v>ce72092c7cc2e7933c967c134d40ad92</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="CW136" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="137" spans="1:101">
       <c r="A137" s="1" t="s">
         <v>552</v>
       </c>
@@ -7494,11 +8608,11 @@
       <c r="E137" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="CW137" t="str">
-        <v>e9a515041dc1f3c4c3bba635d55f0883</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="CW137" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="138" spans="1:101">
       <c r="A138" s="1" t="s">
         <v>556</v>
       </c>
@@ -7514,11 +8628,11 @@
       <c r="E138" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="CW138" t="str">
-        <v>0ac9b11b5f540a61d43f0897e0cd8c11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="CW138" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="139" spans="1:101">
       <c r="A139" s="1" t="s">
         <v>560</v>
       </c>
@@ -7534,11 +8648,11 @@
       <c r="E139" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="CW139" t="str">
-        <v>5df6a94e3d7e5f2fd2ccbf0e2533f1ca</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="CW139" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="140" spans="1:101">
       <c r="A140" s="1" t="s">
         <v>564</v>
       </c>
@@ -7554,11 +8668,11 @@
       <c r="E140" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="CW140" t="str">
-        <v>75ae6c2f04d5a5c66eca55d65ea3fdf9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="CW140" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="141" spans="1:101">
       <c r="A141" s="1" t="s">
         <v>568</v>
       </c>
@@ -7574,11 +8688,11 @@
       <c r="E141" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="CW141" t="str">
-        <v>b660822786167e3f0089b80d94978681</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="CW141" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="142" spans="1:101">
       <c r="A142" s="1" t="s">
         <v>572</v>
       </c>
@@ -7594,11 +8708,11 @@
       <c r="E142" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="CW142" t="str">
-        <v>b7d37e5a9b2f95b5b1bc20c209ad2a94</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="CW142" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="143" spans="1:101">
       <c r="A143" s="1" t="s">
         <v>576</v>
       </c>
@@ -7614,11 +8728,11 @@
       <c r="E143" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="CW143" t="str">
-        <v>53276213c21f01a560e8eb0f63288758</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="CW143" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="144" spans="1:101">
       <c r="A144" s="1" t="s">
         <v>580</v>
       </c>
@@ -7634,11 +8748,11 @@
       <c r="E144" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="CW144" t="str">
-        <v>f498cc9600a9a44c7b2f391487aed255</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="CW144" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="145" spans="1:101">
       <c r="A145" s="1" t="s">
         <v>584</v>
       </c>
@@ -7654,11 +8768,11 @@
       <c r="E145" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="CW145" t="str">
-        <v>0aeebfe6b82af063ef08aa2a1000af7e</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="CW145" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="146" spans="1:101">
       <c r="A146" s="1" t="s">
         <v>588</v>
       </c>
@@ -7674,11 +8788,11 @@
       <c r="E146" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="CW146" t="str">
-        <v>3bdf7148b89ce047091f29809f433c2e</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="CW146" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="147" spans="1:101">
       <c r="A147" s="1" t="s">
         <v>592</v>
       </c>
@@ -7694,11 +8808,11 @@
       <c r="E147" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="CW147" t="str">
-        <v>a2c23556a28e6f31d4a375a7e690ed56</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="CW147" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="148" spans="1:101">
       <c r="A148" s="1" t="s">
         <v>596</v>
       </c>
@@ -7714,11 +8828,11 @@
       <c r="E148" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="CW148" t="str">
-        <v>f61c93c5e61c461eaba9f5cac99c5587</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="CW148" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="149" spans="1:101">
       <c r="A149" s="1" t="s">
         <v>600</v>
       </c>
@@ -7734,11 +8848,11 @@
       <c r="E149" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="CW149" t="str">
-        <v>aecaf9b041f1851c444c657f621a14b5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="CW149" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="150" spans="1:101">
       <c r="A150" s="1" t="s">
         <v>604</v>
       </c>
@@ -7754,11 +8868,11 @@
       <c r="E150" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="CW150" t="str">
-        <v>6c601eeda7bd504f438f930478bab605</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="CW150" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="151" spans="1:101">
       <c r="A151" s="1" t="s">
         <v>608</v>
       </c>
@@ -7774,11 +8888,11 @@
       <c r="E151" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="CW151" t="str">
-        <v>c880183b3e85890c05d64b2ffdaabb19</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="CW151" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="152" spans="1:101">
       <c r="A152" s="1" t="s">
         <v>611</v>
       </c>
@@ -7794,11 +8908,11 @@
       <c r="E152" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="CW152" t="str">
-        <v>6484bdda391524f0e54997b22f2b49bb</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="CW152" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="153" spans="1:101">
       <c r="A153" s="1" t="s">
         <v>616</v>
       </c>
@@ -7814,11 +8928,11 @@
       <c r="E153" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="CW153" t="str">
-        <v>2eb6b2ba6a703872f9eef77fb7b4e661</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="CW153" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="154" spans="1:101">
       <c r="A154" s="1" t="s">
         <v>620</v>
       </c>
@@ -7834,11 +8948,11 @@
       <c r="E154" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="CW154" t="str">
-        <v>6285f7c5dc0f7cd64fdc033a4a7822ae</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="CW154" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="155" spans="1:101">
       <c r="A155" s="1" t="s">
         <v>624</v>
       </c>
@@ -7854,11 +8968,11 @@
       <c r="E155" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="CW155" t="str">
-        <v>4cc48c1f07fb7aa832a0c70e1970347d</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="CW155" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="156" spans="1:101">
       <c r="A156" s="1" t="s">
         <v>628</v>
       </c>
@@ -7874,11 +8988,11 @@
       <c r="E156" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="CW156" t="str">
-        <v>b3da080d6f4642b378a5297210288e16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="CW156" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="157" spans="1:101">
       <c r="A157" s="1" t="s">
         <v>632</v>
       </c>
@@ -7894,11 +9008,11 @@
       <c r="E157" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="CW157" t="str">
-        <v>f3d128f51522dcfc07282d547723228b</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="CW157" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="158" spans="1:101">
       <c r="A158" s="1" t="s">
         <v>636</v>
       </c>
@@ -7914,11 +9028,11 @@
       <c r="E158" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="CW158" t="str">
-        <v>0037b37290df23e3074041455f65bf44</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="CW158" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="159" spans="1:101">
       <c r="A159" s="1" t="s">
         <v>640</v>
       </c>
@@ -7934,11 +9048,11 @@
       <c r="E159" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="CW159" t="str">
-        <v>7973638ab71306b5edbc4e1841282941</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="CW159" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="160" spans="1:101">
       <c r="A160" s="1" t="s">
         <v>644</v>
       </c>
@@ -7954,11 +9068,11 @@
       <c r="E160" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="CW160" t="str">
-        <v>3b4dda05086d7bcf33695c6c57aa1fce</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="CW160" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="161" spans="1:101">
       <c r="A161" s="1" t="s">
         <v>648</v>
       </c>
@@ -7974,11 +9088,11 @@
       <c r="E161" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="CW161" t="str">
-        <v>a3e092a5cc114948904b12465d3069a6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="CW161" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="162" spans="1:101">
       <c r="A162" s="1" t="s">
         <v>652</v>
       </c>
@@ -7994,11 +9108,11 @@
       <c r="E162" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="CW162" t="str">
-        <v>ebf417f824880139024a633e6b765ad4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="CW162" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="163" spans="1:101">
       <c r="A163" s="1" t="s">
         <v>656</v>
       </c>
@@ -8014,11 +9128,11 @@
       <c r="E163" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="CW163" t="str">
-        <v>4fec8d6c3cba6efa4aca319f30cdc5b3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="CW163" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="164" spans="1:101">
       <c r="A164" s="1" t="s">
         <v>660</v>
       </c>
@@ -8034,11 +9148,11 @@
       <c r="E164" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="CW164" t="str">
-        <v>cc61c20c798fee52249d8478ad2cacbf</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="CW164" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="165" spans="1:101">
       <c r="A165" s="1" t="s">
         <v>664</v>
       </c>
@@ -8054,11 +9168,11 @@
       <c r="E165" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="CW165" t="str">
-        <v>832b7aa827cfe76285c33494a5ec4321</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="CW165" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="166" spans="1:101">
       <c r="A166" s="1" t="s">
         <v>668</v>
       </c>
@@ -8074,11 +9188,11 @@
       <c r="E166" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="CW166" t="str">
-        <v>45b5f67d204937a5e771c73e260f916a</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="CW166" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="167" spans="1:101">
       <c r="A167" s="1" t="s">
         <v>672</v>
       </c>
@@ -8094,11 +9208,11 @@
       <c r="E167" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="CW167" t="str">
-        <v>b8a27668bbbf13df19fd660f82279c03</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="CW167" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="168" spans="1:101">
       <c r="A168" s="1" t="s">
         <v>676</v>
       </c>
@@ -8114,11 +9228,11 @@
       <c r="E168" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="CW168" t="str">
-        <v>f5517487dff88e8a556bfcf81a1dcc21</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="CW168" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="169" spans="1:101">
       <c r="A169" s="1" t="s">
         <v>680</v>
       </c>
@@ -8132,11 +9246,11 @@
         <v>614</v>
       </c>
       <c r="E169" s="1"/>
-      <c r="CW169" t="str">
-        <v>ae15a58acd9a47c1c639577360b9e34c</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="CW169" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="170" spans="1:101">
       <c r="A170" s="1" t="s">
         <v>682</v>
       </c>
@@ -8152,11 +9266,11 @@
       <c r="E170" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="CW170" t="str">
-        <v>ed2c2dac2708a1f188001baee792a46d</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="CW170" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="171" spans="1:101">
       <c r="A171" s="1" t="s">
         <v>687</v>
       </c>
@@ -8172,11 +9286,11 @@
       <c r="E171" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="CW171" t="str">
-        <v>d89de7674c89ef57c67a406610bb6f61</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="CW171" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="172" spans="1:101">
       <c r="A172" s="1" t="s">
         <v>691</v>
       </c>
@@ -8192,11 +9306,11 @@
       <c r="E172" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="CW172" t="str">
-        <v>08abd4dcc3b2fde8ba16640963185383</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="CW172" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="173" spans="1:101">
       <c r="A173" s="1" t="s">
         <v>695</v>
       </c>
@@ -8212,11 +9326,11 @@
       <c r="E173" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="CW173" t="str">
-        <v>2d6ce2c45d5e84c156dbcfec6fb8ea6f</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="CW173" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="174" spans="1:101">
       <c r="A174" s="1" t="s">
         <v>699</v>
       </c>
@@ -8232,11 +9346,11 @@
       <c r="E174" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="CW174" t="str">
-        <v>763bef8c595431bb2a02857d6ae9e4a3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="CW174" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="175" spans="1:101">
       <c r="A175" s="1" t="s">
         <v>703</v>
       </c>
@@ -8252,11 +9366,11 @@
       <c r="E175" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="CW175" t="str">
-        <v>7ccb2857b7a451a97213a09f8ec63178</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="CW175" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="176" spans="1:101">
       <c r="A176" s="1" t="s">
         <v>707</v>
       </c>
@@ -8272,11 +9386,11 @@
       <c r="E176" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="CW176" t="str">
-        <v>405a524913de4d7fdb55eaa641027133</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="CW176" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="177" spans="1:101">
       <c r="A177" s="1" t="s">
         <v>711</v>
       </c>
@@ -8292,11 +9406,11 @@
       <c r="E177" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="CW177" t="str">
-        <v>6d166023439e3affdacb098c4ac9396d</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="CW177" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="178" spans="1:101">
       <c r="A178" s="1" t="s">
         <v>715</v>
       </c>
@@ -8312,11 +9426,11 @@
       <c r="E178" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="CW178" t="str">
-        <v>c92d2b317a632e8f5b7a61945f6b852c</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="CW178" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="179" spans="1:101">
       <c r="A179" s="1" t="s">
         <v>719</v>
       </c>
@@ -8332,11 +9446,11 @@
       <c r="E179" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="CW179" t="str">
-        <v>b5878f0a4d04e96f4af12db2d958519c</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="CW179" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="180" spans="1:101">
       <c r="A180" s="1" t="s">
         <v>723</v>
       </c>
@@ -8352,11 +9466,11 @@
       <c r="E180" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="CW180" t="str">
-        <v>8d2836f1ecc295bb00300ab6ae99d316</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="CW180" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="181" spans="1:101">
       <c r="A181" s="1" t="s">
         <v>727</v>
       </c>
@@ -8372,11 +9486,11 @@
       <c r="E181" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="CW181" t="str">
-        <v>b6185b1736094bcede741f973ce66f0f</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="CW181" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="182" spans="1:101">
       <c r="A182" s="1" t="s">
         <v>731</v>
       </c>
@@ -8392,11 +9506,11 @@
       <c r="E182" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="CW182" t="str">
-        <v>8dc7253238d5a9d7879b0222d8e59401</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="CW182" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="183" spans="1:101">
       <c r="A183" s="1" t="s">
         <v>735</v>
       </c>
@@ -8410,11 +9524,11 @@
         <v>685</v>
       </c>
       <c r="E183" s="1"/>
-      <c r="CW183" t="str">
-        <v>5cefc3f66798260047cd44a301c880f5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="CW183" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="184" spans="1:101">
       <c r="A184" s="1" t="s">
         <v>736</v>
       </c>
@@ -8430,11 +9544,11 @@
       <c r="E184" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="CW184" t="str">
-        <v>826ecb9ac0a9b141782331db4ce9f258</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="CW184" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="185" spans="1:101">
       <c r="A185" s="1" t="s">
         <v>741</v>
       </c>
@@ -8450,11 +9564,11 @@
       <c r="E185" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="CW185" t="str">
-        <v>452f003ea1a514a66dfa86707af2b696</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="CW185" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="186" spans="1:101">
       <c r="A186" s="1" t="s">
         <v>745</v>
       </c>
@@ -8470,11 +9584,11 @@
       <c r="E186" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CW186" t="str">
-        <v>dc1d843126fb2858482f642afc5558a4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="CW186" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="187" spans="1:101">
       <c r="A187" s="1" t="s">
         <v>749</v>
       </c>
@@ -8490,11 +9604,11 @@
       <c r="E187" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="CW187" t="str">
-        <v>76fea5b9b8ff194e240ac19647f789fc</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="CW187" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="188" spans="1:101">
       <c r="A188" s="1" t="s">
         <v>753</v>
       </c>
@@ -8510,11 +9624,11 @@
       <c r="E188" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="CW188" t="str">
-        <v>61d915fd92d4734b7b80f1e1e4e54da8</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="CW188" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="189" spans="1:101">
       <c r="A189" s="1" t="s">
         <v>757</v>
       </c>
@@ -8530,11 +9644,11 @@
       <c r="E189" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="CW189" t="str">
-        <v>745501751374105ff27fed6c775112e9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="CW189" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="190" spans="1:101">
       <c r="A190" s="1" t="s">
         <v>761</v>
       </c>
@@ -8550,11 +9664,11 @@
       <c r="E190" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="CW190" t="str">
-        <v>24561136579a5a7ffd3e0daa5baeaacb</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="CW190" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="191" spans="1:101">
       <c r="A191" s="1" t="s">
         <v>765</v>
       </c>
@@ -8570,11 +9684,11 @@
       <c r="E191" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="CW191" t="str">
-        <v>97256ed7257ab939a7541ca5cced4efd</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="CW191" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="192" spans="1:101">
       <c r="A192" s="1" t="s">
         <v>769</v>
       </c>
@@ -8590,11 +9704,11 @@
       <c r="E192" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="CW192" t="str">
-        <v>fa1b4549378c96201a6339e4aaf73ccc</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="CW192" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="193" spans="1:101">
       <c r="A193" s="1" t="s">
         <v>773</v>
       </c>
@@ -8610,11 +9724,11 @@
       <c r="E193" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="CW193" t="str">
-        <v>064c58232d2fac2d794e86c659ea75c4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="CW193" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="194" spans="1:101">
       <c r="A194" s="1" t="s">
         <v>777</v>
       </c>
@@ -8630,11 +9744,11 @@
       <c r="E194" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="CW194" t="str">
-        <v>56cc99f9c86e9f5764acfd0dda64b5c9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="CW194" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="195" spans="1:101">
       <c r="A195" s="1" t="s">
         <v>781</v>
       </c>
@@ -8650,11 +9764,11 @@
       <c r="E195" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="CW195" t="str">
-        <v>b92aadb727bd85004650550f21d1a9f3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="CW195" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="196" spans="1:101">
       <c r="A196" s="1" t="s">
         <v>785</v>
       </c>
@@ -8670,11 +9784,11 @@
       <c r="E196" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="CW196" t="str">
-        <v>2c8de8694d191d78900a667b5fa42646</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="CW196" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="197" spans="1:101">
       <c r="A197" s="1" t="s">
         <v>789</v>
       </c>
@@ -8690,11 +9804,11 @@
       <c r="E197" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="CW197" t="str">
-        <v>ee8179c1acd8111a6f5a6bbebf64c31d</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="CW197" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="198" spans="1:101">
       <c r="A198" s="1" t="s">
         <v>793</v>
       </c>
@@ -8710,11 +9824,11 @@
       <c r="E198" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="CW198" t="str">
-        <v>b3a941c5d7f3577562f0dd2a74d24122</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="CW198" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="199" spans="1:101">
       <c r="A199" s="1" t="s">
         <v>798</v>
       </c>
@@ -8730,11 +9844,11 @@
       <c r="E199" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="CW199" t="str">
-        <v>73ddfb946d6b699ef6e997fe0d02032f</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="CW199" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="200" spans="1:101">
       <c r="A200" s="1" t="s">
         <v>802</v>
       </c>
@@ -8750,11 +9864,11 @@
       <c r="E200" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="CW200" t="str">
-        <v>c505cf09351313d99526ac54f626ac8c</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="CW200" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="201" spans="1:101">
       <c r="A201" s="1" t="s">
         <v>806</v>
       </c>
@@ -8770,11 +9884,11 @@
       <c r="E201" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="CW201" t="str">
-        <v>ad6e1e3357549a7c7e8fa3a88c3a8979</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="CW201" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="202" spans="1:101">
       <c r="A202" s="1" t="s">
         <v>810</v>
       </c>
@@ -8790,11 +9904,11 @@
       <c r="E202" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="CW202" t="str">
-        <v>fc2673646f837d3b119139db99fddaee</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="CW202" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="203" spans="1:101">
       <c r="A203" s="1" t="s">
         <v>814</v>
       </c>
@@ -8810,11 +9924,11 @@
       <c r="E203" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="CW203" t="str">
-        <v>cdbfa4dc080441ef5589049fd004b6f4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="CW203" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="204" spans="1:101">
       <c r="A204" s="1" t="s">
         <v>818</v>
       </c>
@@ -8830,11 +9944,11 @@
       <c r="E204" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="CW204" t="str">
-        <v>90c28cd85bc977dfe6e81aec765508cd</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="CW204" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="205" spans="1:101">
       <c r="A205" s="1" t="s">
         <v>822</v>
       </c>
@@ -8850,11 +9964,11 @@
       <c r="E205" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="CW205" t="str">
-        <v>61a4577fc917c65e6b64393ca69672ce</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="CW205" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="206" spans="1:101">
       <c r="A206" s="1" t="s">
         <v>826</v>
       </c>
@@ -8870,11 +9984,11 @@
       <c r="E206" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="CW206" t="str">
-        <v>df3304a0fe71306fc3d273ff39329d5d</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="CW206" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="207" spans="1:101">
       <c r="A207" s="1" t="s">
         <v>830</v>
       </c>
@@ -8890,11 +10004,11 @@
       <c r="E207" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="CW207" t="str">
-        <v>8d673eb2012977fe9312453d3174c25c</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="CW207" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="208" spans="1:101">
       <c r="A208" s="1" t="s">
         <v>834</v>
       </c>
@@ -8910,11 +10024,11 @@
       <c r="E208" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="CW208" t="str">
-        <v>ab891f46e4b6ec44461dd803cebc9eba</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="CW208" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="209" spans="1:101">
       <c r="A209" s="1" t="s">
         <v>838</v>
       </c>
@@ -8930,11 +10044,11 @@
       <c r="E209" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="CW209" t="str">
-        <v>695695e3c5161fbf8c134ba7a6534ff7</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="CW209" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="210" spans="1:101">
       <c r="A210" s="1" t="s">
         <v>842</v>
       </c>
@@ -8950,11 +10064,11 @@
       <c r="E210" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="CW210" t="str">
-        <v>097374d79a2a62621df048861e786bd9</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="CW210" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="211" spans="1:101">
       <c r="A211" s="1" t="s">
         <v>846</v>
       </c>
@@ -8970,11 +10084,11 @@
       <c r="E211" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="CW211" t="str">
-        <v>5005a62dec2c70d80ccf29fac1a7bbdd</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="CW211" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="212" spans="1:101">
       <c r="A212" s="1" t="s">
         <v>850</v>
       </c>
@@ -8990,11 +10104,11 @@
       <c r="E212" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="CW212" t="str">
-        <v>a071d6591316ae923f8d66267b88726e</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="CW212" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="213" spans="1:101">
       <c r="A213" s="1" t="s">
         <v>854</v>
       </c>
@@ -9010,11 +10124,11 @@
       <c r="E213" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="CW213" t="str">
-        <v>bbce4d51db0daf019dd3c2a3b1d1b38c</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="CW213" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="214" spans="1:101">
       <c r="A214" s="1" t="s">
         <v>858</v>
       </c>
@@ -9030,11 +10144,11 @@
       <c r="E214" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="CW214" t="str">
-        <v>1a279c3f756f66282ce47efc79a80656</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="CW214" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="215" spans="1:101">
       <c r="A215" s="1" t="s">
         <v>862</v>
       </c>
@@ -9050,11 +10164,11 @@
       <c r="E215" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="CW215" t="str">
-        <v>a19b1b3681376a0b837c0a462ba91557</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="CW215" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="216" spans="1:101">
       <c r="A216" s="1" t="s">
         <v>866</v>
       </c>
@@ -9070,11 +10184,11 @@
       <c r="E216" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="CW216" t="str">
-        <v>008321dcb79297432b656bbd7c43549d</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="CW216" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="217" spans="1:101">
       <c r="A217" s="1" t="s">
         <v>870</v>
       </c>
@@ -9090,11 +10204,11 @@
       <c r="E217" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="CW217" t="str">
-        <v>d7d44609bdca8b8cc5d875e6b3e51343</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="CW217" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="218" spans="1:101">
       <c r="A218" s="1" t="s">
         <v>874</v>
       </c>
@@ -9110,11 +10224,11 @@
       <c r="E218" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="CW218" t="str">
-        <v>171ba565fb2dd575a703a3edafdce65a</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="CW218" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="219" spans="1:101">
       <c r="A219" s="1" t="s">
         <v>878</v>
       </c>
@@ -9130,11 +10244,11 @@
       <c r="E219" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="CW219" t="str">
-        <v>3cc23e593a814df94efdd4978ed804a9</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="CW219" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="220" spans="1:101">
       <c r="A220" s="1" t="s">
         <v>883</v>
       </c>
@@ -9150,11 +10264,11 @@
       <c r="E220" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="CW220" t="str">
-        <v>cca6f3e438788c840045ed912893bca7</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="CW220" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="221" spans="1:101">
       <c r="A221" s="1" t="s">
         <v>887</v>
       </c>
@@ -9170,11 +10284,11 @@
       <c r="E221" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="CW221" t="str">
-        <v>10e4f10eaae08763684bc93226449920</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="CW221" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="222" spans="1:101">
       <c r="A222" s="1" t="s">
         <v>891</v>
       </c>
@@ -9190,11 +10304,11 @@
       <c r="E222" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="CW222" t="str">
-        <v>cfc51ea4b483b1148409a2be8da279d0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="CW222" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="223" spans="1:101">
       <c r="A223" s="1" t="s">
         <v>895</v>
       </c>
@@ -9210,11 +10324,11 @@
       <c r="E223" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="CW223" t="str">
-        <v>bf41b8a077ac8208f579e617b0639096</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="CW223" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="224" spans="1:101">
       <c r="A224" s="1" t="s">
         <v>899</v>
       </c>
@@ -9230,11 +10344,11 @@
       <c r="E224" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="CW224" t="str">
-        <v>bd1c19c137b42a3493544f223fa8ded7</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="CW224" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="225" spans="1:101">
       <c r="A225" s="1" t="s">
         <v>903</v>
       </c>
@@ -9250,11 +10364,11 @@
       <c r="E225" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="CW225" t="str">
-        <v>69ffbad3a71ff71bc9fe0ed56c2d4ebb</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="CW225" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="226" spans="1:101">
       <c r="A226" s="1" t="s">
         <v>907</v>
       </c>
@@ -9270,11 +10384,11 @@
       <c r="E226" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="CW226" t="str">
-        <v>4e7a5b95a378f97b6d4aa756e950a4c3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="CW226" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="227" spans="1:101">
       <c r="A227" s="1" t="s">
         <v>911</v>
       </c>
@@ -9290,11 +10404,11 @@
       <c r="E227" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="CW227" t="str">
-        <v>c939f7fad8fcfcb61abf0152f37ef938</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="CW227" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="228" spans="1:101">
       <c r="A228" s="1" t="s">
         <v>914</v>
       </c>
@@ -9310,11 +10424,11 @@
       <c r="E228" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="CW228" t="str">
-        <v>42190812d57a3d5dbb6f245b9d5d2e94</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="CW228" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="229" spans="1:101">
       <c r="A229" s="1" t="s">
         <v>918</v>
       </c>
@@ -9330,11 +10444,11 @@
       <c r="E229" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="CW229" t="str">
-        <v>e8769c9cbb860a954f9a342ab40ff688</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="CW229" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="230" spans="1:101">
       <c r="A230" s="1" t="s">
         <v>922</v>
       </c>
@@ -9350,11 +10464,11 @@
       <c r="E230" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="CW230" t="str">
-        <v>4084c01fe70dccde04ec83c62a1cf63a</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="CW230" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="231" spans="1:101">
       <c r="A231" s="1" t="s">
         <v>926</v>
       </c>
@@ -9370,11 +10484,11 @@
       <c r="E231" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="CW231" t="str">
-        <v>5527eb52c3c513116df0cd0d2bfe0644</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="CW231" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="232" spans="1:101">
       <c r="A232" s="1" t="s">
         <v>930</v>
       </c>
@@ -9390,11 +10504,11 @@
       <c r="E232" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="CW232" t="str">
-        <v>0ebf246567fe1130b3beb260a31f0601</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="CW232" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="233" spans="1:101">
       <c r="A233" s="1" t="s">
         <v>934</v>
       </c>
@@ -9410,11 +10524,11 @@
       <c r="E233" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="CW233" t="str">
-        <v>c7cbbefe5fa1d7d0fa8a46b13ed12d95</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="CW233" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="234" spans="1:101">
       <c r="A234" s="1" t="s">
         <v>939</v>
       </c>
@@ -9430,11 +10544,11 @@
       <c r="E234" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="CW234" t="str">
-        <v>ed18df1f039910c02623ebe87eea86fd</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="CW234" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="235" spans="1:101">
       <c r="A235" s="1" t="s">
         <v>943</v>
       </c>
@@ -9450,11 +10564,11 @@
       <c r="E235" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="CW235" t="str">
-        <v>c497397545dde34beb2deb418ccfbab4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="CW235" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="236" spans="1:101">
       <c r="A236" s="1" t="s">
         <v>947</v>
       </c>
@@ -9470,11 +10584,11 @@
       <c r="E236" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="CW236" t="str">
-        <v>a9d421b2f4678763b22fb2a13e2c921e</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="CW236" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="237" spans="1:101">
       <c r="A237" s="1" t="s">
         <v>951</v>
       </c>
@@ -9488,11 +10602,11 @@
         <v>937</v>
       </c>
       <c r="E237" s="1"/>
-      <c r="CW237" t="str">
-        <v>9a2bc14ca008316482448d2b51e786c5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="CW237" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="238" spans="1:101">
       <c r="A238" s="1" t="s">
         <v>952</v>
       </c>
@@ -9508,11 +10622,11 @@
       <c r="E238" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="CW238" t="str">
-        <v>6b282cc3d79bf6df7b67fa3879d2a28c</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="CW238" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="239" spans="1:101">
       <c r="A239" s="1" t="s">
         <v>956</v>
       </c>
@@ -9528,11 +10642,11 @@
       <c r="E239" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="CW239" t="str">
-        <v>8c5de538049e3e76b1b2bc896dd862c6</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="CW239" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="240" spans="1:101">
       <c r="A240" s="1" t="s">
         <v>957</v>
       </c>
@@ -9548,11 +10662,11 @@
       <c r="E240" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="CW240" t="str">
-        <v>a05b12e631a7c6dae16f3f86ab29cb8d</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="CW240" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="241" spans="1:101">
       <c r="A241" s="1" t="s">
         <v>962</v>
       </c>
@@ -9568,11 +10682,11 @@
       <c r="E241" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="CW241" t="str">
-        <v>3f75dceb36e20b689aea1c81851974e3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="CW241" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="242" spans="1:101">
       <c r="A242" s="1" t="s">
         <v>966</v>
       </c>
@@ -9588,11 +10702,11 @@
       <c r="E242" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="CW242" t="str">
-        <v>4089fa618bd9673ca9e7f6a45a558702</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="CW242" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="243" spans="1:101">
       <c r="A243" s="1" t="s">
         <v>970</v>
       </c>
@@ -9608,11 +10722,11 @@
       <c r="E243" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="CW243" t="str">
-        <v>4f0937aec2d26b514c9ce0842db0ce0d</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="CW243" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="244" spans="1:101">
       <c r="A244" s="1" t="s">
         <v>974</v>
       </c>
@@ -9628,11 +10742,11 @@
       <c r="E244" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="CW244" t="str">
-        <v>1f38d906f50a0ec10501b554269bf861</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="CW244" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="245" spans="1:101">
       <c r="A245" s="1" t="s">
         <v>978</v>
       </c>
@@ -9648,11 +10762,11 @@
       <c r="E245" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="CW245" t="str">
-        <v>af7f4fd625bfff6a41d576e56d674160</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="CW245" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="246" spans="1:101">
       <c r="A246" s="1" t="s">
         <v>982</v>
       </c>
@@ -9668,11 +10782,11 @@
       <c r="E246" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="CW246" t="str">
-        <v>0b17eaf31c04df8d5c7a43ea3797d70a</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="CW246" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="247" spans="1:101">
       <c r="A247" s="1" t="s">
         <v>986</v>
       </c>
@@ -9688,11 +10802,11 @@
       <c r="E247" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="CW247" t="str">
-        <v>84fdd26e0e963e0a2d84db13496eba0e</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="CW247" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="248" spans="1:101">
       <c r="A248" s="1" t="s">
         <v>990</v>
       </c>
@@ -9708,11 +10822,11 @@
       <c r="E248" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="CW248" t="str">
-        <v>fc8a6e804098aafc956e083765ea311d</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="CW248" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="249" spans="1:101">
       <c r="A249" s="1" t="s">
         <v>994</v>
       </c>
@@ -9728,11 +10842,11 @@
       <c r="E249" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="CW249" t="str">
-        <v>297a5d92e9e78b3d188d486035b69dee</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="CW249" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="250" spans="1:101">
       <c r="A250" s="1" t="s">
         <v>998</v>
       </c>
@@ -9748,11 +10862,11 @@
       <c r="E250" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="CW250" t="str">
-        <v>85fe54264773887e7b91224dd6e34f7e</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="CW250" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="251" spans="1:101">
       <c r="A251" s="1" t="s">
         <v>1002</v>
       </c>
@@ -9768,11 +10882,11 @@
       <c r="E251" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="CW251" t="str">
-        <v>c714d502628f895d384db90cd4c1f130</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="CW251" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="252" spans="1:101">
       <c r="A252" s="1" t="s">
         <v>1006</v>
       </c>
@@ -9788,11 +10902,11 @@
       <c r="E252" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="CW252" t="str">
-        <v>1089927bec096158f43cd57f8a1acb41</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="CW252" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="253" spans="1:101">
       <c r="A253" s="1" t="s">
         <v>1010</v>
       </c>
@@ -9808,11 +10922,11 @@
       <c r="E253" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="CW253" t="str">
-        <v>291d5d0231c26d5dc5f181cc4396ac15</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="CW253" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="254" spans="1:101">
       <c r="A254" s="1" t="s">
         <v>1014</v>
       </c>
@@ -9828,11 +10942,11 @@
       <c r="E254" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="CW254" t="str">
-        <v>937a05e194fb7305ce1400174c656e80</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="CW254" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="255" spans="1:101">
       <c r="A255" s="1" t="s">
         <v>1018</v>
       </c>
@@ -9848,11 +10962,11 @@
       <c r="E255" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="CW255" t="str">
-        <v>7415c73bac1d6ee2db2b66dca6efa53e</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="CW255" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="256" spans="1:101">
       <c r="A256" s="1" t="s">
         <v>1022</v>
       </c>
@@ -9868,11 +10982,11 @@
       <c r="E256" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="CW256" t="str">
-        <v>5a11fa4406bdf139e953c64916a6c3a4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="CW256" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="257" spans="1:101">
       <c r="A257" s="1" t="s">
         <v>1026</v>
       </c>
@@ -9888,11 +11002,11 @@
       <c r="E257" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="CW257" t="str">
-        <v>e239f30dffc032962ec9abe860b23378</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="CW257" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="258" spans="1:101">
       <c r="A258" s="1" t="s">
         <v>1030</v>
       </c>
@@ -9908,11 +11022,11 @@
       <c r="E258" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="CW258" t="str">
-        <v>4d8d1094cc21807236803bc7c6f74066</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="CW258" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="259" spans="1:101">
       <c r="A259" s="1" t="s">
         <v>1034</v>
       </c>
@@ -9928,11 +11042,11 @@
       <c r="E259" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="CW259" t="str">
-        <v>c676659571d10b928b8994e76099b5a6</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="CW259" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="260" spans="1:101">
       <c r="A260" s="1" t="s">
         <v>1038</v>
       </c>
@@ -9948,11 +11062,11 @@
       <c r="E260" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="CW260" t="str">
-        <v>67f59596f0aff62c26db6f7435688a2e</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="CW260" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="261" spans="1:101">
       <c r="A261" s="1" t="s">
         <v>1042</v>
       </c>
@@ -9968,11 +11082,11 @@
       <c r="E261" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="CW261" t="str">
-        <v>34f8480cb0627b5896e092113d8666d2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="CW261" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="262" spans="1:101">
       <c r="A262" s="1" t="s">
         <v>1047</v>
       </c>
@@ -9988,11 +11102,11 @@
       <c r="E262" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="CW262" t="str">
-        <v>e35330d4ce04991d98e0354f839302fb</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="CW262" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="263" spans="1:101">
       <c r="A263" s="1" t="s">
         <v>1051</v>
       </c>
@@ -10008,11 +11122,11 @@
       <c r="E263" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="CW263" t="str">
-        <v>e0032ccbd80d6b0f0f7496081bcb4ab6</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="CW263" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="264" spans="1:101">
       <c r="A264" s="1" t="s">
         <v>1055</v>
       </c>
@@ -10028,11 +11142,11 @@
       <c r="E264" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="CW264" t="str">
-        <v>a06a63fea7c8d00086e4620eca0e7845</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="CW264" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="265" spans="1:101">
       <c r="A265" s="1" t="s">
         <v>1059</v>
       </c>
@@ -10048,11 +11162,11 @@
       <c r="E265" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="CW265" t="str">
-        <v>c8535de6583de27a9626c98792edbf23</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="CW265" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="266" spans="1:101">
       <c r="A266" s="1" t="s">
         <v>1063</v>
       </c>
@@ -10068,11 +11182,11 @@
       <c r="E266" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="CW266" t="str">
-        <v>64c20fd71504f0eb35c6a3bd4a908868</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="CW266" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="267" spans="1:101">
       <c r="A267" s="1" t="s">
         <v>1067</v>
       </c>
@@ -10088,11 +11202,11 @@
       <c r="E267" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="CW267" t="str">
-        <v>934826954a43a20d2e8feb9d59cb4343</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="CW267" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="268" spans="1:101">
       <c r="A268" s="1" t="s">
         <v>1071</v>
       </c>
@@ -10108,11 +11222,11 @@
       <c r="E268" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="CW268" t="str">
-        <v>93e06f791f5c96becfd7561eb980f8a7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="CW268" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="269" spans="1:101">
       <c r="A269" s="1" t="s">
         <v>1075</v>
       </c>
@@ -10128,11 +11242,11 @@
       <c r="E269" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="CW269" t="str">
-        <v>4a3a493d0fd85ab7b361cf67b83bd0e2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="CW269" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="270" spans="1:101">
       <c r="A270" s="1" t="s">
         <v>1079</v>
       </c>
@@ -10148,11 +11262,11 @@
       <c r="E270" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="CW270" t="str">
-        <v>5f8d07f9a6c3d7286dcc5c01787aff90</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="CW270" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="271" spans="1:101">
       <c r="A271" s="1" t="s">
         <v>1084</v>
       </c>
@@ -10168,11 +11282,11 @@
       <c r="E271" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="CW271" t="str">
-        <v>e733cb1a7eec61f3e163ecafdd457478</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="CW271" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="272" spans="1:101">
       <c r="A272" s="1" t="s">
         <v>1088</v>
       </c>
@@ -10188,11 +11302,11 @@
       <c r="E272" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="CW272" t="str">
-        <v>1f29413648bd0ed9b7dc959c60c817c6</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+      <c r="CW272" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="273" spans="1:101">
       <c r="A273" s="1" t="s">
         <v>1092</v>
       </c>
@@ -10208,11 +11322,11 @@
       <c r="E273" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="CW273" t="str">
-        <v>e80e0bb39f3add9498fecf792ace4324</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="CW273" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="274" spans="1:101">
       <c r="A274" s="1" t="s">
         <v>1096</v>
       </c>
@@ -10228,11 +11342,11 @@
       <c r="E274" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="CW274" t="str">
-        <v>c5d1e04ff8061889798e47a223b28d1d</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+      <c r="CW274" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="275" spans="1:101">
       <c r="A275" s="1" t="s">
         <v>1100</v>
       </c>
@@ -10248,11 +11362,11 @@
       <c r="E275" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="CW275" t="str">
-        <v>a82c2b648008f4eb6aef7beb86b3dd9f</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="CW275" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="276" spans="1:101">
       <c r="A276" s="1" t="s">
         <v>1104</v>
       </c>
@@ -10268,11 +11382,11 @@
       <c r="E276" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="CW276" t="str">
-        <v>f6aaf72da215efebaea7ceed2f5eed35</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+      <c r="CW276" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="277" spans="1:101">
       <c r="A277" s="1" t="s">
         <v>1108</v>
       </c>
@@ -10288,11 +11402,11 @@
       <c r="E277" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="CW277" t="str">
-        <v>3d3d2dc5b2bc325f9ff979c8dc618fac</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+      <c r="CW277" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="278" spans="1:101">
       <c r="A278" s="1" t="s">
         <v>1112</v>
       </c>
@@ -10308,11 +11422,11 @@
       <c r="E278" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="CW278" t="str">
-        <v>8db26cd542a6fb877a5dee66382856d7</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+      <c r="CW278" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="279" spans="1:101">
       <c r="A279" s="1" t="s">
         <v>1116</v>
       </c>
@@ -10328,11 +11442,11 @@
       <c r="E279" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="CW279" t="str">
-        <v>1bb0b93541bb9cd0f37abebee2e88bf7</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+      <c r="CW279" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="280" spans="1:101">
       <c r="A280" s="1" t="s">
         <v>1120</v>
       </c>
@@ -10348,11 +11462,11 @@
       <c r="E280" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="CW280" t="str">
-        <v>6edf27f89ec812c68cde9a78f79e011b</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+      <c r="CW280" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="281" spans="1:101">
       <c r="A281" s="1" t="s">
         <v>1124</v>
       </c>
@@ -10368,11 +11482,11 @@
       <c r="E281" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="CW281" t="str">
-        <v>918e55e0f2eb50505e3987591d3fd7cf</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="CW281" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="282" spans="1:101">
       <c r="A282" s="1" t="s">
         <v>1128</v>
       </c>
@@ -10388,11 +11502,11 @@
       <c r="E282" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="CW282" t="str">
-        <v>d33843624ef68b026025d22b07c1af3e</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="CW282" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="283" spans="1:101">
       <c r="A283" s="1" t="s">
         <v>1132</v>
       </c>
@@ -10408,11 +11522,11 @@
       <c r="E283" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="CW283" t="str">
-        <v>73423e191108da7d2b9c79571a764d42</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+      <c r="CW283" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="284" spans="1:101">
       <c r="A284" s="1" t="s">
         <v>1136</v>
       </c>
@@ -10428,11 +11542,11 @@
       <c r="E284" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="CW284" t="str">
-        <v>15d58920eda653bcbe5876621ee3b9b5</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+      <c r="CW284" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="285" spans="1:101">
       <c r="A285" s="1" t="s">
         <v>1140</v>
       </c>
@@ -10448,11 +11562,11 @@
       <c r="E285" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="CW285" t="str">
-        <v>95f9476428e30215821f3f9e9708e9d1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+      <c r="CW285" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="286" spans="1:101">
       <c r="A286" s="1" t="s">
         <v>1144</v>
       </c>
@@ -10468,11 +11582,11 @@
       <c r="E286" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="CW286" t="str">
-        <v>d893e954601bf25e40cb87f354da023d</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="CW286" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="287" spans="1:101">
       <c r="A287" s="1" t="s">
         <v>1149</v>
       </c>
@@ -10488,11 +11602,11 @@
       <c r="E287" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="CW287" t="str">
-        <v>8c6cc09feb4071aba3b3b55736d5b3ff</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+      <c r="CW287" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="288" spans="1:101">
       <c r="A288" s="1" t="s">
         <v>1153</v>
       </c>
@@ -10508,11 +11622,11 @@
       <c r="E288" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="CW288" t="str">
-        <v>8d833f1f37eb02b698636b80c514f37e</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="CW288" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="289" spans="1:101">
       <c r="A289" s="1" t="s">
         <v>1157</v>
       </c>
@@ -10528,11 +11642,11 @@
       <c r="E289" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="CW289" t="str">
-        <v>791acb0e11fdfb5e32aaa8c76ec09fe3</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+      <c r="CW289" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="290" spans="1:101">
       <c r="A290" s="1" t="s">
         <v>1161</v>
       </c>
@@ -10548,11 +11662,11 @@
       <c r="E290" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="CW290" t="str">
-        <v>21a0f2c9bc3cd3efe67fc934f938fd5e</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+      <c r="CW290" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="291" spans="1:101">
       <c r="A291" s="1" t="s">
         <v>1165</v>
       </c>
@@ -10566,11 +11680,11 @@
         <v>1167</v>
       </c>
       <c r="E291" s="1"/>
-      <c r="CW291" t="str">
-        <v>f92dd93a07882bfb48196d25ac3d6a4e</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+      <c r="CW291" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="292" spans="1:101">
       <c r="A292" s="1" t="s">
         <v>1168</v>
       </c>
@@ -10586,11 +11700,11 @@
       <c r="E292" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="CW292" t="str">
-        <v>5fa9add6ec0f167d92cb005f4b98e3b3</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+      <c r="CW292" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="293" spans="1:101">
       <c r="A293" s="1" t="s">
         <v>1172</v>
       </c>
@@ -10606,11 +11720,11 @@
       <c r="E293" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="CW293" t="str">
-        <v>ceb9f75414f0ead167c251a83a16857f</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+      <c r="CW293" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="294" spans="1:101">
       <c r="A294" s="1" t="s">
         <v>1177</v>
       </c>
@@ -10626,11 +11740,11 @@
       <c r="E294" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="CW294" t="str">
-        <v>3f01890e4e697ac566557cc3a1e92b79</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="CW294" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="295" spans="1:101">
       <c r="A295" s="1" t="s">
         <v>1181</v>
       </c>
@@ -10646,11 +11760,11 @@
       <c r="E295" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="CW295" t="str">
-        <v>5f82643bd70f0afae52ef34497697c05</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+      <c r="CW295" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="296" spans="1:101">
       <c r="A296" s="1" t="s">
         <v>1185</v>
       </c>
@@ -10666,11 +11780,11 @@
       <c r="E296" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="CW296" t="str">
-        <v>e9df9211a871f238888efbe4e452cef2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+      <c r="CW296" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="297" spans="1:101">
       <c r="A297" s="1" t="s">
         <v>1189</v>
       </c>
@@ -10686,11 +11800,11 @@
       <c r="E297" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="CW297" t="str">
-        <v>cba9e9da46f162f7996cce0efb29f331</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+      <c r="CW297" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="298" spans="1:101">
       <c r="A298" s="1" t="s">
         <v>1193</v>
       </c>
@@ -10706,11 +11820,11 @@
       <c r="E298" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="CW298" t="str">
-        <v>2554653b6be0ea25f98a8ace486e972a</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+      <c r="CW298" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="299" spans="1:101">
       <c r="A299" s="1" t="s">
         <v>1197</v>
       </c>
@@ -10726,11 +11840,11 @@
       <c r="E299" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="CW299" t="str">
-        <v>cbfb913515cf1c61a066001e52d97531</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+      <c r="CW299" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="300" spans="1:101">
       <c r="A300" s="1" t="s">
         <v>1201</v>
       </c>
@@ -10746,11 +11860,11 @@
       <c r="E300" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="CW300" t="str">
-        <v>2fc7d803cb85c64088794afcba521007</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+      <c r="CW300" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="301" spans="1:101">
       <c r="A301" s="1" t="s">
         <v>1205</v>
       </c>
@@ -10766,11 +11880,11 @@
       <c r="E301" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="CW301" t="str">
-        <v>919cde1729de098a996013e4ba7626d8</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+      <c r="CW301" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="302" spans="1:101">
       <c r="A302" s="1" t="s">
         <v>1209</v>
       </c>
@@ -10786,11 +11900,11 @@
       <c r="E302" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="CW302" t="str">
-        <v>cf3ec81c7801b10251d9dfb1d63ac0ca</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+      <c r="CW302" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="303" spans="1:101">
       <c r="A303" s="1" t="s">
         <v>1213</v>
       </c>
@@ -10806,11 +11920,11 @@
       <c r="E303" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="CW303" t="str">
-        <v>43303212b30cf304efd9407d9aa9c8cb</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+      <c r="CW303" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="304" spans="1:101">
       <c r="A304" s="1" t="s">
         <v>1218</v>
       </c>
@@ -10826,11 +11940,11 @@
       <c r="E304" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="CW304" t="str">
-        <v>a185b566260ca9af77002bd8b813d916</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+      <c r="CW304" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="305" spans="1:101">
       <c r="A305" s="1" t="s">
         <v>1222</v>
       </c>
@@ -10846,11 +11960,11 @@
       <c r="E305" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="CW305" t="str">
-        <v>50fd67e363b514e259aa0dc212c6b80d</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+      <c r="CW305" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="306" spans="1:101">
       <c r="A306" s="1" t="s">
         <v>1226</v>
       </c>
@@ -10866,11 +11980,11 @@
       <c r="E306" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="CW306" t="str">
-        <v>1a656cf9e774cba6d95a8ad2f5ea4f95</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+      <c r="CW306" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="307" spans="1:101">
       <c r="A307" s="1" t="s">
         <v>1230</v>
       </c>
@@ -10886,11 +12000,11 @@
       <c r="E307" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="CW307" t="str">
-        <v>e6134d03d4c46910f423518e12bc34ef</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+      <c r="CW307" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="308" spans="1:101">
       <c r="A308" s="1" t="s">
         <v>1234</v>
       </c>
@@ -10906,11 +12020,11 @@
       <c r="E308" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="CW308" t="str">
-        <v>cb04748d95aad5c228ff947f80d14cfc</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+      <c r="CW308" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="309" spans="1:101">
       <c r="A309" s="1" t="s">
         <v>1238</v>
       </c>
@@ -10926,11 +12040,11 @@
       <c r="E309" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="CW309" t="str">
-        <v>4caec2fa061ea8bc64a7947d36ae74ff</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+      <c r="CW309" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="310" spans="1:101">
       <c r="A310" s="1" t="s">
         <v>1242</v>
       </c>
@@ -10946,11 +12060,11 @@
       <c r="E310" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="CW310" t="str">
-        <v>335ab3cbc78309852e5ede2f12d62689</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+      <c r="CW310" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="311" spans="1:101">
       <c r="A311" s="1" t="s">
         <v>1246</v>
       </c>
@@ -10966,11 +12080,11 @@
       <c r="E311" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="CW311" t="str">
-        <v>6571247e49679d78f83e588001a4e3be</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+      <c r="CW311" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="312" spans="1:101">
       <c r="A312" s="1" t="s">
         <v>1250</v>
       </c>
@@ -10986,11 +12100,11 @@
       <c r="E312" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="CW312" t="str">
-        <v>9bf3c19113ac3b3a75c3b078a9c5ab15</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+      <c r="CW312" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="313" spans="1:101">
       <c r="A313" s="1" t="s">
         <v>1254</v>
       </c>
@@ -11006,11 +12120,11 @@
       <c r="E313" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="CW313" t="str">
-        <v>1d6a1a626280a7e12fe4cf9303051410</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+      <c r="CW313" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="314" spans="1:101">
       <c r="A314" s="1" t="s">
         <v>1258</v>
       </c>
@@ -11026,11 +12140,11 @@
       <c r="E314" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="CW314" t="str">
-        <v>ea4c091e8a95704e66456f63fcd0822e</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+      <c r="CW314" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="315" spans="1:101">
       <c r="A315" s="1" t="s">
         <v>1262</v>
       </c>
@@ -11046,11 +12160,11 @@
       <c r="E315" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="CW315" t="str">
-        <v>bb7121da923ee0181155892c109962d4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+      <c r="CW315" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="316" spans="1:101">
       <c r="A316" s="1" t="s">
         <v>1266</v>
       </c>
@@ -11066,11 +12180,11 @@
       <c r="E316" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="CW316" t="str">
-        <v>88fde9f62acdfd056fe9673bc31ef671</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+      <c r="CW316" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="317" spans="1:101">
       <c r="A317" s="1" t="s">
         <v>1270</v>
       </c>
@@ -11086,11 +12200,11 @@
       <c r="E317" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="CW317" t="str">
-        <v>1de7f4c63eddada747ae79c6e17daa56</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+      <c r="CW317" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="318" spans="1:101">
       <c r="A318" s="1" t="s">
         <v>1275</v>
       </c>
@@ -11106,11 +12220,11 @@
       <c r="E318" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="CW318" t="str">
-        <v>bb0128347a5879f5dd85ce9041fa42c3</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+      <c r="CW318" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="319" spans="1:101">
       <c r="A319" s="1" t="s">
         <v>1279</v>
       </c>
@@ -11126,11 +12240,11 @@
       <c r="E319" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="CW319" t="str">
-        <v>5ab8f028107b8a7cb6b771098c2a0d16</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+      <c r="CW319" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="320" spans="1:101">
       <c r="A320" s="1" t="s">
         <v>1283</v>
       </c>
@@ -11146,11 +12260,11 @@
       <c r="E320" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="CW320" t="str">
-        <v>f2f36f6c90eff56079814c5db5979efa</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+      <c r="CW320" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="321" spans="1:101">
       <c r="A321" s="1" t="s">
         <v>1287</v>
       </c>
@@ -11166,11 +12280,11 @@
       <c r="E321" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="CW321" t="str">
-        <v>3a310883d20b11e68025d8326a5da5c0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+      <c r="CW321" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="322" spans="1:101">
       <c r="A322" s="1" t="s">
         <v>1291</v>
       </c>
@@ -11186,11 +12300,11 @@
       <c r="E322" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="CW322" t="str">
-        <v>6dc218e724cf7c72b5c5f1bece9d64a4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+      <c r="CW322" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="323" spans="1:101">
       <c r="A323" s="1" t="s">
         <v>1294</v>
       </c>
@@ -11206,11 +12320,11 @@
       <c r="E323" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="CW323" t="str">
-        <v>949172fed6c0ee3a74741259864e4178</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+      <c r="CW323" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="324" spans="1:101">
       <c r="A324" s="1" t="s">
         <v>1298</v>
       </c>
@@ -11226,11 +12340,11 @@
       <c r="E324" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="CW324" t="str">
-        <v>aa21b5f3efbab69a5487adcd0d04ec52</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+      <c r="CW324" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="325" spans="1:101">
       <c r="A325" s="1" t="s">
         <v>1302</v>
       </c>
@@ -11246,11 +12360,11 @@
       <c r="E325" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="CW325" t="str">
-        <v>911f8173f4a762535eb84a9b9b4a963b</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+      <c r="CW325" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="326" spans="1:101">
       <c r="A326" s="1" t="s">
         <v>1307</v>
       </c>
@@ -11266,11 +12380,11 @@
       <c r="E326" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="CW326" t="str">
-        <v>115b67dd57fcdc81e1b8aa3b5068c6ea</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+      <c r="CW326" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="327" spans="1:101">
       <c r="A327" s="1" t="s">
         <v>1311</v>
       </c>
@@ -11286,11 +12400,11 @@
       <c r="E327" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="CW327" t="str">
-        <v>620c185f8757ae3607ea6cd9eeb833ca</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+      <c r="CW327" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="328" spans="1:101">
       <c r="A328" s="1" t="s">
         <v>1315</v>
       </c>
@@ -11306,11 +12420,11 @@
       <c r="E328" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="CW328" t="str">
-        <v>ffc5104cc773ea5ce0d26edd3e736ebd</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+      <c r="CW328" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="329" spans="1:101">
       <c r="A329" s="1" t="s">
         <v>1319</v>
       </c>
@@ -11326,11 +12440,11 @@
       <c r="E329" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="CW329" t="str">
-        <v>1ae1a2e8804ca7ee9cc48182885dba7c</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+      <c r="CW329" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="330" spans="1:101">
       <c r="A330" s="1" t="s">
         <v>1323</v>
       </c>
@@ -11346,11 +12460,11 @@
       <c r="E330" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="CW330" t="str">
-        <v>8b4bdb81ab79def388db4d84b555d38e</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+      <c r="CW330" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="331" spans="1:101">
       <c r="A331" s="1" t="s">
         <v>1328</v>
       </c>
@@ -11366,11 +12480,11 @@
       <c r="E331" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="CW331" t="str">
-        <v>cb518cf04cf7b11c5fb65278e76870bc</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+      <c r="CW331" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="332" spans="1:101">
       <c r="A332" s="1" t="s">
         <v>1332</v>
       </c>
@@ -11386,11 +12500,11 @@
       <c r="E332" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="CW332" t="str">
-        <v>720fc111589b6968933e738ded2e249c</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+      <c r="CW332" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="333" spans="1:101">
       <c r="A333" s="1" t="s">
         <v>1336</v>
       </c>
@@ -11406,11 +12520,11 @@
       <c r="E333" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="CW333" t="str">
-        <v>00320ecddaa46297accbb1085628ce07</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+      <c r="CW333" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="334" spans="1:101">
       <c r="A334" s="1" t="s">
         <v>1340</v>
       </c>
@@ -11426,11 +12540,11 @@
       <c r="E334" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="CW334" t="str">
-        <v>714188fad205b8ea582a0e87ca37965a</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+      <c r="CW334" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="335" spans="1:101">
       <c r="A335" s="1" t="s">
         <v>1344</v>
       </c>
@@ -11446,11 +12560,11 @@
       <c r="E335" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="CW335" t="str">
-        <v>a052970d215cc07eff9e577ffa2b8ea3</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+      <c r="CW335" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="336" spans="1:101">
       <c r="A336" s="1" t="s">
         <v>1348</v>
       </c>
@@ -11466,11 +12580,11 @@
       <c r="E336" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="CW336" t="str">
-        <v>b8ae1b47359deb40c3aaf8b8238fe079</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+      <c r="CW336" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="337" spans="1:101">
       <c r="A337" s="1" t="s">
         <v>1352</v>
       </c>
@@ -11486,11 +12600,11 @@
       <c r="E337" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="CW337" t="str">
-        <v>a41b5e10bd7d81e03c481a41bb15f8df</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+      <c r="CW337" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="338" spans="1:101">
       <c r="A338" s="1" t="s">
         <v>1356</v>
       </c>
@@ -11506,11 +12620,11 @@
       <c r="E338" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="CW338" t="str">
-        <v>7669aaba26c6527fe83cd7e1df939574</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+      <c r="CW338" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="339" spans="1:101">
       <c r="A339" s="1" t="s">
         <v>1360</v>
       </c>
@@ -11526,11 +12640,11 @@
       <c r="E339" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="CW339" t="str">
-        <v>44db22d14e2c23d094f1aed4c3244dc3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+      <c r="CW339" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="340" spans="1:101">
       <c r="A340" s="1" t="s">
         <v>1364</v>
       </c>
@@ -11546,11 +12660,11 @@
       <c r="E340" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="CW340" t="str">
-        <v>7d437436750cb5ca4f7b630bfcf4fd2f</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+      <c r="CW340" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="341" spans="1:101">
       <c r="A341" s="1" t="s">
         <v>1368</v>
       </c>
@@ -11566,11 +12680,11 @@
       <c r="E341" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="CW341" t="str">
-        <v>10e5c1351ed1c0fe120b6fa9cfd1801a</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+      <c r="CW341" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="342" spans="1:101">
       <c r="A342" s="1" t="s">
         <v>1372</v>
       </c>
@@ -11586,11 +12700,11 @@
       <c r="E342" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="CW342" t="str">
-        <v>59fdaf18354b17162f36bdd058b31ed7</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+      <c r="CW342" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="343" spans="1:101">
       <c r="A343" s="1" t="s">
         <v>1376</v>
       </c>
@@ -11606,11 +12720,11 @@
       <c r="E343" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="CW343" t="str">
-        <v>26c83983fd49c80adbe2ff275e516a3a</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+      <c r="CW343" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="344" spans="1:101">
       <c r="A344" s="1" t="s">
         <v>1380</v>
       </c>
@@ -11624,11 +12738,11 @@
         <v>1326</v>
       </c>
       <c r="E344" s="1"/>
-      <c r="CW344" t="str">
-        <v>3afc69b5aced41add7e95ff31f7755fc</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+      <c r="CW344" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="345" spans="1:101">
       <c r="A345" s="1" t="s">
         <v>1381</v>
       </c>
@@ -11644,11 +12758,11 @@
       <c r="E345" s="1">
         <v>852</v>
       </c>
-      <c r="CW345" t="str">
-        <v>ef6afc76cfd5e3c94a6e6ff551f1f2da</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+      <c r="CW345" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="346" spans="1:101">
       <c r="A346" s="1" t="s">
         <v>1385</v>
       </c>
@@ -11664,11 +12778,11 @@
       <c r="E346" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="CW346" t="str">
-        <v>aa49e79fa54392e8ed982f656b0d37c5</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+      <c r="CW346" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="347" spans="1:101">
       <c r="A347" s="1" t="s">
         <v>1387</v>
       </c>
@@ -11684,11 +12798,11 @@
       <c r="E347" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="CW347" t="str">
-        <v>7247c0fe7290dbd8fc7fe707ba3240f5</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+      <c r="CW347" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="348" spans="1:101">
       <c r="A348" s="1" t="s">
         <v>1389</v>
       </c>
@@ -11704,11 +12818,11 @@
       <c r="E348" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="CW348" t="str">
-        <v>c2f92d95d374cfcc6c881ccc2642d7f9</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+      <c r="CW348" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="349" spans="1:101">
       <c r="A349" s="1" t="s">
         <v>1393</v>
       </c>
@@ -11724,11 +12838,11 @@
       <c r="E349" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="CW349" t="str">
-        <v>5ed031e1f5ac73161410a13f022d6269</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+      <c r="CW349" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="350" spans="1:101">
       <c r="A350" s="1" t="s">
         <v>1395</v>
       </c>
@@ -11744,11 +12858,11 @@
       <c r="E350" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="CW350" t="str">
-        <v>0d48da9c18a2caac1ec4e0232068285f</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+      <c r="CW350" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="351" spans="1:101">
       <c r="A351" s="1" t="s">
         <v>1397</v>
       </c>
@@ -11764,11 +12878,11 @@
       <c r="E351" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="CW351" t="str">
-        <v>4a39f200b9a44347ea6fa588f6749535</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+      <c r="CW351" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="352" spans="1:101">
       <c r="A352" s="1" t="s">
         <v>1402</v>
       </c>
@@ -11784,11 +12898,11 @@
       <c r="E352" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="CW352" t="str">
-        <v>0ed1e7b45b6f4b32707163a9c23c9641</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+      <c r="CW352" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="353" spans="1:101">
       <c r="A353" s="1" t="s">
         <v>1405</v>
       </c>
@@ -11804,11 +12918,11 @@
       <c r="E353" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="CW353" t="str">
-        <v>2917570ed454580eb9b83ac5b878a90a</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+      <c r="CW353" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="354" spans="1:101">
       <c r="A354" s="1" t="s">
         <v>1407</v>
       </c>
@@ -11824,11 +12938,11 @@
       <c r="E354" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="CW354" t="str">
-        <v>90b91ab05b7a0827015dfd7b73c71d59</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+      <c r="CW354" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="355" spans="1:101">
       <c r="A355" s="1" t="s">
         <v>1410</v>
       </c>
@@ -11844,11 +12958,11 @@
       <c r="E355" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="CW355" t="str">
-        <v>b3cd649c8bbcba28ad3c0e007deb6cd1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+      <c r="CW355" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="356" spans="1:101">
       <c r="A356" s="1" t="s">
         <v>1412</v>
       </c>
@@ -11864,11 +12978,11 @@
       <c r="E356" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="CW356" t="str">
-        <v>9451d38d26f68ab2a8fdf28c62590978</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+      <c r="CW356" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="357" spans="1:101">
       <c r="A357" s="1" t="s">
         <v>1414</v>
       </c>
@@ -11884,11 +12998,11 @@
       <c r="E357" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="CW357" t="str">
-        <v>6f5dc052250de8a99f562d5ecb5eb4cb</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+      <c r="CW357" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="358" spans="1:101">
       <c r="A358" s="1" t="s">
         <v>1417</v>
       </c>
@@ -11904,11 +13018,11 @@
       <c r="E358" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="CW358" t="str">
-        <v>f786a44f1cbfdd2f0b1c9504254c9f9a</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+      <c r="CW358" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="359" spans="1:101">
       <c r="A359" s="1" t="s">
         <v>1420</v>
       </c>
@@ -11924,11 +13038,11 @@
       <c r="E359" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="CW359" t="str">
-        <v>6c1809de9c93cffdadef275b5c6c4398</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+      <c r="CW359" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="360" spans="1:101">
       <c r="A360" s="1" t="s">
         <v>1423</v>
       </c>
@@ -11944,11 +13058,11 @@
       <c r="E360" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="CW360" t="str">
-        <v>351c92910d9bfa0ee7dc8997e0390e1e</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+      <c r="CW360" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="361" spans="1:101">
       <c r="A361" s="1" t="s">
         <v>1425</v>
       </c>
@@ -11964,11 +13078,11 @@
       <c r="E361" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="CW361" t="str">
-        <v>29dff176ed4537e097700d5a064b1d6e</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+      <c r="CW361" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="362" spans="1:101">
       <c r="A362" s="1" t="s">
         <v>1428</v>
       </c>
@@ -11982,11 +13096,11 @@
         <v>1400</v>
       </c>
       <c r="E362" s="1"/>
-      <c r="CW362" t="str">
-        <v>3837777e3c58f104a22c2886cbee7572</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+      <c r="CW362" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="363" spans="1:101">
       <c r="A363" s="1" t="s">
         <v>1430</v>
       </c>
@@ -12002,11 +13116,11 @@
       <c r="E363" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="CW363" t="str">
-        <v>c2ffba1b3fb4e65fba6c404e8774caf1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+      <c r="CW363" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="364" spans="1:101">
       <c r="A364" s="1" t="s">
         <v>1433</v>
       </c>
@@ -12022,11 +13136,11 @@
       <c r="E364" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="CW364" t="str">
-        <v>c9cb794f2cb89bd810e76f359a631f50</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+      <c r="CW364" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="365" spans="1:101">
       <c r="A365" s="1" t="s">
         <v>1435</v>
       </c>
@@ -12042,11 +13156,11 @@
       <c r="E365" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="CW365" t="str">
-        <v>06970abd080b12b4ac6f0447cdec3e50</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+      <c r="CW365" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="366" spans="1:101">
       <c r="A366" s="1" t="s">
         <v>1438</v>
       </c>
@@ -12062,11 +13176,11 @@
       <c r="E366" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="CW366" t="str">
-        <v>0266a4f37868faa0e64dd632d1b009c9</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+      <c r="CW366" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="367" spans="1:101">
       <c r="A367" s="1" t="s">
         <v>1441</v>
       </c>
@@ -12082,11 +13196,11 @@
       <c r="E367" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="CW367" t="str">
-        <v>6944ada1eb0318a47392d4b228f9e5fc</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+      <c r="CW367" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="368" spans="1:101">
       <c r="A368" s="1" t="s">
         <v>1443</v>
       </c>
@@ -12102,11 +13216,11 @@
       <c r="E368" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="CW368" t="str">
-        <v>ea6c32e244765e3f3920c7c3917f1f31</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+      <c r="CW368" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="369" spans="1:101">
       <c r="A369" s="1" t="s">
         <v>1445</v>
       </c>
@@ -12122,11 +13236,11 @@
       <c r="E369" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="CW369" t="str">
-        <v>8b3bbcf294a74ebe50452ac970e200c9</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+      <c r="CW369" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="370" spans="1:101">
       <c r="A370" s="1" t="s">
         <v>1447</v>
       </c>
@@ -12142,11 +13256,11 @@
       <c r="E370" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="CW370" t="str">
-        <v>fc4336bc1fb88e16be04c5779a9daf2d</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+      <c r="CW370" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="371" spans="1:101">
       <c r="A371" s="1" t="s">
         <v>1450</v>
       </c>
@@ -12162,11 +13276,11 @@
       <c r="E371" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="CW371" t="str">
-        <v>f3f73fb0b535268143dfb9d0f59aac43</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+      <c r="CW371" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="372" spans="1:101">
       <c r="A372" s="1" t="s">
         <v>1452</v>
       </c>
@@ -12182,11 +13296,11 @@
       <c r="E372" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="CW372" t="str">
-        <v>d3ceac34e4a7989cfa186173c138b3e2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+      <c r="CW372" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="373" spans="1:101">
       <c r="A373" s="1" t="s">
         <v>1454</v>
       </c>
@@ -12202,12 +13316,25 @@
       <c r="E373" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="CW373" t="str">
-        <v>4f90d7520a0b412bfdd2227b771a2048</v>
+      <c r="CW373" t="s">
+        <v>1829</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B296D7-2AE0-BC4A-9380-7B0266401858}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>